--- a/data/processed/similar_yyq5d_11k.xlsx
+++ b/data/processed/similar_yyq5d_11k.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -409,12 +409,17 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>a_body</t>
+          <t>a_cleaned_body</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>a_cleaned_body</t>
+          <t>a_images_list</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>a_code_snippets</t>
         </is>
       </c>
     </row>
@@ -829,24 +834,20 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>&lt;p&gt;This question has been sitting long enough, that it is time to document an answer for posterity.&lt;/p&gt;
-&lt;p&gt;The short answer is that highly-customized data visualizations cannot be done using function wrappers from the 'lattice' and 'ggplot2' packages.  The purpose of a function wrapper is to take some of the decisions out of your hands, so you will always be limited to the decisions originally envisioned by the function coder.  I highly recommend everyone learn the 'lattice' or 'ggplot2' packages, but these packages are more useful for data exploration than for being creative with data visualizations.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;This answer is for those who want to create a customized visual.&lt;/strong&gt;  The following process may take half a day, but that is significantly less time than it would take to hack the 'lattice' or 'ggplot2' packages into the shape you want.  This isn't a criticism of either of those packages; it's just a byproduct of their purpose.  When you need a creative visual for a publication or client, 4 or 5 hours of your day is nothing compared to the payoff.&lt;/p&gt;
-&lt;p&gt;The work to make a customized visual is pretty simple with the 'grid' package, but that doesn't mean the math behind it is always simple.  Most of the work in this example is actually the math and not the graphic.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Preface&lt;/strong&gt;: There are some things you should know before you being working with the base 'grid' package for your visuals.  The first is that 'grid' works off the idea of viewports.  These are plotting spaces that allow you to reference from within that space, ignoring the rest of the graphic.  This is important, because it allows you to make graphics without having to scale your work into fractions of the entire space.  It's a lot like the layout options in the base plotting functions, except that they can overlap, be rotated, and made transparent.&lt;/p&gt;
-&lt;p&gt;Units are another thing to know.  The viewports each have a variety of units that you can use to indicate positions and sizes.  You can see the whole list in the 'grid' documentation, but there are only a few that I use very often: npc, native, strwidth, and lines.  Npc units start at (0,0) in the bottom left and go to c(1,1) in the upper right.  Native units use an 'xscale' and 'yscale' to create what is essentially a plotting space for data.  Strwidth units tell you how wide a certain string of text would be once printed on the graphic.  Lines units tell you how tall a line of text would be once printed on the graphic.  Since multiple types of units are always available, you should get in the habit of always either explicitly defining a number with a 'unit' function or specifying the 'default.units' argument from within your drawing functions.&lt;/p&gt;
-&lt;p&gt;Finally, you have the ability to specify justifications for all your objects' locations.  This is HUGE.  It means you can specify the location of a shape and then say how you want that shape horizontally and vertically justified (center, left, right, bottom, top).  You can line up things perfectly this way by referencing the location of other objects.&lt;/p&gt;
-&lt;hr&gt;
-&lt;p&gt;&lt;strong&gt;This is what we are making&lt;/strong&gt;:  This isn't a perfect graphic, since I'm having to guess what the OP wants, but it is enough to get us on our way to a perfect graphic.&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://i.stack.imgur.com/Op7l1.png" alt="demo graph"&gt;&lt;/p&gt;
-&lt;hr&gt;
-&lt;p&gt;&lt;strong&gt;Step 1&lt;/strong&gt;: Load up some libraries to work with.  When you want to do highly-customized visuals, use the 'grid' package.  It's the base set of functions that wrappers like 'lattice' and 'ggplot2' are calling.  When you want to work with dates, use the 'lubridate' package, because IT MAKES YOUR LIFE BETTER.  This last one is a personal preference: when I'm going to doing any sort of data summary work, I like to use the 'plyr' package.  It allows me to quickly shape my data into aggregate forms.&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;library(grid)
+          <t xml:space="preserve"> This question has been sitting long enough, that it is time to document an answer for posterity. The short answer is that highly-customized data visualizations cannot be done using function wrappers from the 'lattice' and 'ggplot2' packages.  The purpose of a function wrapper is to take some of the decisions out of your hands, so you will always be limited to the decisions originally envisioned by the function coder.  I highly recommend everyone learn the 'lattice' or 'ggplot2' packages, but these packages are more useful for data exploration than for being creative with data visualizations. This answer is for those who want to create a customized visual. The following process may take half a day, but that is significantly less time than it would take to hack the 'lattice' or 'ggplot2' packages into the shape you want.  This isn't a criticism of either of those packages; it's just a byproduct of their purpose.  When you need a creative visual for a publication or client, 4 or 5 hours of your day is nothing compared to the payoff. The work to make a customized visual is pretty simple with the 'grid' package, but that doesn't mean the math behind it is always simple.  Most of the work in this example is actually the math and not the graphic. Preface : There are some things you should know before you being working with the base 'grid' package for your visuals.  The first is that 'grid' works off the idea of viewports.  These are plotting spaces that allow you to reference from within that space, ignoring the rest of the graphic.  This is important, because it allows you to make graphics without having to scale your work into fractions of the entire space.  It's a lot like the layout options in the base plotting functions, except that they can overlap, be rotated, and made transparent. Units are another thing to know.  The viewports each have a variety of units that you can use to indicate positions and sizes.  You can see the whole list in the 'grid' documentation, but there are only a few that I use very often: npc, native, strwidth, and lines.  Npc units start at (0,0) in the bottom left and go to c(1,1) in the upper right.  Native units use an 'xscale' and 'yscale' to create what is essentially a plotting space for data.  Strwidth units tell you how wide a certain string of text would be once printed on the graphic.  Lines units tell you how tall a line of text would be once printed on the graphic.  Since multiple types of units are always available, you should get in the habit of always either explicitly defining a number with a 'unit' function or specifying the 'default.units' argument from within your drawing functions. Finally, you have the ability to specify justifications for all your objects' locations.  This is HUGE.  It means you can specify the location of a shape and then say how you want that shape horizontally and vertically justified (center, left, right, bottom, top).  You can line up things perfectly this way by referencing the location of other objects. This is what we are making :  This isn't a perfect graphic, since I'm having to guess what the OP wants, but it is enough to get us on our way to a perfect graphic. Step 1 : Load up some libraries to work with.  When you want to do highly-customized visuals, use the 'grid' package.  It's the base set of functions that wrappers like 'lattice' and 'ggplot2' are calling.  When you want to work with dates, use the 'lubridate' package, because IT MAKES YOUR LIFE BETTER.  This last one is a personal preference: when I'm going to doing any sort of data summary work, I like to use the 'plyr' package.  It allows me to quickly shape my data into aggregate forms. Sample data generation : This isn't necessary if you already have your data, but for this example, I'm creating a set of sample data.  You can play around with it by changing the user settings for the data generation.  The script is flexible and will adapt to the data generated.  Feel free to add more websites and play around with the lambda values. Step 2 : Now, we need to decide how we want our graphic to work.  It's useful to separate things like sizes and colors into a different section of your code, so you can quickly make changes.  Here, I've chosen some basic settings that should produce a decent graphic.  You'll notice that a few of the size settings are using the 'unit' function.  This is one of the amazing things about the 'grid' package.  You can use various units to describe space on your graphic.  For instance, is the height of one line of text.  This makes laying out a graphic significantly easier. Step 3 : It's time to make the graphic.  I have limited space for explanations in an SO answer, so I will summarize and then leave the code comments to explain the details.  In a nutshell, I'm calculating how big everything will be and then making the plots one at a time.  For each plot, I format my data first, so I can specify the viewport appropriately.  Then I lay down labels that need to be behind the data, and then I plot the data.  At the end, I "pop" the viewport to finalize it.</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>[&lt;img alt="demo graph" src="https://i.stack.imgur.com/Op7l1.png"/&gt;]</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;library(grid)
 library(lubridate)
 library(plyr)
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;strong&gt;Sample data generation&lt;/strong&gt;: This isn't necessary if you already have your data, but for this example, I'm creating a set of sample data.  You can play around with it by changing the user settings for the data generation.  The script is flexible and will adapt to the data generated.  Feel free to add more websites and play around with the lambda values.&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;    set.seed(1)
+&lt;/code&gt;, &lt;code&gt;    set.seed(1)
 #############################################
 # User settings for the data generation.    #
 #############################################
@@ -890,9 +891,7 @@
 df_Hits &amp;lt;- df_Hits[df_Hits$hits &amp;gt; 0,]
 # Clean up data-generation variables.
 rm(list=ls()[ls()!="df_Hits"])
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;strong&gt;Step 2&lt;/strong&gt;: Now, we need to decide how we want our graphic to work.  It's useful to separate things like sizes and colors into a different section of your code, so you can quickly make changes.  Here, I've chosen some basic settings that should produce a decent graphic.  You'll notice that a few of the size settings are using the 'unit' function.  This is one of the amazing things about the 'grid' package.  You can use various units to describe space on your graphic.  For instance, &lt;code&gt;unit(1, "lines")&lt;/code&gt; is the height of one line of text.  This makes laying out a graphic significantly easier.&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;#############################################
+&lt;/code&gt;, &lt;code&gt;unit(1, "lines")&lt;/code&gt;, &lt;code&gt;#############################################
 # User settings for the graphic.            #
 #############################################
 # Specify the window width and height and
@@ -931,9 +930,7 @@
 marker_Color &amp;lt;- "gray80"
 # Set the fontsize for labels.
 label_Size &amp;lt;- 10
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;strong&gt;Step 3&lt;/strong&gt;: It's time to make the graphic.  I have limited space for explanations in an SO answer, so I will summarize and then leave the code comments to explain the details.  In a nutshell, I'm calculating how big everything will be and then making the plots one at a time.  For each plot, I format my data first, so I can specify the viewport appropriately.  Then I lay down labels that need to be behind the data, and then I plot the data.  At the end, I "pop" the viewport to finalize it.&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;    #############################################
+&lt;/code&gt;, &lt;code&gt;    #############################################
 # Make the graphic.                         #
 #############################################
 # Make sure bin cutoffs are in increasing order.
@@ -1200,12 +1197,7 @@
         just=c("left","top"),
         gp=gpar(col=as.character(bin_Settings$color[i])))
 }
-&lt;/code&gt;&lt;/pre&gt;</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> This question has been sitting long enough, that it is time to document an answer for posterity. The short answer is that highly-customized data visualizations cannot be done using function wrappers from the 'lattice' and 'ggplot2' packages.  The purpose of a function wrapper is to take some of the decisions out of your hands, so you will always be limited to the decisions originally envisioned by the function coder.  I highly recommend everyone learn the 'lattice' or 'ggplot2' packages, but these packages are more useful for data exploration than for being creative with data visualizations. This answer is for those who want to create a customized visual. The following process may take half a day, but that is significantly less time than it would take to hack the 'lattice' or 'ggplot2' packages into the shape you want.  This isn't a criticism of either of those packages; it's just a byproduct of their purpose.  When you need a creative visual for a publication or client, 4 or 5 hours of your day is nothing compared to the payoff. The work to make a customized visual is pretty simple with the 'grid' package, but that doesn't mean the math behind it is always simple.  Most of the work in this example is actually the math and not the graphic. Preface : There are some things you should know before you being working with the base 'grid' package for your visuals.  The first is that 'grid' works off the idea of viewports.  These are plotting spaces that allow you to reference from within that space, ignoring the rest of the graphic.  This is important, because it allows you to make graphics without having to scale your work into fractions of the entire space.  It's a lot like the layout options in the base plotting functions, except that they can overlap, be rotated, and made transparent. Units are another thing to know.  The viewports each have a variety of units that you can use to indicate positions and sizes.  You can see the whole list in the 'grid' documentation, but there are only a few that I use very often: npc, native, strwidth, and lines.  Npc units start at (0,0) in the bottom left and go to c(1,1) in the upper right.  Native units use an 'xscale' and 'yscale' to create what is essentially a plotting space for data.  Strwidth units tell you how wide a certain string of text would be once printed on the graphic.  Lines units tell you how tall a line of text would be once printed on the graphic.  Since multiple types of units are always available, you should get in the habit of always either explicitly defining a number with a 'unit' function or specifying the 'default.units' argument from within your drawing functions. Finally, you have the ability to specify justifications for all your objects' locations.  This is HUGE.  It means you can specify the location of a shape and then say how you want that shape horizontally and vertically justified (center, left, right, bottom, top).  You can line up things perfectly this way by referencing the location of other objects. This is what we are making :  This isn't a perfect graphic, since I'm having to guess what the OP wants, but it is enough to get us on our way to a perfect graphic. Step 1 : Load up some libraries to work with.  When you want to do highly-customized visuals, use the 'grid' package.  It's the base set of functions that wrappers like 'lattice' and 'ggplot2' are calling.  When you want to work with dates, use the 'lubridate' package, because IT MAKES YOUR LIFE BETTER.  This last one is a personal preference: when I'm going to doing any sort of data summary work, I like to use the 'plyr' package.  It allows me to quickly shape my data into aggregate forms. Sample data generation : This isn't necessary if you already have your data, but for this example, I'm creating a set of sample data.  You can play around with it by changing the user settings for the data generation.  The script is flexible and will adapt to the data generated.  Feel free to add more websites and play around with the lambda values. Step 2 : Now, we need to decide how we want our graphic to work.  It's useful to separate things like sizes and colors into a different section of your code, so you can quickly make changes.  Here, I've chosen some basic settings that should produce a decent graphic.  You'll notice that a few of the size settings are using the 'unit' function.  This is one of the amazing things about the 'grid' package.  You can use various units to describe space on your graphic.  For instance, is the height of one line of text.  This makes laying out a graphic significantly easier. Step 3 : It's time to make the graphic.  I have limited space for explanations in an SO answer, so I will summarize and then leave the code comments to explain the details.  In a nutshell, I'm calculating how big everything will be and then making the plots one at a time.  For each plot, I format my data first, so I can specify the viewport appropriately.  Then I lay down labels that need to be behind the data, and then I plot the data.  At the end, I "pop" the viewport to finalize it.</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -1249,12 +1241,17 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Great question one awesome solution that i have done is to use: &lt;a href="http://code.google.com/apis/chart/"&gt;http://code.google.com/apis/chart/&lt;/a&gt; The Google Chart has lots of great graphs etc.. you can use. What i did was look at the examples see how the data was formatted, then I wrote my query to match it.&lt;/p&gt;</t>
+          <t xml:space="preserve"> Great question one awesome solution that i have done is to use: http://code.google.com/apis/chart/ The Google Chart has lots of great graphs etc.. you can use. What i did was look at the examples see how the data was formatted, then I wrote my query to match it.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Great question one awesome solution that i have done is to use: http://code.google.com/apis/chart/ The Google Chart has lots of great graphs etc.. you can use. What i did was look at the examples see how the data was formatted, then I wrote my query to match it.</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1302,16 +1299,17 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>&lt;p&gt;wow, 4 hours and no answer; i had a similar experience in school but just learned the stuff and figured out what it was good for later. it turns out to be very useful, so let's see if this helps -&lt;/p&gt;
-&lt;p&gt;a database is formally defined as a set of relations, but it is also a graph; each table is a node, each column is a node connected to the table, each row is a node connected to the table, each field is a node connected to the row, relationships between tables interconnect nodes, foreign-key relationships interconnect rows, query constraints (where clauses) and joins interconnect nodes and sets of nodes, and so on.&lt;/p&gt;
-&lt;p&gt;An SQL query may be visualized as traversing the graph formed by the database relations and values and performing operations on each node. Under the hood that is what the query execution planner does, it breaks down the query into a set of fundamental operations and arranges them in a graph that is most efficient.&lt;/p&gt;
-&lt;p&gt;Updates to your database may also be thought of as graph operations, e.g. updating the quantity in an order line item row propagates the change to the the total in the order row, which propagates the change to the TotalSales in the Customer row, and so on.&lt;/p&gt;
-&lt;p&gt;many common problems devolve into graph-traversal problems. Ever used Google Maps to get directions to some place?&lt;/p&gt;</t>
+          <t xml:space="preserve"> wow, 4 hours and no answer; i had a similar experience in school but just learned the stuff and figured out what it was good for later. it turns out to be very useful, so let's see if this helps - a database is formally defined as a set of relations, but it is also a graph; each table is a node, each column is a node connected to the table, each row is a node connected to the table, each field is a node connected to the row, relationships between tables interconnect nodes, foreign-key relationships interconnect rows, query constraints (where clauses) and joins interconnect nodes and sets of nodes, and so on. An SQL query may be visualized as traversing the graph formed by the database relations and values and performing operations on each node. Under the hood that is what the query execution planner does, it breaks down the query into a set of fundamental operations and arranges them in a graph that is most efficient. Updates to your database may also be thought of as graph operations, e.g. updating the quantity in an order line item row propagates the change to the the total in the order row, which propagates the change to the TotalSales in the Customer row, and so on. many common problems devolve into graph-traversal problems. Ever used Google Maps to get directions to some place?</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> wow, 4 hours and no answer; i had a similar experience in school but just learned the stuff and figured out what it was good for later. it turns out to be very useful, so let's see if this helps - a database is formally defined as a set of relations, but it is also a graph; each table is a node, each column is a node connected to the table, each row is a node connected to the table, each field is a node connected to the row, relationships between tables interconnect nodes, foreign-key relationships interconnect rows, query constraints (where clauses) and joins interconnect nodes and sets of nodes, and so on. An SQL query may be visualized as traversing the graph formed by the database relations and values and performing operations on each node. Under the hood that is what the query execution planner does, it breaks down the query into a set of fundamental operations and arranges them in a graph that is most efficient. Updates to your database may also be thought of as graph operations, e.g. updating the quantity in an order line item row propagates the change to the the total in the order row, which propagates the change to the TotalSales in the Customer row, and so on. many common problems devolve into graph-traversal problems. Ever used Google Maps to get directions to some place?</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1357,14 +1355,17 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>&lt;p&gt;From my understanding of &lt;a href="https://vita.had.co.nz/papers/letter-value-plot.html" rel="nofollow noreferrer"&gt;the paper describing the concept&lt;/a&gt; of "boxenplot" (or "letter-value-plot" as the authors named it), the goal is to provide a better representation of the distribution of the data than &lt;code&gt;boxplot&lt;/code&gt; (esp. when lots of outlier values are present), but without the need to choose specific parameters, for example for the KDE function used by &lt;code&gt;violinplot&lt;/code&gt;, which could distort the appearance of the distribution if chosen poorly&lt;/p&gt;
-&lt;p&gt;Here is a comparison of the three types of plots:
-&lt;a href="https://i.stack.imgur.com/AlU0Q.png" rel="nofollow noreferrer"&gt;&lt;img src="https://i.stack.imgur.com/AlU0Q.png" alt="enter image description here"&gt;&lt;/a&gt;&lt;/p&gt;</t>
+          <t xml:space="preserve"> From my understanding of the paper describing the concept of "boxenplot" (or "letter-value-plot" as the authors named it), the goal is to provide a better representation of the distribution of the data than (esp. when lots of outlier values are present), but without the need to choose specific parameters, for example for the KDE function used by , which could distort the appearance of the distribution if chosen poorly Here is a comparison of the three types of plots:</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> From my understanding of the paper describing the concept of "boxenplot" (or "letter-value-plot" as the authors named it), the goal is to provide a better representation of the distribution of the data than (esp. when lots of outlier values are present), but without the need to choose specific parameters, for example for the KDE function used by , which could distort the appearance of the distribution if chosen poorly Here is a comparison of the three types of plots:</t>
+          <t>[&lt;img alt="enter image description here" src="https://i.stack.imgur.com/AlU0Q.png"/&gt;]</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;boxplot&lt;/code&gt;, &lt;code&gt;violinplot&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -1434,38 +1435,23 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>&lt;blockquote&gt;
-  &lt;p&gt;I see the placeholders connected correctly to the rest of my graph, and I see all of the corresponding computed values too, but the latter don't connect to the former.&lt;/p&gt;
-  &lt;p&gt;Is this the expected be behavior? &lt;/p&gt;
-&lt;/blockquote&gt;
-&lt;p&gt;Indeed it is the correct behavior. Your graph is decomposed in two parts:&lt;/p&gt;
-&lt;ol&gt;
-&lt;li&gt;The part where you compute the values &lt;code&gt;keep_prob_***_val&lt;/code&gt;&lt;/li&gt;
-&lt;li&gt;The part where you define the placeholders &lt;code&gt;keep_prob_***&lt;/code&gt;&lt;/li&gt;
-&lt;/ol&gt;
-&lt;p&gt;Parts 1 and 2 are not connected in the graph. When you call &lt;code&gt;sess.run(keep_prob_***_val)&lt;/code&gt;, you create a Python object. This object is then fed to the second part of the graph, but the graph doesn't know it comes from the first part.&lt;/p&gt;
-&lt;hr&gt;
-&lt;blockquote&gt;
-  &lt;p&gt;Is there a way to capture in the TensorBoard visualization of my graph the fact that the computed values are used to fill the corresponding placeholders?&lt;/p&gt;
-&lt;/blockquote&gt;
-&lt;p&gt;You can use &lt;code&gt;tf.cond()&lt;/code&gt; (&lt;a href="https://www.tensorflow.org/versions/r0.8/api_docs/python/control_flow_ops.html#cond" rel="nofollow"&gt;doc&lt;/a&gt;) to choose between using the values computed in the first part of the graph, or the test values (like &lt;code&gt;1.&lt;/code&gt; for &lt;code&gt;keep_prob&lt;/code&gt;):&lt;/p&gt;
-&lt;pre class="lang-py prettyprint-override"&gt;&lt;code&gt;is_train = tf.placeholder(tf.bool, [])
+          <t xml:space="preserve"> I see the placeholders connected correctly to the rest of my graph, and I see all of the corresponding computed values too, but the latter don't connect to the former. Is this the expected be behavior? Indeed it is the correct behavior. Your graph is decomposed in two parts: The part where you compute the values The part where you define the placeholders Parts 1 and 2 are not connected in the graph. When you call , you create a Python object. This object is then fed to the second part of the graph, but the graph doesn't know it comes from the first part. Is there a way to capture in the TensorBoard visualization of my graph the fact that the computed values are used to fill the corresponding placeholders? You can use ( doc ) to choose between using the values computed in the first part of the graph, or the test values (like for ): And why other computed values appear correctly. For example, my computed momentum values, which are defined just like the above fed dropout values do show up connected to all the parts of the graph they influence. In this case, you do not use an intermediate placeholder so the graph is fully connected !</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;keep_prob_***_val&lt;/code&gt;, &lt;code&gt;keep_prob_***&lt;/code&gt;, &lt;code&gt;sess.run(keep_prob_***_val)&lt;/code&gt;, &lt;code&gt;tf.cond()&lt;/code&gt;, &lt;code&gt;1.&lt;/code&gt;, &lt;code&gt;keep_prob&lt;/code&gt;, &lt;code&gt;is_train = tf.placeholder(tf.bool, [])
 def when_train():
     return keep_prob_late_val
 def when_not_train():
     return 1.
 keep_prob_later = tf.cond(is_train, when_train, when_not_train)
-&lt;/code&gt;&lt;/pre&gt;
-&lt;hr&gt;
-&lt;blockquote&gt;
-  &lt;p&gt;And why other computed values appear correctly. For example, my computed momentum values, which are defined just like the above fed dropout values do show up connected to all the parts of the graph they influence.&lt;/p&gt;
-&lt;/blockquote&gt;
-&lt;p&gt;In this case, you do not use an &lt;strong&gt;intermediate placeholder&lt;/strong&gt; so the graph is fully connected !&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> I see the placeholders connected correctly to the rest of my graph, and I see all of the corresponding computed values too, but the latter don't connect to the former. Is this the expected be behavior? Indeed it is the correct behavior. Your graph is decomposed in two parts: The part where you compute the values The part where you define the placeholders Parts 1 and 2 are not connected in the graph. When you call , you create a Python object. This object is then fed to the second part of the graph, but the graph doesn't know it comes from the first part. Is there a way to capture in the TensorBoard visualization of my graph the fact that the computed values are used to fill the corresponding placeholders? You can use ( doc ) to choose between using the values computed in the first part of the graph, or the test values (like for ): And why other computed values appear correctly. For example, my computed momentum values, which are defined just like the above fed dropout values do show up connected to all the parts of the graph they influence. In this case, you do not use an intermediate placeholder so the graph is fully connected !</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -1512,15 +1498,17 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>&lt;blockquote&gt;
-  &lt;p&gt;How do I keep my lines?&lt;/p&gt;
-&lt;/blockquote&gt;
-&lt;p&gt;You would have to either use a &lt;a href="http://msdn.microsoft.com/en-us/library/system.windows.shapes.polyline.aspx" rel="nofollow"&gt;Polyline&lt;/a&gt; or draw a &lt;a href="http://msdn.microsoft.com/en-us/library/system.windows.media.pathgeometry.aspx" rel="nofollow"&gt;PathGeometry&lt;/a&gt; or a &lt;a href="http://msdn.microsoft.com/en-us/library/system.windows.media.streamgeometry.aspx" rel="nofollow"&gt;StreamGeometry&lt;/a&gt; into a DrawingContext by &lt;a href="http://msdn.microsoft.com/en-us/library/system.windows.media.drawingcontext.drawgeometry.aspx" rel="nofollow"&gt;DrawGeometry&lt;/a&gt;. The geometry would have to contain one or more polyline segments.&lt;/p&gt;</t>
+          <t xml:space="preserve"> How do I keep my lines? You would have to either use a Polyline or draw a PathGeometry or a StreamGeometry into a DrawingContext by DrawGeometry . The geometry would have to contain one or more polyline segments.</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> How do I keep my lines? You would have to either use a Polyline or draw a PathGeometry or a StreamGeometry into a DrawingContext by DrawGeometry . The geometry would have to contain one or more polyline segments.</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1598,9 +1586,17 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>&lt;p&gt;This question has been abandoned for nearly three years. But, I believe it is worth providing an answer since there has not been enough information on how to draw inset maps on stack overflow.&lt;/p&gt;
-&lt;p&gt;I chose ggplot2 to handle this task. First, I downloaded a SpatialPolygonsDataFrame using &lt;code&gt;getData()&lt;/code&gt; in the &lt;code&gt;raster&lt;/code&gt; package. I converted the data to a regular data frame, which is require for ggplot. Then, I drew the main map (i.e., &lt;code&gt;g1&lt;/code&gt;). I used &lt;code&gt;geom_blank()&lt;/code&gt; in order to provide longitude and latitude for ggplot. It used to be the case that we could add long and lat in &lt;code&gt;geom_map()&lt;/code&gt;, but the current version of ggplot does not accept long and lat as x and y, respectively. I trimmed the map using &lt;code&gt;scale_x_continuous()&lt;/code&gt; and &lt;code&gt;scale_y_continuous()&lt;/code&gt;. Then, I drew the inset map (i.e., &lt;code&gt;g2&lt;/code&gt;). Since I needed to draw a rectangular, I created a data frame called &lt;code&gt;temp&lt;/code&gt;. I drew the map in a similar way. Make sure that you treat the inset map as a brow object; you need to use &lt;code&gt;ggplotGrob()&lt;/code&gt;. The last step is to add the inset map in the main map. You need to identify the best location. You want to play with long and lat values.&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;library(raster)
+          <t xml:space="preserve"> This question has been abandoned for nearly three years. But, I believe it is worth providing an answer since there has not been enough information on how to draw inset maps on stack overflow. I chose ggplot2 to handle this task. First, I downloaded a SpatialPolygonsDataFrame using in the package. I converted the data to a regular data frame, which is require for ggplot. Then, I drew the main map (i.e., ). I used in order to provide longitude and latitude for ggplot. It used to be the case that we could add long and lat in , but the current version of ggplot does not accept long and lat as x and y, respectively. I trimmed the map using and . Then, I drew the inset map (i.e., ). Since I needed to draw a rectangular, I created a data frame called . I drew the map in a similar way. Make sure that you treat the inset map as a brow object; you need to use . The last step is to add the inset map in the main map. You need to identify the best location. You want to play with long and lat values.</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>[&lt;img alt="enter image description here" src="https://i.stack.imgur.com/61z0U.png"/&gt;]</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;getData()&lt;/code&gt;, &lt;code&gt;raster&lt;/code&gt;, &lt;code&gt;g1&lt;/code&gt;, &lt;code&gt;geom_blank()&lt;/code&gt;, &lt;code&gt;geom_map()&lt;/code&gt;, &lt;code&gt;scale_x_continuous()&lt;/code&gt;, &lt;code&gt;scale_y_continuous()&lt;/code&gt;, &lt;code&gt;g2&lt;/code&gt;, &lt;code&gt;temp&lt;/code&gt;, &lt;code&gt;ggplotGrob()&lt;/code&gt;, &lt;code&gt;library(raster)
 library(ggplot2)
 library(ggthemes)
 mydata &amp;lt;- getData("GADM", country = "canada", level = 1)
@@ -1631,13 +1627,7 @@
 g3 &amp;lt;- g1 +
       annotation_custom(grob = g2, xmin = -65.49, xmax = -65.1,
                         ymin = 46.05, ymax = 46.34) 
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;a href="https://i.stack.imgur.com/61z0U.png" rel="nofollow noreferrer"&gt;&lt;img src="https://i.stack.imgur.com/61z0U.png" alt="enter image description here"&gt;&lt;/a&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> This question has been abandoned for nearly three years. But, I believe it is worth providing an answer since there has not been enough information on how to draw inset maps on stack overflow. I chose ggplot2 to handle this task. First, I downloaded a SpatialPolygonsDataFrame using in the package. I converted the data to a regular data frame, which is require for ggplot. Then, I drew the main map (i.e., ). I used in order to provide longitude and latitude for ggplot. It used to be the case that we could add long and lat in , but the current version of ggplot does not accept long and lat as x and y, respectively. I trimmed the map using and . Then, I drew the inset map (i.e., ). Since I needed to draw a rectangular, I created a data frame called . I drew the map in a similar way. Make sure that you treat the inset map as a brow object; you need to use . The last step is to add the inset map in the main map. You need to identify the best location. You want to play with long and lat values.</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -1698,12 +1688,18 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Based on your comment:&lt;/p&gt;
-&lt;blockquote&gt;
-  &lt;p&gt;I have created 3 plots for every coordinates for A and B. I want to show x, y and z coordinates in one graph only for A and B. how can I show that?&lt;/p&gt;
-&lt;/blockquote&gt;
-&lt;p&gt;I believe what you are looking for is this:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;A = [[44.254, 44.114, 44.353, 44.899, 45.082],[-0.934, 0.506, 1.389, 0.938, 0.881],[44.864, 45.225, 44.005, 42.981, 46.356]]
+          <t xml:space="preserve"> Based on your comment: I have created 3 plots for every coordinates for A and B. I want to show x, y and z coordinates in one graph only for A and B. how can I show that? I believe what you are looking for is this: Note that sets the current figure to or creates it if it doesn't exist.
+The function takes the form where is a string as defined here</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;A = [[44.254, 44.114, 44.353, 44.899, 45.082],[-0.934, 0.506, 1.389, 0.938, 0.881],[44.864, 45.225, 44.005, 42.981, 46.356]]
 t1 = [0, 1.4911475447, 1.5248639284, 1.2450273089, 3.3804382852]
 B = [[44.254, 48.4877582254, 43.0268091866,  47.3166368948,  47.7110371397], [-0.934, 1.0837036817, 4.8307913511, 6.2772868228, 9.6580229826],  [44.864,  47.1020391758,  43.0633715949,  42.1564814645,  42.0223003717]]
 t2 = [0, 0.00392157, 0.00784314, 0.01176471, 0.01568627 ]
@@ -1713,15 +1709,7 @@
     #figure(2)
     plot(t2,B[i],'o')
 show()
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Note that &lt;code&gt;figure(x)&lt;/code&gt; sets the current figure to &lt;code&gt;x&lt;/code&gt; or creates it if it doesn't exist.
-The &lt;code&gt;plot&lt;/code&gt; function takes the form &lt;code&gt;plot(x,y,'marker_style')&lt;/code&gt; where &lt;code&gt;'marker_style'&lt;/code&gt; is a string as defined &lt;a href="http://matplotlib.org/api/pyplot_api.html#matplotlib.pyplot.plot" rel="nofollow"&gt;here&lt;/a&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Based on your comment: I have created 3 plots for every coordinates for A and B. I want to show x, y and z coordinates in one graph only for A and B. how can I show that? I believe what you are looking for is this: Note that sets the current figure to or creates it if it doesn't exist.
-The function takes the form where is a string as defined here</t>
+&lt;/code&gt;, &lt;code&gt;figure(x)&lt;/code&gt;, &lt;code&gt;x&lt;/code&gt;, &lt;code&gt;plot&lt;/code&gt;, &lt;code&gt;plot(x,y,'marker_style')&lt;/code&gt;, &lt;code&gt;'marker_style'&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -1796,16 +1784,17 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>&lt;blockquote&gt;
-  &lt;p&gt;How do I make sure that the returned value is defined in time?&lt;/p&gt;
-&lt;/blockquote&gt;
-&lt;p&gt;&lt;del&gt;You can simply check condition after &lt;code&gt;useQuery&lt;/code&gt; block
-&lt;/del&gt;&lt;/p&gt;
-&lt;hr&gt;
-&lt;h1&gt;UPDATE&lt;/h1&gt;
-&lt;p&gt;&lt;strong&gt;Hooks can't be called conditionally.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;Usual advice is to place condition in &lt;code&gt;useEffect&lt;/code&gt;:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;const { data, error, loading } = useQuery(GET_POSTS, { 
+          <t xml:space="preserve"> How do I make sure that the returned value is defined in time? You can simply check condition after block UPDATE Hooks can't be called conditionally. Usual advice is to place condition in : Another option: : to load data needed in mutation - conditionally ( or not empty) use with fetched (in query) data as variables; Custom hook can be done with 3 parameters:</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;useQuery&lt;/code&gt;, &lt;code&gt;useEffect&lt;/code&gt;, &lt;code&gt;const { data, error, loading } = useQuery(GET_POSTS, { 
   variables: {
     id: props.match.params.id
   }
@@ -1820,19 +1809,7 @@
     bookItem(); // called when data ready
   }
 })
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Another option: &lt;code&gt;useApolloClient&lt;/code&gt;:&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;&lt;p&gt;&lt;code&gt;useQuery&lt;/code&gt; to load data needed in mutation&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;p&gt;&lt;code&gt;const client = useApolloClient();&lt;/code&gt;&lt;/p&gt;&lt;/li&gt;
-&lt;li&gt;&lt;code&gt;useEffect&lt;/code&gt; - conditionally (&lt;code&gt;!loading&lt;/code&gt; or &lt;code&gt;data&lt;/code&gt; not empty) use &lt;code&gt;client.mutate()&lt;/code&gt; with fetched (in query) data as variables;&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;Custom hook can be done with 3 parameters: &lt;code&gt;(query, mutation, { mapDataToVariables })&lt;/code&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> How do I make sure that the returned value is defined in time? You can simply check condition after block UPDATE Hooks can't be called conditionally. Usual advice is to place condition in : Another option: : to load data needed in mutation - conditionally ( or not empty) use with fetched (in query) data as variables; Custom hook can be done with 3 parameters:</t>
+&lt;/code&gt;, &lt;code&gt;useApolloClient&lt;/code&gt;, &lt;code&gt;useQuery&lt;/code&gt;, &lt;code&gt;const client = useApolloClient();&lt;/code&gt;, &lt;code&gt;useEffect&lt;/code&gt;, &lt;code&gt;!loading&lt;/code&gt;, &lt;code&gt;data&lt;/code&gt;, &lt;code&gt;client.mutate()&lt;/code&gt;, &lt;code&gt;(query, mutation, { mapDataToVariables })&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -1878,14 +1855,17 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Although there are ways to store spatial data and perform queries against it using &lt;a href="https://svn.apache.org/repos/asf/incubator/lucene.net/tags/Lucene.Net_2_9_2_RC2/contrib/Spatial.Net" rel="nofollow"&gt;Spatial.net&lt;/a&gt;, it's not a very elegant solution.&lt;/p&gt;
-&lt;p&gt;Instead I've created an &lt;strong&gt;additional table in SQL Server 2008 with the geometry/geography datatype and a reference to the Umbraco content&lt;/strong&gt; it's connected with.&lt;/p&gt;
-&lt;p&gt;I've then got a &lt;a href="http://our.umbraco.org/wiki/reference/api-cheatsheet/using-applicationbase-to-register-events/event-examples" rel="nofollow"&gt;event hook&lt;/a&gt; which updates this whether content is added/updated/deleted.&lt;/p&gt;</t>
+          <t xml:space="preserve"> Although there are ways to store spatial data and perform queries against it using Spatial.net , it's not a very elegant solution. Instead I've created an additional table in SQL Server 2008 with the geometry/geography datatype and a reference to the Umbraco content it's connected with. I've then got a event hook which updates this whether content is added/updated/deleted.</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Although there are ways to store spatial data and perform queries against it using Spatial.net , it's not a very elegant solution. Instead I've created an additional table in SQL Server 2008 with the geometry/geography datatype and a reference to the Umbraco content it's connected with. I've then got a event hook which updates this whether content is added/updated/deleted.</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1932,15 +1912,17 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>&lt;blockquote&gt;
-  &lt;p&gt;How do I keep my lines?&lt;/p&gt;
-&lt;/blockquote&gt;
-&lt;p&gt;You would have to either use a &lt;a href="http://msdn.microsoft.com/en-us/library/system.windows.shapes.polyline.aspx" rel="nofollow"&gt;Polyline&lt;/a&gt; or draw a &lt;a href="http://msdn.microsoft.com/en-us/library/system.windows.media.pathgeometry.aspx" rel="nofollow"&gt;PathGeometry&lt;/a&gt; or a &lt;a href="http://msdn.microsoft.com/en-us/library/system.windows.media.streamgeometry.aspx" rel="nofollow"&gt;StreamGeometry&lt;/a&gt; into a DrawingContext by &lt;a href="http://msdn.microsoft.com/en-us/library/system.windows.media.drawingcontext.drawgeometry.aspx" rel="nofollow"&gt;DrawGeometry&lt;/a&gt;. The geometry would have to contain one or more polyline segments.&lt;/p&gt;</t>
+          <t xml:space="preserve"> How do I keep my lines? You would have to either use a Polyline or draw a PathGeometry or a StreamGeometry into a DrawingContext by DrawGeometry . The geometry would have to contain one or more polyline segments.</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> How do I keep my lines? You would have to either use a Polyline or draw a PathGeometry or a StreamGeometry into a DrawingContext by DrawGeometry . The geometry would have to contain one or more polyline segments.</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1995,23 +1977,21 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>&lt;p&gt;I don't know if this is the most elegant solution but if you add &lt;code&gt;color&lt;/code&gt; in your &lt;code&gt;aes&lt;/code&gt; and then play with the size in &lt;code&gt;geom_tile&lt;/code&gt; you can get them to overlap and remove the white lines:&lt;/p&gt;
-&lt;p&gt;First is how my data looks with the white lines:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;ggplot(mydf, aes(x=grp, y=date, fill=n)) + 
+          <t xml:space="preserve"> I don't know if this is the most elegant solution but if you add in your and then play with the size in you can get them to overlap and remove the white lines: First is how my data looks with the white lines: Now I set my color to the same object as my fill and mess with the size: Like I said, probably not the most elegant solution, and there is probably a better, more efficient way to determine the size value (instead of trial and error like I did) but in general this seems to solve your issue.</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>[&lt;img alt="enter image description here" src="https://i.stack.imgur.com/XpMoO.png"/&gt;, &lt;img alt="enter image description here" src="https://i.stack.imgur.com/1Zc59.png"/&gt;]</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;color&lt;/code&gt;, &lt;code&gt;aes&lt;/code&gt;, &lt;code&gt;geom_tile&lt;/code&gt;, &lt;code&gt;ggplot(mydf, aes(x=grp, y=date, fill=n)) + 
   geom_tile()
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;a href="https://i.stack.imgur.com/XpMoO.png" rel="nofollow noreferrer"&gt;&lt;img src="https://i.stack.imgur.com/XpMoO.png" alt="enter image description here"&gt;&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Now I set my color to the same object as my fill and mess with the size:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;ggplot(mydf, aes(x=grp, y=date, fill=n,color=n)) + 
+&lt;/code&gt;, &lt;code&gt;ggplot(mydf, aes(x=grp, y=date, fill=n,color=n)) + 
   geom_tile(size=0.6) 
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;a href="https://i.stack.imgur.com/1Zc59.png" rel="nofollow noreferrer"&gt;&lt;img src="https://i.stack.imgur.com/1Zc59.png" alt="enter image description here"&gt;&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Like I said, probably not the most elegant solution, and there is probably a better, more efficient way to determine the size value (instead of trial and error like I did) but in general this seems to solve your issue.&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> I don't know if this is the most elegant solution but if you add in your and then play with the size in you can get them to overlap and remove the white lines: First is how my data looks with the white lines: Now I set my color to the same object as my fill and mess with the size: Like I said, probably not the most elegant solution, and there is probably a better, more efficient way to determine the size value (instead of trial and error like I did) but in general this seems to solve your issue.</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -2106,19 +2086,24 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>&lt;h2&gt;[solved]&lt;/h2&gt;
-&lt;p&gt;Rather than have GNUPLOT handle this alone with math, I first changed the way the data is coming in then let GNUPLOT process it.  &lt;/p&gt;
-&lt;p&gt;Originally I was using this simple python program to save it to a file for plotting:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;import serial
+          <t xml:space="preserve"> [solved] Rather than have GNUPLOT handle this alone with math, I first changed the way the data is coming in then let GNUPLOT process it. Originally I was using this simple python program to save it to a file for plotting: So I changed it to include the time in the incoming data stream: The data looks like this: Then in GNUPLOT the code is: Now the plot looks like this: The answer is to provide the data to GNUPLOT initially. Then GNUPLOT has the tools to process it properly. GNUPLOT is awesome.  Much easier than SAS. This was a real learning experience. Thanks to all who looked at this.</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>[&lt;img alt="enter image description here" src="https://i.stack.imgur.com/AgGRM.png"/&gt;]</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;import serial
 ser = serial.Serial("/dev/ttyUSB0",9600)
 while 1:
     c = ser.readline()
     f = open("py.out","a")
     f.write(c)
     f.close
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;So I changed it to include the time in the incoming data stream:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;import serial
+&lt;/code&gt;, &lt;code&gt;import serial
 from datetime import datetime
 ser = serial.Serial("/dev/ttyUSB0",9600)
 while 1:
@@ -2126,14 +2111,10 @@
     f = open("py.out","a")
     f.write(c)
     f.close
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;The data looks like this:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;07:01:37.06514  1    24.39    0      &amp;lt;--  \t in between each
+&lt;/code&gt;, &lt;code&gt;07:01:37.06514  1    24.39    0      &amp;lt;--  \t in between each
 07:01:39.10456  2    24.42    0
    etc
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Then in GNUPLOT the code is:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;set title "28 Dec 16"
+&lt;/code&gt;, &lt;code&gt;set title "28 Dec 16"
 set xlabel "Time"
 set ylabel "Volts"
 set yrange [15:32]
@@ -2150,19 +2131,7 @@
      29.5 t "PWM LIMIT", \
      24.8 lw 6 t "NOMINAL", \
      23.8 t "Inverter limit"
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Now the plot looks like this:
-&lt;a href="https://i.stack.imgur.com/AgGRM.png" rel="nofollow noreferrer"&gt;&lt;img src="https://i.stack.imgur.com/AgGRM.png" alt="enter image description here"&gt;&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;The answer is to provide the data to GNUPLOT initially.&lt;br&gt;
-Then GNUPLOT has the tools to process it properly.&lt;/p&gt;
-&lt;p&gt;GNUPLOT is awesome.  Much easier than SAS.&lt;/p&gt;
-&lt;p&gt;This was a real learning experience.&lt;/p&gt;
-&lt;p&gt;Thanks to all who looked at this.  &lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> [solved] Rather than have GNUPLOT handle this alone with math, I first changed the way the data is coming in then let GNUPLOT process it. Originally I was using this simple python program to save it to a file for plotting: So I changed it to include the time in the incoming data stream: The data looks like this: Then in GNUPLOT the code is: Now the plot looks like this: The answer is to provide the data to GNUPLOT initially. Then GNUPLOT has the tools to process it properly. GNUPLOT is awesome.  Much easier than SAS. This was a real learning experience. Thanks to all who looked at this.</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -2206,12 +2175,17 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Great question one awesome solution that i have done is to use: &lt;a href="http://code.google.com/apis/chart/"&gt;http://code.google.com/apis/chart/&lt;/a&gt; The Google Chart has lots of great graphs etc.. you can use. What i did was look at the examples see how the data was formatted, then I wrote my query to match it.&lt;/p&gt;</t>
+          <t xml:space="preserve"> Great question one awesome solution that i have done is to use: http://code.google.com/apis/chart/ The Google Chart has lots of great graphs etc.. you can use. What i did was look at the examples see how the data was formatted, then I wrote my query to match it.</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Great question one awesome solution that i have done is to use: http://code.google.com/apis/chart/ The Google Chart has lots of great graphs etc.. you can use. What i did was look at the examples see how the data was formatted, then I wrote my query to match it.</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2256,13 +2230,17 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>&lt;p&gt;I'm having the same problem. One solution is to draw a smaller gradient and scale it up. The results is not pixel perfect, but faster. &lt;/p&gt;
-&lt;p&gt;See also the ideas mentioned in &lt;a href="https://stackoverflow.com/questions/3912236/radial-gradient-draw-performance-can-opengl-es-improve/3994234#3994234"&gt;this answer&lt;/a&gt;.&lt;/p&gt;</t>
+          <t xml:space="preserve"> I'm having the same problem. One solution is to draw a smaller gradient and scale it up. The results is not pixel perfect, but faster. See also the ideas mentioned in this answer .</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I'm having the same problem. One solution is to draw a smaller gradient and scale it up. The results is not pixel perfect, but faster. See also the ideas mentioned in this answer .</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2333,39 +2311,27 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>&lt;p&gt;You're right - that functionality is not currently included in the heatmap.&lt;/p&gt;
-&lt;p&gt;It would be really nice to add it, but it's probably a bit of work.&lt;/p&gt;
-&lt;p&gt;In the meantime, if you're willing to fiddle a bit with the parameters, you can get a decent approximation using the scatter plot, since it allows you to change the size and shape of the dots.&lt;/p&gt;
-&lt;p&gt;I took the &lt;a href="http://dc-js.github.io/dc.js/examples/heatmap-filtering.html" rel="nofollow noreferrer"&gt;heatmap filtering example&lt;/a&gt;, swapped a &lt;code&gt;scatterPlot&lt;/code&gt; for the &lt;code&gt;heatmap&lt;/code&gt;, changed a few parameters, and got something that works reasonably well:&lt;/p&gt;
-&lt;p&gt;&lt;a href="https://i.stack.imgur.com/maTBO.png" rel="nofollow noreferrer"&gt;&lt;img src="https://i.stack.imgur.com/maTBO.png" alt="heatmap simulated with scatter plot"&gt;&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;First, we can set the width and height to accommodate "dots" of size 15x15, just as we do in the heatmap example - except we are stuck with square dots if we use a scatterplot:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;        .width(12 * 15 + 40)
+          <t xml:space="preserve"> You're right - that functionality is not currently included in the heatmap. It would be really nice to add it, but it's probably a bit of work. In the meantime, if you're willing to fiddle a bit with the parameters, you can get a decent approximation using the scatter plot, since it allows you to change the size and shape of the dots. I took the heatmap filtering example , swapped a for the , changed a few parameters, and got something that works reasonably well: First, we can set the width and height to accommodate "dots" of size 15x15, just as we do in the heatmap example - except we are stuck with square dots if we use a scatterplot: The margins are for the axis text. Next, we set the x domain to fit around dots that will be centered on their values: (Not sure why works but doesn't... only so much digging you can do at one time.) Next, we can set the excluded radius to the same as the normal radius, and use grey for excluded dots: There are a few different ways you could indicate what's filtered in/out - take a look at the scatterPlot docs for other ideas. For example you could also use . But I find opacity kind of confusing for a heatmap because fading makes it look like it just has a different value rather than being excluded entirely. Season to taste! Finally, the scatter plot uses "real" d3 axes, so the Y axis needs to be configured to display numbers correctly: Overall, I was surprised how easy this was, since they take the same data format and have most of the same parameters. Example fiddle.</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>[&lt;img alt="heatmap simulated with scatter plot" src="https://i.stack.imgur.com/maTBO.png"/&gt;]</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;scatterPlot&lt;/code&gt;, &lt;code&gt;heatmap&lt;/code&gt;, &lt;code&gt;        .width(12 * 15 + 40)
         .height(27 * 15 + 20)
         .margins({left: 40, top: 0, right: 0, bottom: 20})
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;The margins are for the axis text. &lt;/p&gt;
-&lt;p&gt;Next, we set the x domain to fit around dots that will be centered on their values:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;        .x(d3.scaleLinear().domain([-0.5,11.5]))
+&lt;/code&gt;, &lt;code&gt;        .x(d3.scaleLinear().domain([-0.5,11.5]))
         .yAxisPadding(0.5)
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;(Not sure why &lt;code&gt;elasticY&lt;/code&gt; works but &lt;code&gt;elasticX&lt;/code&gt; doesn't... only so much digging you can do at one time.)&lt;/p&gt;
-&lt;p&gt;Next, we can set the excluded radius to the same as the normal radius, and use grey for excluded dots:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;        .symbol(d3.symbolSquare)
+&lt;/code&gt;, &lt;code&gt;elasticY&lt;/code&gt;, &lt;code&gt;elasticX&lt;/code&gt;, &lt;code&gt;        .symbol(d3.symbolSquare)
         .excludedSize(15)
         .symbolSize(15)
         .excludedColor('#ccc')
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;There are a few different ways you could indicate what's filtered in/out - take a look at &lt;a href="https://dc-js.github.io/dc.js/docs/html/dc.scatterPlot.html" rel="nofollow noreferrer"&gt;the scatterPlot docs&lt;/a&gt; for other ideas. For example you could also use &lt;a href="https://dc-js.github.io/dc.js/docs/html/dc.scatterPlot.html#excludedOpacity__anchor" rel="nofollow noreferrer"&gt;&lt;code&gt;excludedOpacity&lt;/code&gt;&lt;/a&gt;. But I find opacity kind of confusing for a heatmap because fading makes it look like it just has a different value rather than being excluded entirely. Season to taste!&lt;/p&gt;
-&lt;p&gt;Finally, the scatter plot uses "real" d3 axes, so the Y axis needs to be configured to display numbers correctly:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;            heatmapChart.yAxis().tickFormat(d3.format('.4'))
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Overall, I was surprised how easy this was, since they take the same data format and have most of the same parameters.&lt;/p&gt;
-&lt;p&gt;&lt;a href="https://jsfiddle.net/gordonwoodhull/bs9to0hd/8/" rel="nofollow noreferrer"&gt;Example fiddle.&lt;/a&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> You're right - that functionality is not currently included in the heatmap. It would be really nice to add it, but it's probably a bit of work. In the meantime, if you're willing to fiddle a bit with the parameters, you can get a decent approximation using the scatter plot, since it allows you to change the size and shape of the dots. I took the heatmap filtering example , swapped a for the , changed a few parameters, and got something that works reasonably well: First, we can set the width and height to accommodate "dots" of size 15x15, just as we do in the heatmap example - except we are stuck with square dots if we use a scatterplot: The margins are for the axis text. Next, we set the x domain to fit around dots that will be centered on their values: (Not sure why works but doesn't... only so much digging you can do at one time.) Next, we can set the excluded radius to the same as the normal radius, and use grey for excluded dots: There are a few different ways you could indicate what's filtered in/out - take a look at the scatterPlot docs for other ideas. For example you could also use . But I find opacity kind of confusing for a heatmap because fading makes it look like it just has a different value rather than being excluded entirely. Season to taste! Finally, the scatter plot uses "real" d3 axes, so the Y axis needs to be configured to display numbers correctly: Overall, I was surprised how easy this was, since they take the same data format and have most of the same parameters. Example fiddle.</t>
+&lt;/code&gt;, &lt;code&gt;excludedOpacity&lt;/code&gt;, &lt;code&gt;            heatmapChart.yAxis().tickFormat(d3.format('.4'))
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -2427,11 +2393,17 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Try zooming in on your graph, you will see the datetimes expand as your x axis scale changes.&lt;/p&gt;
-&lt;p&gt;&lt;a href="https://stackoverflow.com/questions/4090383/plotting-unix-timestamps-in-matplotlib"&gt;plotting unix timestamps in matplotlib&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;I had a similarly annoying problem when trying to plot heatmaps of positive selection on chromosomes.  If I zoomed out too far things would disappear entirely! &lt;/p&gt;
-&lt;p&gt;edit:  This code plots your dates exactly as you give them, but doesn't add ticks in between.&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;import matplotlib.pyplot as plt
+          <t xml:space="preserve"> Try zooming in on your graph, you will see the datetimes expand as your x axis scale changes. plotting unix timestamps in matplotlib I had a similarly annoying problem when trying to plot heatmaps of positive selection on chromosomes.  If I zoomed out too far things would disappear entirely! edit:  This code plots your dates exactly as you give them, but doesn't add ticks in between.</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;import matplotlib.pyplot as plt
 import matplotlib.dates as md
 import dateutil
 datestrings = ['2012-02-21 11:28:17.980000', '2012-02-21 12:15:32.453000', '2012-02-21 23:26:23.734000', '2012-02-26 17:42:15.804000']
@@ -2445,12 +2417,7 @@
 ax.xaxis.set_major_formatter(xfmt)
 plt.plot(dates,plt_data, "o-")
 plt.show()
-&lt;/code&gt;&lt;/pre&gt;</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Try zooming in on your graph, you will see the datetimes expand as your x axis scale changes. plotting unix timestamps in matplotlib I had a similarly annoying problem when trying to plot heatmaps of positive selection on chromosomes.  If I zoomed out too far things would disappear entirely! edit:  This code plots your dates exactly as you give them, but doesn't add ticks in between.</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -2550,9 +2517,17 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;strong&gt;[REVISION]&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;In &lt;code&gt;scale_fill_gradientn()&lt;/code&gt;, it is needed that &lt;code&gt;length(colours)&lt;/code&gt; and &lt;code&gt;length(values)&lt;/code&gt; are the same. You can calculate &lt;code&gt;values&lt;/code&gt; easily using &lt;code&gt;scales::rescale()&lt;/code&gt;. I took the values under -100 as outliers and change colour gradient under -100. It would be better to give &lt;code&gt;nbin&lt;/code&gt; large value because the legend need to express rapid change at zero.&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;library(ggplot2); library(scales)
+          <t xml:space="preserve"> [REVISION] In , it is needed that and are the same. You can calculate easily using . I took the values under -100 as outliers and change colour gradient under -100. It would be better to give large value because the legend need to express rapid change at zero. make heatmap without a legend add legend Another approach You can use scale of main heatmap with a lower limit by package, . In this approach, you needn't add a legend. But outlier colour becomes the lower limit's colour (i.e., if you set as the lower limit, colour of is the same as ).</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>[&lt;img alt="enter image description here" src="https://i.stack.imgur.com/Qqt0k.png"/&gt;, &lt;img alt="enter image description here" src="https://i.stack.imgur.com/Gsvkx.png"/&gt;, &lt;img alt="enter image description here" src="https://i.stack.imgur.com/0snj2.png"/&gt;]</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;scale_fill_gradientn()&lt;/code&gt;, &lt;code&gt;length(colours)&lt;/code&gt;, &lt;code&gt;length(values)&lt;/code&gt;, &lt;code&gt;values&lt;/code&gt;, &lt;code&gt;scales::rescale()&lt;/code&gt;, &lt;code&gt;nbin&lt;/code&gt;, &lt;code&gt;library(ggplot2); library(scales)
   ## combine fill values (because of convenience, not necessary)
 dat &amp;lt;- cbind(dat, ratio2 = as.numeric(sprintf("%1.2f", 100 * dat$ratio)))
   ## get max and min values using range(data)
@@ -2568,9 +2543,7 @@
    # colours    
 mycol &amp;lt;- c("navy", "blue", "cyan", "lightcyan",              # minus
            "yellow", "red", "red4")                          # plus
-&lt;/code&gt;&lt;/pre&gt;
-make heatmap without a legend
-&lt;pre&gt;&lt;code&gt;g &amp;lt;- ggplot(data = dat, aes(x = ACC, y = variable)) +
+&lt;/code&gt;, &lt;code&gt;g &amp;lt;- ggplot(data = dat, aes(x = ACC, y = variable)) +
   geom_tile(aes(fill = ratio2), colour = 'white') +
   theme(axis.text.x = element_text(angle = 60, hjust = 1, color="black"), 
         legend.title = element_blank(), legend.position="top", legend.key.size = unit(2.5, "cm")) + 
@@ -2578,9 +2551,7 @@
   # to check
 ggplot(data = dat, aes(x = ACC, y = variable)) +
   geom_tile(aes(fill = cut(ratio2, breaks = c(-Inf, 0, Inf))), colour = 'white')
-&lt;/code&gt;&lt;/pre&gt;
-add legend
-&lt;pre&gt;&lt;code&gt;  # -100 to max version (ignore outliers)
+&lt;/code&gt;, &lt;code&gt;  # -100 to max version (ignore outliers)
 g + scale_colour_gradientn(colours = mycol[-1], values = rescale(legend_val_100_max),
                            limits = c(-100, max(dat$ratio2, na.rm=T)), breaks= c(-80, -40, 0, 40, 80),
                            guide = guide_colorbar(nbin=100))
@@ -2590,12 +2561,7 @@
                          breaks = c(-120, -111, -109,  -100, -50, 0, 50),
                          labels = c(-500, "/", "/", -100, -50, 0, 50), #  (to be exact, not -500 but -494.42))
                          guide = guide_colorbar(nbin=100))
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;a href="https://i.stack.imgur.com/Qqt0k.png" rel="nofollow"&gt;&lt;img src="https://i.stack.imgur.com/Qqt0k.png" alt="enter image description here"&gt;&lt;/a&gt;
-&lt;a href="https://i.stack.imgur.com/Gsvkx.png" rel="nofollow"&gt;&lt;img src="https://i.stack.imgur.com/Gsvkx.png" alt="enter image description here"&gt;&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Another approach&lt;/strong&gt;&lt;br&gt;
-You can use scale of main heatmap with a lower limit by &lt;code&gt;scales&lt;/code&gt; package, &lt;code&gt;oob=squish&lt;/code&gt;. In this approach, you needn't add a legend. But outlier colour becomes the lower limit's colour (i.e., if you set &lt;code&gt;-200&lt;/code&gt; as the lower limit, colour of &lt;code&gt;-1000&lt;/code&gt; is the same as &lt;code&gt;-200&lt;/code&gt;).&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;  # I used -200 as the limit to distinguish -151.30 from -494.42 (`sort(dat$ratio2, na.last = T)[1:2])`)
+&lt;/code&gt;, &lt;code&gt;scales&lt;/code&gt;, &lt;code&gt;oob=squish&lt;/code&gt;, &lt;code&gt;-200&lt;/code&gt;, &lt;code&gt;-1000&lt;/code&gt;, &lt;code&gt;-200&lt;/code&gt;, &lt;code&gt;  # I used -200 as the limit to distinguish -151.30 from -494.42 (`sort(dat$ratio2, na.last = T)[1:2])`)
 limited_val &amp;lt;- c(-200, seq(-100, -1.0E-6, length = 3),
                  seq(1.0E-6, r_range[2], length = 3))
 ggplot(data = dat, aes(x = ACC, y = variable)) +
@@ -2605,13 +2571,7 @@
   scale_fill_gradientn(colours = mycol, values = rescale(limited_val), 
                        limits = c(-200, max(dat$ratio2, na.rm=T)), breaks = c(-100, -50, 0, 50),
                        oob=squish, guide = guide_colorbar(nbin = 100))
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;a href="https://i.stack.imgur.com/0snj2.png" rel="nofollow"&gt;&lt;img src="https://i.stack.imgur.com/0snj2.png" alt="enter image description here"&gt;&lt;/a&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> [REVISION] In , it is needed that and are the same. You can calculate easily using . I took the values under -100 as outliers and change colour gradient under -100. It would be better to give large value because the legend need to express rapid change at zero. make heatmap without a legend add legend Another approach You can use scale of main heatmap with a lower limit by package, . In this approach, you needn't add a legend. But outlier colour becomes the lower limit's colour (i.e., if you set as the lower limit, colour of is the same as ).</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -2676,10 +2636,19 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>&lt;p&gt;A good idea may be to use the annotations from the heatmap, which are produces by the &lt;code&gt;annot=True&lt;/code&gt; argument and later shift them half a pixel width upwards and half a pixel width left. 
-In order for this shifted position to be the top left corner of the text itself, the &lt;code&gt;ha&lt;/code&gt; and &lt;code&gt;va&lt;/code&gt; keyword arguments need to set as &lt;code&gt;annot_kws&lt;/code&gt;. 
-The shift itself can be done using a translation transform. &lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;import seaborn as sns
+          <t xml:space="preserve"> A good idea may be to use the annotations from the heatmap, which are produces by the argument and later shift them half a pixel width upwards and half a pixel width left. 
+In order for this shifted position to be the top left corner of the text itself, the and keyword arguments need to set as . 
+The shift itself can be done using a translation transform. The behaviour is a bit counterintuitive as in the transform shifts the label upwards (against the direction of the axes). This behaviour seems to be corrected in seaborn version 0.8; for plots in seaborn 0.8 or higher use the more intuitive transform</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>[&lt;img alt="enter image description here" src="https://i.stack.imgur.com/FDgVQ.png"/&gt;]</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;annot=True&lt;/code&gt;, &lt;code&gt;ha&lt;/code&gt;, &lt;code&gt;va&lt;/code&gt;, &lt;code&gt;annot_kws&lt;/code&gt;, &lt;code&gt;import seaborn as sns
 import numpy as np; np.random.seed(0)
 import matplotlib.pylab as plt
 import matplotlib.transforms
@@ -2692,19 +2661,9 @@
                     matplotlib.transforms.IdentityTransform())
     t.set_transform( offs + trans )
 plt.show()
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;a href="https://i.stack.imgur.com/FDgVQ.png" rel="nofollow noreferrer"&gt;&lt;img src="https://i.stack.imgur.com/FDgVQ.png" alt="enter image description here"&gt;&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;The behaviour is a bit counterintuitive as &lt;code&gt;+0.48&lt;/code&gt; in the transform shifts the label upwards (against the direction of the axes). This behaviour seems to be corrected in seaborn version 0.8; for plots in seaborn 0.8 or higher use the more intuitive transform&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;offs = matplotlib.transforms.ScaledTranslation(-0.48, -0.48,
+&lt;/code&gt;, &lt;code&gt;+0.48&lt;/code&gt;, &lt;code&gt;offs = matplotlib.transforms.ScaledTranslation(-0.48, -0.48,
                     matplotlib.transforms.IdentityTransform())
-&lt;/code&gt;&lt;/pre&gt;</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> A good idea may be to use the annotations from the heatmap, which are produces by the argument and later shift them half a pixel width upwards and half a pixel width left. 
-In order for this shifted position to be the top left corner of the text itself, the and keyword arguments need to set as . 
-The shift itself can be done using a translation transform. The behaviour is a bit counterintuitive as in the transform shifts the label upwards (against the direction of the axes). This behaviour seems to be corrected in seaborn version 0.8; for plots in seaborn 0.8 or higher use the more intuitive transform</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -2748,12 +2707,17 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Figured it out, my bad. Apparently had to disable the turbothreshold for the heatmap via the plotOptions. Everything worked fine and i could have as many categories in the x axis.&lt;/p&gt;</t>
+          <t xml:space="preserve"> Figured it out, my bad. Apparently had to disable the turbothreshold for the heatmap via the plotOptions. Everything worked fine and i could have as many categories in the x axis.</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Figured it out, my bad. Apparently had to disable the turbothreshold for the heatmap via the plotOptions. Everything worked fine and i could have as many categories in the x axis.</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2819,21 +2783,20 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>&lt;blockquote&gt;
-  &lt;p&gt;I plot the data contained in that table mentioned above. How do I save the plot (eg: plot.savePDF("plot.pdf")) to a PDF file?&lt;/p&gt;
-&lt;/blockquote&gt;
-&lt;pre&gt;&lt;code&gt; pdf("filename.pdf")
+          <t xml:space="preserve"> I plot the data contained in that table mentioned above. How do I save the plot (eg: plot.savePDF("plot.pdf")) to a PDF file? How could I redirect the output of, for example, cor(detailsTable$a, detailsTable$b) to a file? and how do I write a simple string to a file. eg: "Correlation of the data: " + cor(...) check the manual page ( ) How do I plot the line of best fit on an existing plot?</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt; pdf("filename.pdf")
  plot(...)
  dev.off()
-&lt;/code&gt;&lt;/pre&gt;
-&lt;blockquote&gt;
-  &lt;p&gt;How could I redirect the output of, for example, cor(detailsTable$a, detailsTable$b) to a file? and how do I write a simple string to a file. eg: "Correlation of the data: " + cor(...)&lt;/p&gt;
-&lt;/blockquote&gt;
-&lt;p&gt;check the &lt;code&gt;write.table&lt;/code&gt; manual page (&lt;code&gt;?write.table&lt;/code&gt;)&lt;/p&gt;
-&lt;blockquote&gt;
-  &lt;p&gt;How do I plot the line of best fit on an existing plot?&lt;/p&gt;
-&lt;/blockquote&gt;
-&lt;pre&gt;&lt;code&gt;x &amp;lt;- 1:10
+&lt;/code&gt;, &lt;code&gt;write.table&lt;/code&gt;, &lt;code&gt;?write.table&lt;/code&gt;, &lt;code&gt;x &amp;lt;- 1:10
 y &amp;lt;- 2 * x + runif(10) 
 plot (x, y, pch=20)
 fit &amp;lt;- glm(y~x)
@@ -2841,12 +2804,7 @@
 abline(coefs, lwd=2, col='red')
 # Or also, without finding the coefficients
 abline(fit, lwd=2, col='red')
-&lt;/code&gt;&lt;/pre&gt;</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> I plot the data contained in that table mentioned above. How do I save the plot (eg: plot.savePDF("plot.pdf")) to a PDF file? How could I redirect the output of, for example, cor(detailsTable$a, detailsTable$b) to a file? and how do I write a simple string to a file. eg: "Correlation of the data: " + cor(...) check the manual page ( ) How do I plot the line of best fit on an existing plot?</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -2899,21 +2857,22 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;strong&gt;&lt;a href="https://www.mathworks.com/help/matlab/creating_plots/create-line-plot-with-markers.html" rel="nofollow noreferrer"&gt;&lt;em&gt;&lt;code&gt;MarkerIndices&lt;/code&gt;&lt;/em&gt;&lt;/a&gt;&lt;/strong&gt; became available in &lt;em&gt;R2016b&lt;/em&gt; version.&lt;/p&gt;
-&lt;p&gt;The workaround is plotting two times:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;MarkerIndices = [1, 5, 10];
+          <t xml:space="preserve"> became available in R2016b version. The workaround is plotting two times: This should work. I commented that this is in reference to a post on MathWorks Community. Will provide a link if found it. P.S. This is the LINK to the answer;</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;MarkerIndices&lt;/code&gt;, &lt;code&gt;MarkerIndices = [1, 5, 10];
 myplot = plot(x, y, 'b-.');
 hold on;                 
 mymarkers = plot(x(MarkerIndices), y(MarkerIndices), 'ro');    
 legend(myplot)
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;This should work. I commented that this is in reference to a post on MathWorks Community. Will provide a link if found it.&lt;/p&gt;
-&lt;p&gt;P.S. This is the &lt;strong&gt;&lt;a href="https://www.mathworks.com/matlabcentral/answers/119402-how-to-set-a-marker-at-one-specific-point-on-a-plot-look-at-the-picture" rel="nofollow noreferrer"&gt;LINK&lt;/a&gt;&lt;/strong&gt; to the answer;&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> became available in R2016b version. The workaround is plotting two times: This should work. I commented that this is in reference to a post on MathWorks Community. Will provide a link if found it. P.S. This is the LINK to the answer;</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -2963,18 +2922,21 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>&lt;p&gt;If I understand correctly, you want to plot two data sets in the same figure, on the same x-axis, but one on a log y-scale and one on a linear y-scale.  You can do this using &lt;a href="http://matplotlib.org/examples/api/two_scales.html" rel="nofollow"&gt;&lt;code&gt;twinx&lt;/code&gt;&lt;/a&gt;:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;fig, ax = plt.subplots()
+          <t xml:space="preserve"> If I understand correctly, you want to plot two data sets in the same figure, on the same x-axis, but one on a log y-scale and one on a linear y-scale.  You can do this using :</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>[&lt;img alt="Figure" src="https://i.stack.imgur.com/j1pK0.png"/&gt;]</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;twinx&lt;/code&gt;, &lt;code&gt;fig, ax = plt.subplots()
 ax.hist(h,bins=21,normed=True,log=True)
 ax2 = ax.twinx()
 ax2.plot(xvals, loggauss(xvals), '-r')
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;img src="https://i.stack.imgur.com/j1pK0.png" alt="Figure"&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> If I understand correctly, you want to plot two data sets in the same figure, on the same x-axis, but one on a log y-scale and one on a linear y-scale.  You can do this using :</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -3043,37 +3005,34 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Here is an example how you might solve this kind of problem. I've made an assumption on how to calculate R2, but that's easily fixable if it's wrong.&lt;/p&gt;
-&lt;p&gt;First, we simulate some data&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;set.seed(123)
+          <t xml:space="preserve"> Here is an example how you might solve this kind of problem. I've made an assumption on how to calculate R2, but that's easily fixable if it's wrong. First, we simulate some data Then, we observe that for each combination of band1, band2 and outcome we only need to store one number (R2). So, first we generate a dataframe containing all combinations of column names as string: Then we use apply to get the R2 for each row of res (thus each combination). As each row of res contains three column names, we can use those to access the original data. Then plotting is simple:</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;set.seed(123)
 n_band=100
 dat &amp;lt;- data.frame(matrix(runif(28*n_band),ncol=n_band))
 colnames(dat) &amp;lt;- paste0("b",1:n_band)
 dat$biomass &amp;lt;- rpois(28,10)
 dat$nitrogen &amp;lt;- rpois(28,10)
 dat$ID &amp;lt;- 1:28
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Then, we observe that for each combination of band1, band2 and outcome we only need to store one number (R2). So, first we generate a dataframe containing all combinations of column names as string:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;res &amp;lt;- expand.grid(paste0("b",1:n_band),paste0("b",1:n_band),outcome=c("biomass","nitrogen"))
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Then we use apply to get the R2 for each row of res (thus each combination). As each row of res contains three column names, we can use those to access the original data.&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;#ignore warnings; correlation between similar variables is missing
+&lt;/code&gt;, &lt;code&gt;res &amp;lt;- expand.grid(paste0("b",1:n_band),paste0("b",1:n_band),outcome=c("biomass","nitrogen"))
+&lt;/code&gt;, &lt;code&gt;#ignore warnings; correlation between similar variables is missing
 res$R2 &amp;lt;- apply(res, MARGIN=1,FUN=function(x){
   return(cor(dat[,x[1]]/dat[,x[2]],dat[,x[3]])^2)
 })
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Then plotting is simple:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;library(ggplot2)
+&lt;/code&gt;, &lt;code&gt;library(ggplot2)
 p1 &amp;lt;- ggplot(res, aes(x=Var1, y=Var2, fill=R2))+
   geom_tile() +
   facet_grid(~outcome)
 p1
-&lt;/code&gt;&lt;/pre&gt;</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Here is an example how you might solve this kind of problem. I've made an assumption on how to calculate R2, but that's easily fixable if it's wrong. First, we simulate some data Then, we observe that for each combination of band1, band2 and outcome we only need to store one number (R2). So, first we generate a dataframe containing all combinations of column names as string: Then we use apply to get the R2 for each row of res (thus each combination). As each row of res contains three column names, we can use those to access the original data. Then plotting is simple:</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3098,32 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>&lt;p&gt;From the way you present your data I'm assuming you're dealing with a matlab table like this:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;&amp;gt;&amp;gt; methode1 = [.456; .768]; m2 = [.567; .654]; m3 = [.987; .546]; m4 = [.654; .231];
+          <t xml:space="preserve"> From the way you present your data I'm assuming you're dealing with a matlab table like this: and that the actual question is that you're not sure how to plot because produces another table as opposed to numbers, and therefore doesn't work, rather than because you're just not aware of the command (if you really aren't aware of the command, then read about it online, you'll find lots of explanatory examples). To use the data, you need to extract it to an array first. The command to do this is: You can now plot like a normal array, e.g. The command is what allows you to have more than one plots on the same figure window.</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;&amp;gt;&amp;gt; methode1 = [.456; .768]; m2 = [.567; .654]; m3 = [.987; .546]; m4 = [.654; .231];
 &amp;gt;&amp;gt; T = table(methode1, m2, m3, m4, 'RowNames', {'data1', 'data2'})
 T =   
              methode1     m2       m3       m4  
              ________    _____    _____    _____
     data1    0.456       0.567    0.987    0.654
     data2    0.768       0.654    0.546    0.231
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;and that the actual question is that you're not sure how to plot because &lt;code&gt;T('data1', :)&lt;/code&gt; produces another table as opposed to numbers, and therefore &lt;code&gt;plot(T('data1', :))&lt;/code&gt; doesn't work, rather than because you're just not aware of the &lt;code&gt;plot&lt;/code&gt; command (if you really &lt;em&gt;aren't&lt;/em&gt; aware of the &lt;code&gt;plot&lt;/code&gt; command, then read about it online, you'll find lots of explanatory examples).&lt;/p&gt;
-&lt;p&gt;To use the data, you need to extract it to an array first. The command to do this is:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;&amp;gt;&amp;gt; T_data = table2array(T)
+&lt;/code&gt;, &lt;code&gt;T('data1', :)&lt;/code&gt;, &lt;code&gt;plot(T('data1', :))&lt;/code&gt;, &lt;code&gt;plot&lt;/code&gt;, &lt;code&gt;plot&lt;/code&gt;, &lt;code&gt;&amp;gt;&amp;gt; T_data = table2array(T)
 T_data =
     0.4560    0.5670    0.9870    0.6540
     0.7680    0.6540    0.5460    0.2310
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;You can now plot like a normal array, e.g.&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;&amp;gt;&amp;gt; plot(T_data(1,:), 'ro-');
+&lt;/code&gt;, &lt;code&gt;&amp;gt;&amp;gt; plot(T_data(1,:), 'ro-');
 &amp;gt;&amp;gt; hold on                  
 &amp;gt;&amp;gt; plot(T_data(2,:), 'gd--');
 &amp;gt;&amp;gt; hold off                  
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;The &lt;code&gt;hold&lt;/code&gt; command is what allows you to have more than one plots on the same figure window.&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> From the way you present your data I'm assuming you're dealing with a matlab table like this: and that the actual question is that you're not sure how to plot because produces another table as opposed to numbers, and therefore doesn't work, rather than because you're just not aware of the command (if you really aren't aware of the command, then read about it online, you'll find lots of explanatory examples). To use the data, you need to extract it to an array first. The command to do this is: You can now plot like a normal array, e.g. The command is what allows you to have more than one plots on the same figure window.</t>
+&lt;/code&gt;, &lt;code&gt;hold&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -3215,17 +3172,18 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Hi Friend i solved my problem.i used this coding to get next 25 result.&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;FbGraphResponse *next_page_fb_graph_response = [fbGraph doGraphGetWithUrlString:next_page_url];
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;And i have another one issue. if i searched in facebook i got all user name which are not allowed public search.&lt;/p&gt;
-&lt;p&gt;But in fb graph api i tried to get users name it is not showing which are not allowed public search.&lt;/p&gt;
-&lt;p&gt;any one resolve this issue?&lt;/p&gt;</t>
+          <t xml:space="preserve"> Hi Friend i solved my problem.i used this coding to get next 25 result. And i have another one issue. if i searched in facebook i got all user name which are not allowed public search. But in fb graph api i tried to get users name it is not showing which are not allowed public search. any one resolve this issue?</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hi Friend i solved my problem.i used this coding to get next 25 result. And i have another one issue. if i searched in facebook i got all user name which are not allowed public search. But in fb graph api i tried to get users name it is not showing which are not allowed public search. any one resolve this issue?</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;FbGraphResponse *next_page_fb_graph_response = [fbGraph doGraphGetWithUrlString:next_page_url];
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -3270,13 +3228,17 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>&lt;p&gt;If you want to clear it first, then do a lot of asynchronous work before you redisplay it, why don't you call &lt;code&gt;chart.Series.Clear();&lt;/code&gt; before you invoke the &lt;code&gt;BackgroundWorker&lt;/code&gt;? In that case it gets cleared on the main UI thread, then you perform som async work before you again set the chart from the UI thread.&lt;/p&gt;
-&lt;p&gt;Also, when using a &lt;code&gt;BackgroundWorker&lt;/code&gt;, I would use the inbuilt &lt;code&gt;ReportProgress&lt;/code&gt; and WorkerCompleted events to avoid the manual cross-thread invoking. That's part of the reason of using the &lt;code&gt;BackgroundWorker&lt;/code&gt; in the first place to get this kind of functionality for &lt;em&gt;"free"&lt;/em&gt;. So setting the chart should be done in the WorkerCompleted to simplify your code (even if that is not the source of the problem in this case). &lt;/p&gt;</t>
+          <t xml:space="preserve"> If you want to clear it first, then do a lot of asynchronous work before you redisplay it, why don't you call before you invoke the ? In that case it gets cleared on the main UI thread, then you perform som async work before you again set the chart from the UI thread. Also, when using a , I would use the inbuilt and WorkerCompleted events to avoid the manual cross-thread invoking. That's part of the reason of using the in the first place to get this kind of functionality for "free" . So setting the chart should be done in the WorkerCompleted to simplify your code (even if that is not the source of the problem in this case).</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> If you want to clear it first, then do a lot of asynchronous work before you redisplay it, why don't you call before you invoke the ? In that case it gets cleared on the main UI thread, then you perform som async work before you again set the chart from the UI thread. Also, when using a , I would use the inbuilt and WorkerCompleted events to avoid the manual cross-thread invoking. That's part of the reason of using the in the first place to get this kind of functionality for "free" . So setting the chart should be done in the WorkerCompleted to simplify your code (even if that is not the source of the problem in this case).</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;chart.Series.Clear();&lt;/code&gt;, &lt;code&gt;BackgroundWorker&lt;/code&gt;, &lt;code&gt;BackgroundWorker&lt;/code&gt;, &lt;code&gt;ReportProgress&lt;/code&gt;, &lt;code&gt;BackgroundWorker&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -3359,12 +3321,17 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Slightly modifying &lt;a href="https://stackoverflow.com/a/51901642/9245853"&gt;this answer&lt;/a&gt;:&lt;/p&gt;
-&lt;ol&gt;
-&lt;li&gt;Create and populate &lt;code&gt;ComboBox1&lt;/code&gt; with &lt;code&gt;"Bus 1"&lt;/code&gt; to &lt;code&gt;"Bus 22"&lt;/code&gt;.&lt;/li&gt;
-&lt;/ol&gt;
-&lt;hr&gt;
-&lt;pre&gt;&lt;code&gt;Private Sub ComboBox1_DropButtonClick()
+          <t xml:space="preserve"> Slightly modifying this answer : Create and populate with to . Then instead of hiding rows, actually change the Source Data of the chart using . To accomplish this: Add a reference to the Microsoft Excel Object Library under Tools &gt; References . the on the and get the corresponding Source Data range. Then use with a concatenated reference to the s , and the of the Source Data</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;ComboBox1&lt;/code&gt;, &lt;code&gt;"Bus 1"&lt;/code&gt;, &lt;code&gt;"Bus 22"&lt;/code&gt;, &lt;code&gt;Private Sub ComboBox1_DropButtonClick()
     Dim i As Integer
     With ComboBox1
         If .ListCount = 0 Then
@@ -3374,18 +3341,7 @@
         End If
     End With
 End Sub
-&lt;/code&gt;&lt;/pre&gt;
-&lt;hr&gt;
-&lt;ol start="2"&gt;
-&lt;li&gt;&lt;p&gt;Then instead of hiding rows, actually change the Source Data of the chart using &lt;a href="https://docs.microsoft.com/en-us/office/vba/api/PowerPoint.Chart.SetSourceData" rel="nofollow noreferrer"&gt;&lt;code&gt;Chart.SetSourceData&lt;/code&gt;&lt;/a&gt;. To accomplish this:&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;Add a reference to the &lt;em&gt;Microsoft Excel Object Library&lt;/em&gt; under &lt;em&gt;Tools &gt; References&lt;/em&gt;.&lt;/li&gt;
-&lt;li&gt;&lt;code&gt;Find&lt;/code&gt; the &lt;code&gt;ComboBox1.Value&lt;/code&gt; on the &lt;code&gt;Worksheet&lt;/code&gt; and get the corresponding Source Data range.&lt;/li&gt;
-&lt;li&gt;Then use &lt;code&gt;SetSourceData&lt;/code&gt; with a concatenated reference to the &lt;code&gt;Worksheet&lt;/code&gt;s &lt;code&gt;Name&lt;/code&gt;, and the &lt;code&gt;Address&lt;/code&gt; of the Source Data&lt;/li&gt;
-&lt;/ul&gt;&lt;/li&gt;
-&lt;/ol&gt;
-&lt;hr&gt;
-&lt;pre&gt;&lt;code&gt;Private Sub ComboBox1_Change()
+&lt;/code&gt;, &lt;code&gt;Chart.SetSourceData&lt;/code&gt;, &lt;code&gt;Find&lt;/code&gt;, &lt;code&gt;ComboBox1.Value&lt;/code&gt;, &lt;code&gt;Worksheet&lt;/code&gt;, &lt;code&gt;SetSourceData&lt;/code&gt;, &lt;code&gt;Worksheet&lt;/code&gt;, &lt;code&gt;Name&lt;/code&gt;, &lt;code&gt;Address&lt;/code&gt;, &lt;code&gt;Private Sub ComboBox1_Change()
     Dim shp As Shape: Set shp = ActivePresentation.SlideShowWindow.View.Slide.Shapes("Chart 5") ' Change to your chart name
     Dim rng As Excel.Range, dataRng As Excel.Range
     Dim ws As Excel.Worksheet: Set ws = shp.Chart.ChartData.Workbook.Sheets(1)
@@ -3398,12 +3354,7 @@
         End If
     End With
 End Sub
-&lt;/code&gt;&lt;/pre&gt;</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Slightly modifying this answer : Create and populate with to . Then instead of hiding rows, actually change the Source Data of the chart using . To accomplish this: Add a reference to the Microsoft Excel Object Library under Tools &gt; References . the on the and get the corresponding Source Data range. Then use with a concatenated reference to the s , and the of the Source Data</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -3459,25 +3410,18 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>&lt;p&gt;You are getting a code 10 error from highcharts because you can not have zero value in a logarithmic chart. According to &lt;a href="https://www.highcharts.com/errors/10/" rel="nofollow noreferrer"&gt;this&lt;/a&gt; link in highcharts documentation:&lt;/p&gt;
-&lt;blockquote&gt;
-  &lt;p&gt;This error occurs in the following situations:&lt;/p&gt;
-  &lt;ul&gt;
-  &lt;li&gt;&lt;p&gt;If a zero or subzero data value is added to a logarithmic axis&lt;/p&gt;&lt;/li&gt;
-  &lt;li&gt;&lt;p&gt;If the minimum of a logarithimic axis is set to 0 or less&lt;/p&gt;&lt;/li&gt;
-  &lt;li&gt;&lt;p&gt;If the threshold is set to 0 or less&lt;/p&gt;&lt;/li&gt;
-  &lt;/ul&gt;
-&lt;/blockquote&gt;
-&lt;p&gt;So you need just change your chart type from &lt;code&gt;logarthmic&lt;/code&gt; to any other. Here you can just use default type which is &lt;code&gt;linear&lt;/code&gt; according to &lt;a href="https://api.highcharts.com/highcharts/colorAxis.type" rel="nofollow noreferrer"&gt;this&lt;/a&gt; API reference.
-So you can simply comment out &lt;code&gt;type: 'logarithmic'&lt;/code&gt;. I made this modification on your code in below link:&lt;/p&gt;
-&lt;p&gt;JSFiddle: &lt;a href="https://jsfiddle.net/atkfp0y5/" rel="nofollow noreferrer"&gt;https://jsfiddle.net/atkfp0y5/&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;API reference: &lt;a href="https://api.highcharts.com/highcharts/colorAxis.type" rel="nofollow noreferrer"&gt;https://api.highcharts.com/highcharts/colorAxis.type&lt;/a&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
           <t xml:space="preserve"> You are getting a code 10 error from highcharts because you can not have zero value in a logarithmic chart. According to this link in highcharts documentation: This error occurs in the following situations: If a zero or subzero data value is added to a logarithmic axis If the minimum of a logarithimic axis is set to 0 or less If the threshold is set to 0 or less So you need just change your chart type from to any other. Here you can just use default type which is according to this API reference.
 So you can simply comment out . I made this modification on your code in below link: JSFiddle: https://jsfiddle.net/atkfp0y5/ API reference: https://api.highcharts.com/highcharts/colorAxis.type</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;logarthmic&lt;/code&gt;, &lt;code&gt;linear&lt;/code&gt;, &lt;code&gt;type: 'logarithmic'&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -3528,19 +3472,22 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>&lt;p&gt;I think the issue is about closures in javascript. You are using loop for creating charts so events are not properly binded, read more &lt;a href="https://developer.mozilla.org/en-US/docs/Web/JavaScript/Guide/Closures" rel="nofollow"&gt;here&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;There is also possible solution, or try to use something like this:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;$.each(array, function(index, element) { 
+          <t xml:space="preserve"> I think the issue is about closures in javascript. You are using loop for creating charts so events are not properly binded, read more here There is also possible solution, or try to use something like this:</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;$.each(array, function(index, element) { 
   (function(element) { //element or index
      var chart = ... //create chart 
   })(element)
 });
-&lt;/code&gt;&lt;/pre&gt;</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> I think the issue is about closures in javascript. You are using loop for creating charts so events are not properly binded, read more here There is also possible solution, or try to use something like this:</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -3610,18 +3557,22 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>&lt;p&gt;First, I would suggest file an issue on github page, and provide the sample code using ChartsDemo to reproduce. I tried it, and I do see small overlap, but if the bars are continuing smaller, then value will not be drawn. So the problem is the granularity.&lt;/p&gt;
-&lt;p&gt;Whether to draw text is based on:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;internal func passesCheck() -&amp;gt; Bool
+          <t xml:space="preserve"> First, I would suggest file an issue on github page, and provide the sample code using ChartsDemo to reproduce. I tried it, and I do see small overlap, but if the bars are continuing smaller, then value will not be drawn. So the problem is the granularity. Whether to draw text is based on: If the values are too many, it won't draw; But it seems not enough granularity for you. There are ways to solve it, for example bar chart, you can calculate the text width, and compare it with the bar pixel width to determine draw the text or not. You can override in or if you need to solve it in a hurry. Pie chart is similar. Like:</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;internal func passesCheck() -&amp;gt; Bool
 {
     guard let dataProvider = dataProvider, barData = dataProvider.barData else { return false }
     return CGFloat(barData.yValCount) &amp;lt; CGFloat(dataProvider.maxVisibleValueCount) * viewPortHandler.scaleX
 }
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;If the values are too many, it won't draw; But it seems not enough granularity for you.&lt;/p&gt;
-&lt;p&gt;There are ways to solve it, for example bar chart, you can calculate the text width, and compare it with the bar pixel width to determine draw the text or not. You can override in &lt;code&gt;drawValues&lt;/code&gt; or if you need to solve it in a hurry. Pie chart is similar.&lt;/p&gt;
-&lt;p&gt;Like:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;// calculate bar pixel width
+&lt;/code&gt;, &lt;code&gt;drawValues&lt;/code&gt;, &lt;code&gt;// calculate bar pixel width
 let barWidth: CGFloat = 0.5
 let barSpaceHalf = dataSet.barSpace / 2.0
 let left = 0 - barWidth + barSpaceHalf
@@ -3636,12 +3587,7 @@
 {
     // draw text
 }
-&lt;/code&gt;&lt;/pre&gt;</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> First, I would suggest file an issue on github page, and provide the sample code using ChartsDemo to reproduce. I tried it, and I do see small overlap, but if the bars are continuing smaller, then value will not be drawn. So the problem is the granularity. Whether to draw text is based on: If the values are too many, it won't draw; But it seems not enough granularity for you. There are ways to solve it, for example bar chart, you can calculate the text width, and compare it with the bar pixel width to determine draw the text or not. You can override in or if you need to solve it in a hurry. Pie chart is similar. Like:</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -3736,9 +3682,17 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>&lt;p&gt;The ggplot code creates a single stacked bar chart with a section for every row in &lt;code&gt;df&lt;/code&gt;. With &lt;code&gt;coord_polar&lt;/code&gt; this becomes a single pie chart with a wedge for each row in the data frame. Then when you use &lt;code&gt;gg_animate&lt;/code&gt;, each frame includes only the wedges that correspond to a given level of &lt;code&gt;Y&lt;/code&gt;. That's why you're getting only a section of the full pie chart each time. &lt;/p&gt;
-&lt;p&gt;If instead you want a full pie for each level of &lt;code&gt;Y&lt;/code&gt;, then one option would be to create a separate pie chart for each level of &lt;code&gt;Y&lt;/code&gt; and then combine those pies into a GIF. Here's an example with some fake data that (I hope) is similar to your real data:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;library(animation)
+          <t xml:space="preserve"> The ggplot code creates a single stacked bar chart with a section for every row in . With this becomes a single pie chart with a wedge for each row in the data frame. Then when you use , each frame includes only the wedges that correspond to a given level of . That's why you're getting only a section of the full pie chart each time. If instead you want a full pie for each level of , then one option would be to create a separate pie chart for each level of and then combine those pies into a GIF. Here's an example with some fake data that (I hope) is similar to your real data: The pies in the GIF above are all the same size. But you can also change the size of the pies based on the sum of for each level of (code adapted from this SO answer ): If I can editorialize for a moment, although animation is cool (but pie charts are uncool, so maybe animating a bunch of pie charts just adds insult to injury), the data will probably be easier to comprehend with a plain old static line plot. For example: Or maybe this:</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>[&lt;img alt="enter image description here" src="https://i.stack.imgur.com/HEgc8.gif"/&gt;, &lt;img alt="enter image description here" src="https://i.stack.imgur.com/kzwqx.gif"/&gt;, &lt;img alt="enter image description here" src="https://i.stack.imgur.com/nMiji.png"/&gt;, &lt;img alt="enter image description here" src="https://i.stack.imgur.com/Hj2vN.png"/&gt;]</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;df&lt;/code&gt;, &lt;code&gt;coord_polar&lt;/code&gt;, &lt;code&gt;gg_animate&lt;/code&gt;, &lt;code&gt;Y&lt;/code&gt;, &lt;code&gt;Y&lt;/code&gt;, &lt;code&gt;Y&lt;/code&gt;, &lt;code&gt;library(animation)
 # Fake data
 set.seed(40)
 df = data.frame(Year = rep(2010:2015, 3), 
@@ -3753,10 +3707,7 @@
     print(p)
   }
 }, movie.name="test1.gif")
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;a href="https://i.stack.imgur.com/HEgc8.gif" rel="nofollow noreferrer"&gt;&lt;img src="https://i.stack.imgur.com/HEgc8.gif" alt="enter image description here"&gt;&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;The pies in the GIF above are all the same size. But you can also change the size of the pies based on the sum of &lt;code&gt;count&lt;/code&gt; for each level of &lt;code&gt;Year&lt;/code&gt; (code adapted from &lt;a href="https://stackoverflow.com/a/27771019/496488"&gt;this SO answer&lt;/a&gt;):&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;library(dplyr)
+&lt;/code&gt;, &lt;code&gt;count&lt;/code&gt;, &lt;code&gt;Year&lt;/code&gt;, &lt;code&gt;library(dplyr)
 df = df %&amp;gt;% group_by(Year) %&amp;gt;% 
   mutate(cp1 = c(0, head(cumsum(count), -1)),
          cp2 = cumsum(count))
@@ -3770,29 +3721,17 @@
     print(p)
   }
 }, movie.name="test2.gif")
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;a href="https://i.stack.imgur.com/kzwqx.gif" rel="nofollow noreferrer"&gt;&lt;img src="https://i.stack.imgur.com/kzwqx.gif" alt="enter image description here"&gt;&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;If I can editorialize for a moment, although animation is cool (but pie charts are uncool, so maybe animating a bunch of pie charts just adds insult to injury), the data will probably be easier to comprehend with a plain old static line plot. For example:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;ggplot(df, aes(x=Year, y=count, colour=disease)) +
+&lt;/code&gt;, &lt;code&gt;ggplot(df, aes(x=Year, y=count, colour=disease)) +
   geom_line() + geom_point() +
   scale_y_continuous(limits=c(0, max(df$count)))
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;a href="https://i.stack.imgur.com/nMiji.png" rel="nofollow noreferrer"&gt;&lt;img src="https://i.stack.imgur.com/nMiji.png" alt="enter image description here"&gt;&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Or maybe this:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;ggplot(df, aes(x=Year, y=count, colour=disease)) +
+&lt;/code&gt;, &lt;code&gt;ggplot(df, aes(x=Year, y=count, colour=disease)) +
   geom_line() + geom_point(show.legend=FALSE) +
   geom_line(data=df %&amp;gt;% group_by(Year) %&amp;gt;% mutate(count=sum(count)), 
             aes(x=Year, y=count, colour="All"), lwd=1) +
   scale_y_continuous(limits=c(0, df %&amp;gt;% group_by(Year) %&amp;gt;% 
                                 summarise(count=sum(count)) %&amp;gt;% max(.$count))) +
   scale_colour_manual(values=c("black", hcl(seq(15,275,length=4)[1:3],100,65)))
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;a href="https://i.stack.imgur.com/Hj2vN.png" rel="nofollow noreferrer"&gt;&lt;img src="https://i.stack.imgur.com/Hj2vN.png" alt="enter image description here"&gt;&lt;/a&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The ggplot code creates a single stacked bar chart with a section for every row in . With this becomes a single pie chart with a wedge for each row in the data frame. Then when you use , each frame includes only the wedges that correspond to a given level of . That's why you're getting only a section of the full pie chart each time. If instead you want a full pie for each level of , then one option would be to create a separate pie chart for each level of and then combine those pies into a GIF. Here's an example with some fake data that (I hope) is similar to your real data: The pies in the GIF above are all the same size. But you can also change the size of the pies based on the sum of for each level of (code adapted from this SO answer ): If I can editorialize for a moment, although animation is cool (but pie charts are uncool, so maybe animating a bunch of pie charts just adds insult to injury), the data will probably be easier to comprehend with a plain old static line plot. For example: Or maybe this:</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -3905,9 +3844,17 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>&lt;p&gt;below code is for bar chart Add Data keys in orders of Labels in my case it was theChart in your case it is myChart  &lt;/p&gt;
-&lt;p&gt;&lt;code&gt;datakeys: ["4", "3", "2", "1", "6"],&lt;/code&gt;&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt; document.getElementById("chart_VulSev").onclick = function (evt) {
+          <t xml:space="preserve"> below code is for bar chart Add Data keys in orders of Labels in my case it was theChart in your case it is myChart For Pie Chart check this snippet</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;datakeys: ["4", "3", "2", "1", "6"],&lt;/code&gt;, &lt;code&gt; document.getElementById("chart_VulSev").onclick = function (evt) {
                     var activePoints = theChart.getElementAtEvent(evt);
                     var theElement = theChart.config.data.datasets[activePoints[0]._datasetIndex].data[activePoints[0]._index];
                     //console.log(activePoints);
@@ -3917,11 +3864,7 @@
                     //alert(theChart.config.data.datakeys[activePoints[0]._index]);
                     //console.log(theChart.config.type);
                 }
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;For Pie Chart check this snippet
-&lt;div class="snippet" data-lang="js" data-hide="false" data-console="true" data-babel="false"&gt;
-&lt;div class="snippet-code"&gt;
-&lt;pre class="snippet-code-html lang-html prettyprint-override"&gt;&lt;code&gt;&amp;lt;html&amp;gt;
+&lt;/code&gt;, &lt;code&gt;&amp;lt;html&amp;gt;
 &amp;lt;head&amp;gt;
   &amp;lt;title&amp;gt;PieChart&amp;lt;/title&amp;gt;
   &amp;lt;script src="https://ajax.googleapis.com/ajax/libs/jquery/2.1.1/jquery.min.js"&amp;gt;&amp;lt;/script&amp;gt;
@@ -3971,15 +3914,7 @@
     &amp;lt;canvas id="myChart"&amp;gt;&amp;lt;/canvas&amp;gt;
   &amp;lt;/div&amp;gt;
 &amp;lt;/body&amp;gt;
-&amp;lt;/html&amp;gt;&lt;/code&gt;&lt;/pre&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> below code is for bar chart Add Data keys in orders of Labels in my case it was theChart in your case it is myChart For Pie Chart check this snippet</t>
+&amp;lt;/html&amp;gt;&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -4028,17 +3963,17 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>&lt;p&gt;The parse error is caused by a naïve path interpolation of SVG's &lt;a href="http://www.w3.org/TR/SVG/paths.html#PathDataEllipticalArcCommands" rel="noreferrer"&gt;elliptical arc command&lt;/a&gt;, &lt;strong&gt;A&lt;/strong&gt;. Elliptical arcs have the form "rx ry x-axis-rotation large-arc-flag sweep-flag x y". If you use default path interpolation on arc commands, it's possible that you'll inadvertently attempt to interpolate one of the flags as well, which can only have the value zero or one. This error will always happen if you enable or disable the innerRadius.&lt;/p&gt;
-&lt;p&gt;You shouldn't use the &lt;a href="https://github.com/mbostock/d3/wiki/Transitions#wiki-d3_interpolateString" rel="noreferrer"&gt;default string interpolator&lt;/a&gt; for &lt;a href="https://github.com/mbostock/d3/wiki/SVG-Shapes#wiki-arc" rel="noreferrer"&gt;d3.svg.arc&lt;/a&gt; path data; arcs must be interpolated in polar coordinates using a &lt;a href="https://github.com/mbostock/d3/wiki/Transitions#wiki-attrTween" rel="noreferrer"&gt;custom tween&lt;/a&gt;. Here are two short examples demonstrating how to interpolate arcs in data space:&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;&lt;a href="http://bl.ocks.org/1346395" rel="noreferrer"&gt;How-To: Update a Pie Chart (Part 1)&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="http://bl.ocks.org/1346410" rel="noreferrer"&gt;How-To: Update a Pie Chart (Part 2)&lt;/a&gt;&lt;/li&gt;
-&lt;/ul&gt;</t>
+          <t xml:space="preserve"> The parse error is caused by a naïve path interpolation of SVG's elliptical arc command , A . Elliptical arcs have the form "rx ry x-axis-rotation large-arc-flag sweep-flag x y". If you use default path interpolation on arc commands, it's possible that you'll inadvertently attempt to interpolate one of the flags as well, which can only have the value zero or one. This error will always happen if you enable or disable the innerRadius. You shouldn't use the default string interpolator for d3.svg.arc path data; arcs must be interpolated in polar coordinates using a custom tween . Here are two short examples demonstrating how to interpolate arcs in data space: How-To: Update a Pie Chart (Part 1) How-To: Update a Pie Chart (Part 2)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The parse error is caused by a naïve path interpolation of SVG's elliptical arc command , A . Elliptical arcs have the form "rx ry x-axis-rotation large-arc-flag sweep-flag x y". If you use default path interpolation on arc commands, it's possible that you'll inadvertently attempt to interpolate one of the flags as well, which can only have the value zero or one. This error will always happen if you enable or disable the innerRadius. You shouldn't use the default string interpolator for d3.svg.arc path data; arcs must be interpolated in polar coordinates using a custom tween . Here are two short examples demonstrating how to interpolate arcs in data space: How-To: Update a Pie Chart (Part 1) How-To: Update a Pie Chart (Part 2)</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -4151,21 +4086,17 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>&lt;p&gt;no standard options for alpha opacity exist for the pie chart&lt;br&gt;
-however, you can manually modify the chart, once it has drawn  &lt;/p&gt;
-&lt;p&gt;use standard hex colors to draw the chart,&lt;br&gt;
-then replace the fill attribute on the chart elements,&lt;br&gt;
-with an rgba version of the same color  &lt;/p&gt;
-&lt;p&gt;in order to replace the colors, you will need to use a &lt;code&gt;MutationObserver&lt;/code&gt;&lt;br&gt;
-as you interact with the chart, elements are added / redrawn&lt;br&gt;
-so you must replace the color every time this occurs  &lt;/p&gt;
-&lt;p&gt;also, you'll want to use lowercase hex strings,&lt;br&gt;
-in order to find the color on an element&lt;br&gt;
-they are converted to lowercase when the chart is drawn  &lt;/p&gt;
-&lt;p&gt;see following working snippet...  &lt;/p&gt;
-&lt;p&gt;&lt;div class="snippet" data-lang="js" data-hide="false" data-console="true" data-babel="false"&gt;
-&lt;div class="snippet-code"&gt;
-&lt;pre class="snippet-code-js lang-js prettyprint-override"&gt;&lt;code&gt;google.charts.load('current', {
+          <t xml:space="preserve"> no standard options for alpha opacity exist for the pie chart however, you can manually modify the chart, once it has drawn use standard hex colors to draw the chart, then replace the fill attribute on the chart elements, with an rgba version of the same color in order to replace the colors, you will need to use a as you interact with the chart, elements are added / redrawn so you must replace the color every time this occurs also, you'll want to use lowercase hex strings, in order to find the color on an element they are converted to lowercase when the chart is drawn see following working snippet...</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;MutationObserver&lt;/code&gt;, &lt;code&gt;google.charts.load('current', {
   packages: ['corechart']
 }).then(function () {
   var data = google.visualization.arrayToDataTable([
@@ -4215,17 +4146,8 @@
       });
     }
   }
-});&lt;/code&gt;&lt;/pre&gt;
-&lt;pre class="snippet-code-html lang-html prettyprint-override"&gt;&lt;code&gt;&amp;lt;script src="https://www.gstatic.com/charts/loader.js"&amp;gt;&amp;lt;/script&amp;gt;
-&amp;lt;div id="chart_div"&amp;gt;&amp;lt;/div&amp;gt;&lt;/code&gt;&lt;/pre&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> no standard options for alpha opacity exist for the pie chart however, you can manually modify the chart, once it has drawn use standard hex colors to draw the chart, then replace the fill attribute on the chart elements, with an rgba version of the same color in order to replace the colors, you will need to use a as you interact with the chart, elements are added / redrawn so you must replace the color every time this occurs also, you'll want to use lowercase hex strings, in order to find the color on an element they are converted to lowercase when the chart is drawn see following working snippet...</t>
+});&lt;/code&gt;, &lt;code&gt;&amp;lt;script src="https://www.gstatic.com/charts/loader.js"&amp;gt;&amp;lt;/script&amp;gt;
+&amp;lt;div id="chart_div"&amp;gt;&amp;lt;/div&amp;gt;&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -4279,22 +4201,17 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>&lt;p&gt;You could try &lt;a href="http://www.graphviz.org/" rel="nofollow"&gt;graphviz&lt;/a&gt;.  It was created specifically for visualising large graphs of network nodes.&lt;/p&gt;
-&lt;p&gt;It's not out of the box; you'll have to write some code that:&lt;/p&gt;
-&lt;ol&gt;
-&lt;li&gt;Reads data on the devices &amp;amp; their relationships&lt;/li&gt;
-&lt;li&gt;Creates the graphviz input file&lt;/li&gt;
-&lt;li&gt;generates the diagram by calling the graphviz binary.&lt;/li&gt;
-&lt;/ol&gt;
-&lt;p&gt;There are many ways to do that.  One of the easiest is to use python with the &lt;a href="http://code.google.com/p/pydot/" rel="nofollow"&gt;pydot&lt;/a&gt; library.&lt;/p&gt;
-&lt;p&gt;Note that graphviz generates static images (jpeg / tiff etc.) so you'd have to regenerate on demand.  &lt;/p&gt;
-&lt;p&gt;There are more interactive toolkits available, e.g. &lt;a href="http://vis.stanford.edu/protovis/" rel="nofollow"&gt;protovis&lt;/a&gt; / &lt;a href="http://thejit.org/" rel="nofollow"&gt;infovis&lt;/a&gt;.  Both are javascript based and render directly in the browser.&lt;/p&gt;
-&lt;p&gt;hth.&lt;/p&gt;</t>
+          <t xml:space="preserve"> You could try graphviz .  It was created specifically for visualising large graphs of network nodes. It's not out of the box; you'll have to write some code that: Reads data on the devices &amp; their relationships Creates the graphviz input file generates the diagram by calling the graphviz binary. There are many ways to do that.  One of the easiest is to use python with the pydot library. Note that graphviz generates static images (jpeg / tiff etc.) so you'd have to regenerate on demand. There are more interactive toolkits available, e.g. protovis / infovis .  Both are javascript based and render directly in the browser. hth.</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You could try graphviz .  It was created specifically for visualising large graphs of network nodes. It's not out of the box; you'll have to write some code that: Reads data on the devices &amp; their relationships Creates the graphviz input file generates the diagram by calling the graphviz binary. There are many ways to do that.  One of the easiest is to use python with the pydot library. Note that graphviz generates static images (jpeg / tiff etc.) so you'd have to regenerate on demand. There are more interactive toolkits available, e.g. protovis / infovis .  Both are javascript based and render directly in the browser. hth.</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -4341,15 +4258,17 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>&lt;p&gt;It's called a railroad diagram. It can more specifically be called a &lt;a href="http://en.wikipedia.org/wiki/Syntax_diagram" rel="nofollow noreferrer"&gt;syntax diagram&lt;/a&gt;. Not sure about Visio support but other tools can get the job done: &lt;a href="https://stackoverflow.com/questions/773371/what-is-a-good-tool-for-creating-railroad-diagrams"&gt;What is a good tool for creating railroad diagrams?&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;&lt;a href="https://i.stack.imgur.com/719Nr.jpg" rel="nofollow noreferrer"&gt;&lt;img src="https://i.stack.imgur.com/719Nr.jpg" alt="alt text"&gt;&lt;/a&gt;&lt;br&gt;
-&lt;sub&gt;(source: &lt;a href="http://www.antlr.org/works/screenshots/editor.jpg" rel="nofollow noreferrer"&gt;antlr.org&lt;/a&gt;)&lt;/sub&gt;  &lt;/p&gt;
-&lt;p&gt;If you have a grammar file you can try to get it working in &lt;a href="http://www.antlr.org/works/index.html" rel="nofollow noreferrer"&gt;ANTLR Works&lt;/a&gt;, which is specifically built for working with the syntax and grammar of languages.&lt;/p&gt;</t>
+          <t xml:space="preserve"> It's called a railroad diagram. It can more specifically be called a syntax diagram . Not sure about Visio support but other tools can get the job done: What is a good tool for creating railroad diagrams? (source: antlr.org ) If you have a grammar file you can try to get it working in ANTLR Works , which is specifically built for working with the syntax and grammar of languages.</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t xml:space="preserve"> It's called a railroad diagram. It can more specifically be called a syntax diagram . Not sure about Visio support but other tools can get the job done: What is a good tool for creating railroad diagrams? (source: antlr.org ) If you have a grammar file you can try to get it working in ANTLR Works , which is specifically built for working with the syntax and grammar of languages.</t>
+          <t>[&lt;img alt="alt text" src="https://i.stack.imgur.com/719Nr.jpg"/&gt;]</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -4394,13 +4313,17 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>&lt;p&gt;This is called a &lt;strong&gt;&lt;a href="http://en.wikipedia.org/wiki/Voronoi_diagram" rel="noreferrer"&gt;Voronoi Diagram&lt;/a&gt;&lt;/strong&gt; and there are many excellent algorithms for generating them efficiently.  The one I've heard about most is &lt;strong&gt;&lt;a href="http://en.wikipedia.org/wiki/Fortune%27s_algorithm" rel="noreferrer"&gt;Fortune's algorithm&lt;/a&gt;&lt;/strong&gt;, which runs in time O(n log n), though others algorithms exist for this problem.&lt;/p&gt;
-&lt;p&gt;Hope this helps!&lt;/p&gt;</t>
+          <t xml:space="preserve"> This is called a Voronoi Diagram and there are many excellent algorithms for generating them efficiently.  The one I've heard about most is Fortune's algorithm , which runs in time O(n log n), though others algorithms exist for this problem. Hope this helps!</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> This is called a Voronoi Diagram and there are many excellent algorithms for generating them efficiently.  The one I've heard about most is Fortune's algorithm , which runs in time O(n log n), though others algorithms exist for this problem. Hope this helps!</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -4448,16 +4371,20 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>&lt;p&gt;It seems that the easiest is simple construct a reverse dictionary to link from names to vertices (or edges):&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;n2id = dict(zip(graph.vs["name"],[v.index for v in graph.vs]))
+          <t xml:space="preserve"> It seems that the easiest is simple construct a reverse dictionary to link from names to vertices (or edges):</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;n2id = dict(zip(graph.vs["name"],[v.index for v in graph.vs]))
 name = "J. Smith" # name of the vertices you are interested in
 neighbors = graph.neighborhood(n2id[name], order=1)
-&lt;/code&gt;&lt;/pre&gt;</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> It seems that the easiest is simple construct a reverse dictionary to link from names to vertices (or edges):</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -4526,9 +4453,17 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>&lt;p&gt;It's easiest to use two separate &lt;a href="http://matplotlib.org/users/gridspec.html"&gt;gridspec objects&lt;/a&gt; for this.  That way you can have independent margins, padding, etc for different groups of subplots.&lt;/p&gt;
-&lt;p&gt;As a quick example:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;import numpy as np
+          <t xml:space="preserve"> It's easiest to use two separate gridspec objects for this.  That way you can have independent margins, padding, etc for different groups of subplots. As a quick example:</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>[&lt;img alt="enter image description here" src="https://i.stack.imgur.com/0qv47.png"/&gt;]</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;import numpy as np
 import matplotlib.pyplot as plt
 # We'll use two separate gridspecs to have different margins, hspace, etc
 gs_top = plt.GridSpec(5, 1, top=0.95)
@@ -4550,13 +4485,7 @@
     ax.plot(data)
     ax.margins(0.05)
 plt.show()
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;img src="https://i.stack.imgur.com/0qv47.png" alt="enter image description here"&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> It's easiest to use two separate gridspec objects for this.  That way you can have independent margins, padding, etc for different groups of subplots. As a quick example:</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -4655,9 +4584,17 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>&lt;p&gt;You get this error message "Error: Aesthetics must be either length 1 or the same as the data (43): x" because vector &lt;code&gt;afterMinWageLaw&lt;/code&gt; has a length of 43 values and &lt;code&gt;beforeMinWageLaw&lt;/code&gt; has a length of 303 values, and this is why you cannot reference them within the same aesthetics &lt;code&gt;aes()&lt;/code&gt;, I guess.&lt;/p&gt;
-&lt;p&gt;I would use different visualizations in one plot, so that you can set different aesthetics also with a different length or row count of your data. At first, I would split your data into two data frames, one for before the law and another one for after the law. Using ggplot, you can reference different data frames in one plot, in your case for example like this:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;#set row indicex ranges for before and after law
+          <t xml:space="preserve"> You get this error message "Error: Aesthetics must be either length 1 or the same as the data (43): x" because vector has a length of 43 values and has a length of 303 values, and this is why you cannot reference them within the same aesthetics , I guess. I would use different visualizations in one plot, so that you can set different aesthetics also with a different length or row count of your data. At first, I would split your data into two data frames, one for before the law and another one for after the law. Using ggplot, you can reference different data frames in one plot, in your case for example like this: But this way, you could also reference and as in and remove referencing the data frame, I think. To also plot the legend you need to set or within and add or to your plot.</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>[&lt;img alt="enter image description here" src="https://i.stack.imgur.com/rEJSn.jpg"/&gt;]</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;afterMinWageLaw&lt;/code&gt;, &lt;code&gt;beforeMinWageLaw&lt;/code&gt;, &lt;code&gt;aes()&lt;/code&gt;, &lt;code&gt;#set row indicex ranges for before and after law
 row_index_range_before &amp;lt;- 1:303;
 row_index_range_after &amp;lt;- 304:346;
 #define two data frames
@@ -4708,14 +4645,7 @@
 ggtitle("Distribtution of the Data") + 
   xlab("Seattle MSA Food and Drink          Workers") + 
   ylab("Density");
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;But this way, you could also reference &lt;code&gt;afterMinWageLaw&lt;/code&gt; and &lt;code&gt;beforeMinWageLaw&lt;/code&gt; as &lt;code&gt;x&lt;/code&gt; in &lt;code&gt;aes()&lt;/code&gt; and remove &lt;code&gt;data&lt;/code&gt; referencing the data frame, I think.&lt;/p&gt;
-&lt;p&gt;To also plot the legend you need to set &lt;code&gt;color&lt;/code&gt; or &lt;code&gt;fill&lt;/code&gt; within &lt;code&gt;aes()&lt;/code&gt; and add &lt;code&gt;scale_colour_manual()&lt;/code&gt; or &lt;code&gt;scale_fill_manual()&lt;/code&gt; to your plot.&lt;a href="https://i.stack.imgur.com/rEJSn.jpg" rel="nofollow noreferrer"&gt;&lt;img src="https://i.stack.imgur.com/rEJSn.jpg" alt="enter image description here"&gt;&lt;/a&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> You get this error message "Error: Aesthetics must be either length 1 or the same as the data (43): x" because vector has a length of 43 values and has a length of 303 values, and this is why you cannot reference them within the same aesthetics , I guess. I would use different visualizations in one plot, so that you can set different aesthetics also with a different length or row count of your data. At first, I would split your data into two data frames, one for before the law and another one for after the law. Using ggplot, you can reference different data frames in one plot, in your case for example like this: But this way, you could also reference and as in and remove referencing the data frame, I think. To also plot the legend you need to set or within and add or to your plot.</t>
+&lt;/code&gt;, &lt;code&gt;afterMinWageLaw&lt;/code&gt;, &lt;code&gt;beforeMinWageLaw&lt;/code&gt;, &lt;code&gt;x&lt;/code&gt;, &lt;code&gt;aes()&lt;/code&gt;, &lt;code&gt;data&lt;/code&gt;, &lt;code&gt;color&lt;/code&gt;, &lt;code&gt;fill&lt;/code&gt;, &lt;code&gt;aes()&lt;/code&gt;, &lt;code&gt;scale_colour_manual()&lt;/code&gt;, &lt;code&gt;scale_fill_manual()&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -4766,19 +4696,17 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>&lt;p&gt;We use &lt;strong&gt;AnyChart&lt;/strong&gt; a lot at work for data visualisation : &lt;/p&gt;
-&lt;p&gt;&lt;a href="http://www.anychart.com/" rel="nofollow noreferrer"&gt;http://www.anychart.com/&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;and here you can see some examples of their bubble charts&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;&lt;a href="http://www.anychart.com/products/anychart/gallery/Marker-and-Bubble-Charts.php" rel="nofollow noreferrer"&gt;http://www.anychart.com/products/anychart/gallery/Marker-and-Bubble-Charts.php&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;&lt;a href="http://jamie-dixon.co.uk/images/bubble.gif" rel="nofollow noreferrer"&gt;alt text http://jamie-dixon.co.uk/images/bubble.gif&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;What they say on their site:&lt;/strong&gt;
-&lt;em&gt;"AnyChart is a flexible  Flash based solution that allows you to create interactive and great looking flash charts. It is a cross-browser and cross-platform charting solution intended for everybody who deals with creation of dashboard, reporting, analytics, statistical, financial or any other data visualization solutions."&lt;/em&gt;&lt;/p&gt;
-&lt;p&gt;From our research, these guys seem to offer some of the most customisable charts we've found that let users display the data in the many formats we need and expose a variety of events, accessible via Javascript, such as &lt;strong&gt;click&lt;/strong&gt; and &lt;strong&gt;hover&lt;/strong&gt; on individual items.&lt;/p&gt;</t>
+          <t xml:space="preserve"> We use AnyChart a lot at work for data visualisation : http://www.anychart.com/ and here you can see some examples of their bubble charts http://www.anychart.com/products/anychart/gallery/Marker-and-Bubble-Charts.php alt text http://jamie-dixon.co.uk/images/bubble.gif What they say on their site: "AnyChart is a flexible  Flash based solution that allows you to create interactive and great looking flash charts. It is a cross-browser and cross-platform charting solution intended for everybody who deals with creation of dashboard, reporting, analytics, statistical, financial or any other data visualization solutions." From our research, these guys seem to offer some of the most customisable charts we've found that let users display the data in the many formats we need and expose a variety of events, accessible via Javascript, such as click and hover on individual items.</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> We use AnyChart a lot at work for data visualisation : http://www.anychart.com/ and here you can see some examples of their bubble charts http://www.anychart.com/products/anychart/gallery/Marker-and-Bubble-Charts.php alt text http://jamie-dixon.co.uk/images/bubble.gif What they say on their site: "AnyChart is a flexible  Flash based solution that allows you to create interactive and great looking flash charts. It is a cross-browser and cross-platform charting solution intended for everybody who deals with creation of dashboard, reporting, analytics, statistical, financial or any other data visualization solutions." From our research, these guys seem to offer some of the most customisable charts we've found that let users display the data in the many formats we need and expose a variety of events, accessible via Javascript, such as click and hover on individual items.</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -4823,13 +4751,17 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Well, the Flex Visualization stuff has a scatter chart: &lt;a href="http://livedocs.adobe.com/flex/3/html/help.html?content=charts_types_01.html" rel="nofollow noreferrer"&gt;Plot Charts&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;There is also Flare, if you're looking for a free open source solution: &lt;a href="http://flare.prefuse.org/" rel="nofollow noreferrer"&gt;Flare&lt;/a&gt;&lt;/p&gt;</t>
+          <t xml:space="preserve"> Well, the Flex Visualization stuff has a scatter chart: Plot Charts There is also Flare, if you're looking for a free open source solution: Flare</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Well, the Flex Visualization stuff has a scatter chart: Plot Charts There is also Flare, if you're looking for a free open source solution: Flare</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -4949,9 +4881,17 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>&lt;p&gt;I wrote a small script to do just this. Feel free to make suggestions and edits. It works by checking if the surface of each sphere falls within the volume of all of the other spheres.&lt;/p&gt;
-&lt;p&gt;For sphere intersection, it's better (but slower) to use a larger number of faces in the &lt;code&gt;sphere()&lt;/code&gt; function call. This should give denser results in the visualization. For the sphere-alone visualization, a smaller number (~50) should suffice. See the comments for how to visualize each.&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;close all
+          <t xml:space="preserve"> I wrote a small script to do just this. Feel free to make suggestions and edits. It works by checking if the surface of each sphere falls within the volume of all of the other spheres. For sphere intersection, it's better (but slower) to use a larger number of faces in the function call. This should give denser results in the visualization. For the sphere-alone visualization, a smaller number (~50) should suffice. See the comments for how to visualize each. and here is the function Sample visualizations For the 6 spheres used in these examples, it took an average of 1.934 seconds to run the combined visualization on my laptop. Intersection of 6 spheres: Actual 6 spheres: Below, I've combined the two so you can see the intersection in the view of the spheres. For these examples: I hope this helps anyone else who may desire to visualize this effect.</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>[&lt;img alt="Intersection of 6 spheres" src="https://i.stack.imgur.com/0Sf3t.jpg"/&gt;, &lt;img alt="not intersection" src="https://i.stack.imgur.com/wUBPK.jpg"/&gt;, &lt;img alt="both" src="https://i.stack.imgur.com/jwtDH.jpg"/&gt;]</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;sphere()&lt;/code&gt;, &lt;code&gt;close all
 clear
 clc
 % centers   : 3 x N matrix of [X;Y;Z] coordinates
@@ -5000,37 +4940,18 @@
     zp(~(xp &amp;amp; yp &amp;amp; zp)) = NaN;
     surf(xt(:,:,i), yt(:,:,i), zp, 'EdgeColor', 'none');
 end
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;and here is the &lt;code&gt;insphere&lt;/code&gt; function&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;function [x_new,y_new,z_new] = insphere(x,y,z, x0, y0, z0, r)
+&lt;/code&gt;, &lt;code&gt;insphere&lt;/code&gt;, &lt;code&gt;function [x_new,y_new,z_new] = insphere(x,y,z, x0, y0, z0, r)
     x_new = (x - x0).^2 + (y - y0).^2 + (z - z0).^2 &amp;lt;= r^2;
     y_new = (x - x0).^2 + (y - y0).^2 + (z - z0).^2 &amp;lt;= r^2;
     z_new = (x - x0).^2 + (y - y0).^2 + (z - z0).^2 &amp;lt;= r^2;
 end
-&lt;/code&gt;&lt;/pre&gt;
-&lt;hr&gt;
-&lt;p&gt;&lt;strong&gt;Sample visualizations&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;For the 6 spheres used in these examples, it took an average of 1.934 seconds to run the combined visualization on my laptop.&lt;/p&gt;
-&lt;p&gt;Intersection of 6 spheres:
-&lt;a href="https://i.stack.imgur.com/0Sf3t.jpg" rel="nofollow noreferrer"&gt;&lt;img src="https://i.stack.imgur.com/0Sf3t.jpg" alt="Intersection of 6 spheres"&gt;&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Actual 6 spheres:
-&lt;a href="https://i.stack.imgur.com/wUBPK.jpg" rel="nofollow noreferrer"&gt;&lt;img src="https://i.stack.imgur.com/wUBPK.jpg" alt="not intersection"&gt;&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Below, I've combined the two so you can see the intersection in the view of the spheres.
-&lt;a href="https://i.stack.imgur.com/jwtDH.jpg" rel="nofollow noreferrer"&gt;&lt;img src="https://i.stack.imgur.com/jwtDH.jpg" alt="both"&gt;&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;For these examples:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;centers =
+&lt;/code&gt;, &lt;code&gt;centers =
    -0.0065   -0.3383   -0.1738   -0.2513   -0.2268   -0.3115
     1.6521   -5.7721   -1.7783   -3.5578   -2.9894   -5.1412
     1.2947   -0.2749    0.6781    0.2438    0.4235   -0.1483
 dist =
     5.8871    2.5280    2.7109    1.6833    1.9164    2.1231
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;I hope this helps anyone else who may desire to visualize this effect.&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> I wrote a small script to do just this. Feel free to make suggestions and edits. It works by checking if the surface of each sphere falls within the volume of all of the other spheres. For sphere intersection, it's better (but slower) to use a larger number of faces in the function call. This should give denser results in the visualization. For the sphere-alone visualization, a smaller number (~50) should suffice. See the comments for how to visualize each. and here is the function Sample visualizations For the 6 spheres used in these examples, it took an average of 1.934 seconds to run the combined visualization on my laptop. Intersection of 6 spheres: Actual 6 spheres: Below, I've combined the two so you can see the intersection in the view of the spheres. For these examples: I hope this helps anyone else who may desire to visualize this effect.</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -5101,15 +5022,17 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>&lt;p&gt;You can do this by using the 'JSON Input' option in Kibana:&lt;/p&gt;
-&lt;ol&gt;
-&lt;li&gt;Create a new vertical bar visualization&lt;/li&gt;
-&lt;li&gt;Under XAxis, select a 'Histogram' visualization and select any field from the list&lt;/li&gt;
-&lt;li&gt;Select any Interval&lt;/li&gt;
-&lt;li&gt;Click the 'Advanced' caret and Input the following into the text box&lt;/li&gt;
-&lt;/ol&gt;
-&lt;hr&gt;
-&lt;pre&gt;&lt;code&gt;{
+          <t xml:space="preserve"> You can do this by using the 'JSON Input' option in Kibana: Create a new vertical bar visualization Under XAxis, select a 'Histogram' visualization and select any field from the list Select any Interval Click the 'Advanced' caret and Input the following into the text box Another option is to create a new scripted field and use that: Go to Settings -&gt; Click on your index pattern on the left Select the 'Scripted fields' tab (right next to the 'Fields' tab) Click 'Add Scripted Field' Name the field something like Under the script input, set: Now you can create a new visualization, as you tried to do without any special or custom JSON Input by simply selecting the from the field list.</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;{
   "script": "doc['startTime'].date.hourOfDay",
   "interval": 1,
   "min_doc_count": 0,
@@ -5119,21 +5042,7 @@
   },
   "lang": "groovy"
 }
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Another option is to create a new scripted field and use that:&lt;/p&gt;
-&lt;ol&gt;
-&lt;li&gt;Go to Settings -&gt; Click on your index pattern on the left&lt;/li&gt;
-&lt;li&gt;Select the 'Scripted fields' tab (right next to the 'Fields' tab)&lt;/li&gt;
-&lt;li&gt;Click 'Add Scripted Field'&lt;/li&gt;
-&lt;li&gt;Name the field something like &lt;code&gt;startTime_hourofday&lt;/code&gt;&lt;/li&gt;
-&lt;li&gt;Under the script input, set: &lt;code&gt;doc['startTime'].getHourOfDay()&lt;/code&gt;&lt;/li&gt;
-&lt;li&gt;Now you can create a new visualization, as you tried to do without any special or custom JSON Input by simply selecting the &lt;code&gt;startTime_hourofday&lt;/code&gt; from the field list.&lt;/li&gt;
-&lt;/ol&gt;</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> You can do this by using the 'JSON Input' option in Kibana: Create a new vertical bar visualization Under XAxis, select a 'Histogram' visualization and select any field from the list Select any Interval Click the 'Advanced' caret and Input the following into the text box Another option is to create a new scripted field and use that: Go to Settings -&gt; Click on your index pattern on the left Select the 'Scripted fields' tab (right next to the 'Fields' tab) Click 'Add Scripted Field' Name the field something like Under the script input, set: Now you can create a new visualization, as you tried to do without any special or custom JSON Input by simply selecting the from the field list.</t>
+&lt;/code&gt;, &lt;code&gt;startTime_hourofday&lt;/code&gt;, &lt;code&gt;doc['startTime'].getHourOfDay()&lt;/code&gt;, &lt;code&gt;startTime_hourofday&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -5178,13 +5087,17 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>&lt;p&gt;You are creating a graph, which looks like it should (as far as I know). But I cannot find the place where you add the graph to the view. Shouldn't there be some kind &lt;code&gt;findViewById&lt;/code&gt; where you add the created graph to the view. Or at least say to Android that it should draw the chart on the view somewhere, but even that I cannot find.&lt;/p&gt;
-&lt;p&gt;I don't have a lot of experience with creating charts in Android though.&lt;/p&gt;</t>
+          <t xml:space="preserve"> You are creating a graph, which looks like it should (as far as I know). But I cannot find the place where you add the graph to the view. Shouldn't there be some kind where you add the created graph to the view. Or at least say to Android that it should draw the chart on the view somewhere, but even that I cannot find. I don't have a lot of experience with creating charts in Android though.</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You are creating a graph, which looks like it should (as far as I know). But I cannot find the place where you add the graph to the view. Shouldn't there be some kind where you add the created graph to the view. Or at least say to Android that it should draw the chart on the view somewhere, but even that I cannot find. I don't have a lot of experience with creating charts in Android though.</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;findViewById&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -5228,12 +5141,17 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Great question one awesome solution that i have done is to use: &lt;a href="http://code.google.com/apis/chart/"&gt;http://code.google.com/apis/chart/&lt;/a&gt; The Google Chart has lots of great graphs etc.. you can use. What i did was look at the examples see how the data was formatted, then I wrote my query to match it.&lt;/p&gt;</t>
+          <t xml:space="preserve"> Great question one awesome solution that i have done is to use: http://code.google.com/apis/chart/ The Google Chart has lots of great graphs etc.. you can use. What i did was look at the examples see how the data was formatted, then I wrote my query to match it.</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Great question one awesome solution that i have done is to use: http://code.google.com/apis/chart/ The Google Chart has lots of great graphs etc.. you can use. What i did was look at the examples see how the data was formatted, then I wrote my query to match it.</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -5295,30 +5213,26 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Using these colours intuitively makes me to suggest the &lt;code&gt;ggvis&lt;/code&gt; package that uses exactly those two colours (by default although obviously you can change them) to do this:&lt;/p&gt;
-&lt;p&gt;Look at the following example:&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Data&lt;/strong&gt;&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;y &amp;lt;- letters[1:10]
+          <t xml:space="preserve"> Using these colours intuitively makes me to suggest the package that uses exactly those two colours (by default although obviously you can change them) to do this: Look at the following example: Data Solution Edit If you need to remove grid lines to show exactly like the graph you posted you could do the following:</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>[&lt;img alt="enter image description here" src="https://i.stack.imgur.com/nuC4C.png"/&gt;]</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;ggvis&lt;/code&gt;, &lt;code&gt;y &amp;lt;- letters[1:10]
 x &amp;lt;- runif(10)
 gender &amp;lt;- rep(c('male','female'),5)
 df &amp;lt;- data.frame(y,x,gender)
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;strong&gt;Solution&lt;/strong&gt;&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;library(ggvis)
+&lt;/code&gt;, &lt;code&gt;library(ggvis)
 df %&amp;gt;% ggvis(x= ~x, y= ~y, fill= ~gender) %&amp;gt;% layer_points()
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;img src="https://i.stack.imgur.com/nuC4C.png" alt="enter image description here"&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Edit&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;If you need to remove grid lines to show exactly like the graph you posted you could do the following:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;df %&amp;gt;% ggvis(x= ~x, y= ~y, fill= ~gender) %&amp;gt;% layer_points() %&amp;gt;%
+&lt;/code&gt;, &lt;code&gt;df %&amp;gt;% ggvis(x= ~x, y= ~y, fill= ~gender) %&amp;gt;% layer_points() %&amp;gt;%
   add_axis('x', properties= axis_props( grid = list(stroke = 'blank') )) %&amp;gt;%
   add_axis('y', properties= axis_props( grid = list(stroke = 'blank') ))
-&lt;/code&gt;&lt;/pre&gt;</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Using these colours intuitively makes me to suggest the package that uses exactly those two colours (by default although obviously you can change them) to do this: Look at the following example: Data Solution Edit If you need to remove grid lines to show exactly like the graph you posted you could do the following:</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -5383,33 +5297,30 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>&lt;p&gt;You need to put data in long format first. I didn't put in points, since the graph is already cluttered enough, but you can do so by adding a &lt;code&gt;geom_point&lt;/code&gt;.&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;require(tidyr)
+          <t xml:space="preserve"> You need to put data in long format first. I didn't put in points, since the graph is already cluttered enough, but you can do so by adding a . Boxplots Or perhaps violins Replacing the boxplots with violins looks pretty cool as well.</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>[&lt;img alt="enter image description here" src="https://i.stack.imgur.com/kMumq.png"/&gt;, &lt;img alt="enter image description here" src="https://i.stack.imgur.com/t8fuv.png"/&gt;]</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;geom_point&lt;/code&gt;, &lt;code&gt;require(tidyr)
 x$id &amp;lt;- 1:nrow(x)
 x2 &amp;lt;- gather(x, var, value, var1:var3)
-&lt;/code&gt;&lt;/pre&gt;
-&lt;h1&gt;Boxplots&lt;/h1&gt;
-&lt;pre&gt;&lt;code&gt;ggplot(x2, aes(var, value)) + 
+&lt;/code&gt;, &lt;code&gt;ggplot(x2, aes(var, value)) + 
   geom_line(aes(group = id), size = 0.05, alpha = 0.3) + 
   geom_boxplot(aes(fill = var), alpha = 0.5) + 
   facet_grid(set ~ type) +
   theme_bw()
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;a href="https://i.stack.imgur.com/kMumq.png" rel="nofollow noreferrer"&gt;&lt;img src="https://i.stack.imgur.com/kMumq.png" alt="enter image description here"&gt;&lt;/a&gt;&lt;/p&gt;
-&lt;h1&gt;Or perhaps violins&lt;/h1&gt;
-&lt;p&gt;Replacing the boxplots with violins looks pretty cool as well.&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;ggplot(x2, aes(var, value)) + 
+&lt;/code&gt;, &lt;code&gt;ggplot(x2, aes(var, value)) + 
   geom_line(aes(group = id), size = 0.05, alpha = 0.3) + 
   geom_violin(aes(fill = var), col = NA, alpha = 0.6) +
   facet_grid(set ~ type) +
   theme_bw()
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;a href="https://i.stack.imgur.com/t8fuv.png" rel="nofollow noreferrer"&gt;&lt;img src="https://i.stack.imgur.com/t8fuv.png" alt="enter image description here"&gt;&lt;/a&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> You need to put data in long format first. I didn't put in points, since the graph is already cluttered enough, but you can do so by adding a . Boxplots Or perhaps violins Replacing the boxplots with violins looks pretty cool as well.</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -5491,8 +5402,17 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Solved by custom class &lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;public class MyXAxisValueFormatter implements IAxisValueFormatter {
+          <t xml:space="preserve"> Solved by custom class In display graph function Since my requirement was values in reverse order so inverse function is used in above class. Inverse function;</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;public class MyXAxisValueFormatter implements IAxisValueFormatter {
     private List mValues;
     private List&amp;lt;?&amp;gt;  reverse_mValues;
     public MyXAxisValueFormatter(List values) {
@@ -5513,9 +5433,7 @@
     @Override
     public int getDecimalDigits() { return 0; }
 }
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;In display graph function&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;XAxis xl = myChart.getXAxis();
+&lt;/code&gt;, &lt;code&gt;XAxis xl = myChart.getXAxis();
         xl.setPosition(XAxis.XAxisPosition.BOTTOM);
         xl.setDrawAxisLine(true);
         xl.setDrawGridLines(false);
@@ -5528,13 +5446,7 @@
         if (mlxaxisArray.size()!=0){
             xl.setValueFormatter(new MyXAxisValueFormatter(mlxaxisArray));
 }
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Since my requirement was values in reverse order so inverse function is used in above class. Inverse function; &lt;code&gt;Collections.reverse(reverse_mValues);&lt;/code&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Solved by custom class In display graph function Since my requirement was values in reverse order so inverse function is used in above class. Inverse function;</t>
+&lt;/code&gt;, &lt;code&gt;Collections.reverse(reverse_mValues);&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -5605,24 +5517,27 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Here's a solution using the &lt;strong&gt;grid&lt;/strong&gt; function&lt;code&gt;grid.raster&lt;/code&gt; and &lt;code&gt;xyplot&lt;/code&gt; from &lt;strong&gt;lattice&lt;/strong&gt;. 
-I think that &lt;code&gt;grid.raster&lt;/code&gt; has faster
-rendering to screen, so it is a good candidate  for performance. I am choosing lattice because it integrate easier the grid function using the panel customization.&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://i.stack.imgur.com/bES57.png" alt="enter image description here"&gt;&lt;/p&gt;
-&lt;p&gt;First I read all the png, using &lt;code&gt;readPNG&lt;/code&gt; from &lt;code&gt;png&lt;/code&gt; package ( similar to your solution)&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;ll &amp;lt;- list.files(path='c:/temp',patt='compo[0-9].*',full.names=T)
+          <t xml:space="preserve"> Here's a solution using the grid function and from lattice . 
+I think that has faster
+rendering to screen, so it is a good candidate  for performance. I am choosing lattice because it integrate easier the grid function using the panel customization. First I read all the png, using from package ( similar to your solution) Then I prepare data for scatter plot: Finaly I use with a custom panel function: PS: it is what I call a catty solution.</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>[&lt;img alt="enter image description here" src="https://i.stack.imgur.com/bES57.png"/&gt;]</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;grid.raster&lt;/code&gt;, &lt;code&gt;xyplot&lt;/code&gt;, &lt;code&gt;grid.raster&lt;/code&gt;, &lt;code&gt;readPNG&lt;/code&gt;, &lt;code&gt;png&lt;/code&gt;, &lt;code&gt;ll &amp;lt;- list.files(path='c:/temp',patt='compo[0-9].*',full.names=T)
 library(png)
 imgs &amp;lt;- lapply(ll,function(x){
        as.raster(readPNG(x))  ## no need to convert to a matrix here!
    })
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Then I prepare data for scatter plot:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;x = 1:4   ## here 4 because I use  16 plots
+&lt;/code&gt;, &lt;code&gt;x = 1:4   ## here 4 because I use  16 plots
 y = 1:4
 dat &amp;lt;- expand.grid(x,y)
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Finaly I use &lt;code&gt;xyplot&lt;/code&gt; with a custom panel function:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;library(lattice)
+&lt;/code&gt;, &lt;code&gt;xyplot&lt;/code&gt;, &lt;code&gt;library(lattice)
 library(grid)
 xyplot(Var2~Var1|rownames(dat),data=dat,layout=c(4,4),
       panel=function(x,y,...){
@@ -5631,15 +5546,7 @@
                                       width =diff(lims$xlim),
                                           height=diff(lims$ylim),def='native' )
        })
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;PS: it is what I call a &lt;strong&gt;catty&lt;/strong&gt; solution.&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Here's a solution using the grid function and from lattice . 
-I think that has faster
-rendering to screen, so it is a good candidate  for performance. I am choosing lattice because it integrate easier the grid function using the panel customization. First I read all the png, using from package ( similar to your solution) Then I prepare data for scatter plot: Finaly I use with a custom panel function: PS: it is what I call a catty solution.</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -5759,9 +5666,17 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Here's one approach, using &lt;a href="http://pandas.pydata.org/pandas-docs/stable/generated/pandas.melt.html" rel="nofollow noreferrer"&gt;&lt;code&gt;melt&lt;/code&gt;&lt;/a&gt; and &lt;a href="http://matplotlib.org/mpl_toolkits/mplot3d/api.html?highlight=axes3d#module-mpl_toolkits.mplot3d.axes3d" rel="nofollow noreferrer"&gt;&lt;code&gt;Axes3D&lt;/code&gt;&lt;/a&gt;.  &lt;/p&gt;
-&lt;p&gt;First, generate the sample data provided by OP:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;import pandas as pd
+          <t xml:space="preserve"> Here's one approach, using and . First, generate the sample data provided by OP: Now plot all three data frames on one 3D grid: UPDATE re: y-axis as categorical With only two continuous-valued axes, it's generally not necessary (nor recommended) to invoke a 3D plotting surface (see, for example, this similar discussion ).  It's clearer to encode the categorical variable as a labeled dimension. This case is additionally complicated by the sample group levels, which represent a fourth dimension.  I'd suggest considering a panel of plots, with y-axis categories encoded as legends.  Like this: Still, if you really want to keep things in 3D, a scatter plot with the correct view rotation will give you the effect you're looking for. This also circumvents the problem of the y-axis being read as a metric variable, rather than an ordinal one. Note: It's possible to use the class to treat one or more dimensions as categorical, but its cascading approach to multiple points with the same category value may not get you what you're looking for.</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>[&lt;img alt="3d plot" src="https://i.stack.imgur.com/FRBzf.png"/&gt;, &lt;img alt="panel plots" src="https://i.stack.imgur.com/bxHYu.png"/&gt;, &lt;img alt="3d scatter plot" src="https://i.stack.imgur.com/3DSGB.png"/&gt;]</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;melt&lt;/code&gt;, &lt;code&gt;Axes3D&lt;/code&gt;, &lt;code&gt;import pandas as pd
 from matplotlib import pyplot as plt
 from mpl_toolkits.mplot3d import Axes3D
 sample4_z = [1.09734,  1.25772,  1.4181 ,  1.57847,  1.73885,  1.06237,
@@ -5787,9 +5702,7 @@
 sample4 = make_df(sample4_z)
 test5 = make_df(test5_z)
 test6 = make_df(test6_z)
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Now plot all three data frames on one 3D grid:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;# signal to pyplot that we want 3d plots
+&lt;/code&gt;, &lt;code&gt;# signal to pyplot that we want 3d plots
 fig, ax = plt.subplots(1, 1, figsize=(10, 10), subplot_kw={'projection': '3d'})
 # convenience wrapper for plotting function
 def plot_3d(df):
@@ -5805,21 +5718,13 @@
 # optional view configurations
 ax.elev = 10
 ax.axim = 20
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;a href="https://i.stack.imgur.com/FRBzf.png" rel="nofollow noreferrer"&gt;&lt;img src="https://i.stack.imgur.com/FRBzf.png" alt="3d plot"&gt;&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;UPDATE&lt;/strong&gt; re: y-axis as categorical&lt;br&gt;
-With only two continuous-valued axes, it's generally not necessary (nor recommended) to invoke a 3D plotting surface (see, for example, &lt;a href="https://stackoverflow.com/a/24531294/2799941"&gt;this similar discussion&lt;/a&gt;).  It's clearer to encode the categorical variable as a labeled dimension.  &lt;/p&gt;
-&lt;p&gt;This case is additionally complicated by the sample group levels, which represent a fourth dimension.  I'd suggest considering a panel of plots, with y-axis categories encoded as legends.  Like this:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;datasets = ['sample4','test5','test6']
+&lt;/code&gt;, &lt;code&gt;datasets = ['sample4','test5','test6']
 line_types = ['-.','--','-']
 fix, axes = plt.subplots(1,3, figsize=(14,5))
 for i, data in enumerate([sample4, test5, test6]):
     data.set_index('x').plot(style=line_types[i], ax=axes[i], sharey=True, 
                              xticks=data.x, title=datasets[i])
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;a href="https://i.stack.imgur.com/bxHYu.png" rel="nofollow noreferrer"&gt;&lt;img src="https://i.stack.imgur.com/bxHYu.png" alt="panel plots"&gt;&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Still, if you really want to keep things in 3D, a scatter plot with the correct view rotation will give you the effect you're looking for. This also circumvents the problem of the y-axis being read as a metric variable, rather than an ordinal one.  &lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;# scatter plot with categorical y-axis
+&lt;/code&gt;, &lt;code&gt;# scatter plot with categorical y-axis
 def plot_3d(df, color):
     ax.scatter(df.x, df.y, df.z, c=color) # dims must be floats
 # reshape with melt(), then plot
@@ -5833,14 +5738,7 @@
 # optional view configurations
 ax.elev = 10
 ax.azim = 280
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;a href="https://i.stack.imgur.com/3DSGB.png" rel="nofollow noreferrer"&gt;&lt;img src="https://i.stack.imgur.com/3DSGB.png" alt="3d scatter plot"&gt;&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Note: It's possible to use the &lt;a href="http://matplotlib.org/mpl_toolkits/mplot3d/api.html?highlight=axes3d#mpl_toolkits.mplot3d.axes3d.Axes3D.bar3d" rel="nofollow noreferrer"&gt;&lt;code&gt;bar3d&lt;/code&gt;&lt;/a&gt; class to treat one or more dimensions as categorical, but its cascading approach to multiple points with the same category value may not get you what you're looking for.&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Here's one approach, using and . First, generate the sample data provided by OP: Now plot all three data frames on one 3D grid: UPDATE re: y-axis as categorical With only two continuous-valued axes, it's generally not necessary (nor recommended) to invoke a 3D plotting surface (see, for example, this similar discussion ).  It's clearer to encode the categorical variable as a labeled dimension. This case is additionally complicated by the sample group levels, which represent a fourth dimension.  I'd suggest considering a panel of plots, with y-axis categories encoded as legends.  Like this: Still, if you really want to keep things in 3D, a scatter plot with the correct view rotation will give you the effect you're looking for. This also circumvents the problem of the y-axis being read as a metric variable, rather than an ordinal one. Note: It's possible to use the class to treat one or more dimensions as categorical, but its cascading approach to multiple points with the same category value may not get you what you're looking for.</t>
+&lt;/code&gt;, &lt;code&gt;bar3d&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -5917,14 +5815,17 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>&lt;p&gt;There are several moving pieces to this question:&lt;/p&gt;
-&lt;ol&gt;
-&lt;li&gt;How to vectorize text to data that kmeans clustering can understand&lt;/li&gt;
-&lt;li&gt;How to plot clusters in two dimensional space&lt;/li&gt;
-&lt;li&gt;How to label plots by source sentence&lt;/li&gt;
-&lt;/ol&gt;
-&lt;p&gt;My solution follows a very common approach, which is to use the kmeans labels as colors for the scatter plot. (The kmeans values after fitting are just 0,1,2,3, and 4, indicating which arbitrary group each sentence was assigned to. The output is in the same order as the original samples.) Regarding how to get the points into two dimensional space, I use Principal Component Analysis (PCA). Note that I perform kmeans clustering on the full data, not the dimension-reduced output. I then use matplotlib's ax.annotate() to decorate my plot with the original sentences. (I also make the graph bigger so there's space between the points.) I can comment this further upon request.&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;import pandas as pd
+          <t xml:space="preserve"> There are several moving pieces to this question: How to vectorize text to data that kmeans clustering can understand How to plot clusters in two dimensional space How to label plots by source sentence My solution follows a very common approach, which is to use the kmeans labels as colors for the scatter plot. (The kmeans values after fitting are just 0,1,2,3, and 4, indicating which arbitrary group each sentence was assigned to. The output is in the same order as the original samples.) Regarding how to get the points into two dimensional space, I use Principal Component Analysis (PCA). Note that I perform kmeans clustering on the full data, not the dimension-reduced output. I then use matplotlib's ax.annotate() to decorate my plot with the original sentences. (I also make the graph bigger so there's space between the points.) I can comment this further upon request.</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>[&lt;img alt="enter image description here" src="https://i.stack.imgur.com/UDIP8.png"/&gt;]</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;import pandas as pd
 import re
 from sklearn.decomposition import PCA
 from sklearn.feature_extraction.text import CountVectorizer
@@ -5949,13 +5850,7 @@
 ax.scatter(x_axis, y_axis, c=[colors[d] for d in kmean_indices])
 for i, txt in enumerate(x):
     ax.annotate(txt, (x_axis[i], y_axis[i]))
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;a href="https://i.stack.imgur.com/UDIP8.png" rel="noreferrer"&gt;&lt;img src="https://i.stack.imgur.com/UDIP8.png" alt="enter image description here"&gt;&lt;/a&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> There are several moving pieces to this question: How to vectorize text to data that kmeans clustering can understand How to plot clusters in two dimensional space How to label plots by source sentence My solution follows a very common approach, which is to use the kmeans labels as colors for the scatter plot. (The kmeans values after fitting are just 0,1,2,3, and 4, indicating which arbitrary group each sentence was assigned to. The output is in the same order as the original samples.) Regarding how to get the points into two dimensional space, I use Principal Component Analysis (PCA). Note that I perform kmeans clustering on the full data, not the dimension-reduced output. I then use matplotlib's ax.annotate() to decorate my plot with the original sentences. (I also make the graph bigger so there's space between the points.) I can comment this further upon request.</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -6019,10 +5914,17 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>&lt;p&gt;What you want to do is add &lt;code&gt;'markerfacecolor','b'&lt;/code&gt; to the options, but by some reason, Matlab removed this option of the &lt;code&gt;scatterhist&lt;/code&gt;. &lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;You can do it by hand&lt;/strong&gt;, changing the graph properties after you plotted. &lt;code&gt;markerfacecolor&lt;/code&gt; options appears when you select the axis with the scatter and using the options &gt;Edit &gt;Figure properties.&lt;/p&gt;
-&lt;p&gt;&lt;strong&gt;Or you can use the following commands&lt;/strong&gt;: &lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;scatterhist(log(rand(1,100)),log(rand(1,100)),'Marker','o','Direction','out');
+          <t xml:space="preserve"> What you want to do is add to the options, but by some reason, Matlab removed this option of the . You can do it by hand , changing the graph properties after you plotted. options appears when you select the axis with the scatter and using the options &gt;Edit &gt;Figure properties. Or you can use the following commands : I set the color as black, you can set in whatever color you want. The transparency in a scatter plot is set by and (0.2 is the ratio in this case). However it does not work for the scatterhist (at least until Matlab 2017a). If you need the transparency, better to use the scatter and histograms using subplot. It is more time consuming but shall do the job.</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;'markerfacecolor','b'&lt;/code&gt;, &lt;code&gt;scatterhist&lt;/code&gt;, &lt;code&gt;markerfacecolor&lt;/code&gt;, &lt;code&gt;scatterhist(log(rand(1,100)),log(rand(1,100)),'Marker','o','Direction','out');
 x=get(gca,'children')
 x = 
   Line with properties:
@@ -6037,14 +5939,7 @@
               ZData: [1x0 double]
   Show all properties
  set(x,'markerfacecolor','k')
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;I set the color as black, you can set in whatever color you want.&lt;/p&gt;
-&lt;p&gt;The transparency in a scatter plot is set by &lt;code&gt;'markerfacealpha',0.2&lt;/code&gt; and &lt;code&gt;'markeredgealpha',0.2&lt;/code&gt; (0.2 is the ratio in this case). However it does not work for the scatterhist (at least until Matlab 2017a). If you need the transparency, better to use the scatter and histograms using subplot. It is more time consuming but shall do the job.&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> What you want to do is add to the options, but by some reason, Matlab removed this option of the . You can do it by hand , changing the graph properties after you plotted. options appears when you select the axis with the scatter and using the options &gt;Edit &gt;Figure properties. Or you can use the following commands : I set the color as black, you can set in whatever color you want. The transparency in a scatter plot is set by and (0.2 is the ratio in this case). However it does not work for the scatterhist (at least until Matlab 2017a). If you need the transparency, better to use the scatter and histograms using subplot. It is more time consuming but shall do the job.</t>
+&lt;/code&gt;, &lt;code&gt;'markerfacealpha',0.2&lt;/code&gt;, &lt;code&gt;'markeredgealpha',0.2&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -6098,22 +5993,22 @@
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>&lt;p&gt;When you provided data to the scatter plot, you used the &lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;-(NSNumber *)numberForPlot:(CPPlot *)plot field:(NSUInteger)fieldEnum recordIndex:(NSUInteger)index 
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;delegate method (or something like that).  Part of the information it queried was the recordIndex, which is usually used as an index into an NSArray of your data points.&lt;/p&gt;
-&lt;p&gt;The delegate method you show there gives you back an index to indicate that a point on the scatter plot was interacted with.  You should be able to grab the X, Y coordinate that corresponds to that index in your data source array and use&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;double doublePrecisionPlotPoint[2];
+          <t xml:space="preserve"> When you provided data to the scatter plot, you used the delegate method (or something like that).  Part of the information it queried was the recordIndex, which is usually used as an index into an NSArray of your data points. The delegate method you show there gives you back an index to indicate that a point on the scatter plot was interacted with.  You should be able to grab the X, Y coordinate that corresponds to that index in your data source array and use to obtain the view coordinate in the graph that corresponds to the data point location that was touched.  From there, you can do coordinate space conversions to get the appropriate location to place your annotation.</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;-(NSNumber *)numberForPlot:(CPPlot *)plot field:(NSUInteger)fieldEnum recordIndex:(NSUInteger)index 
+&lt;/code&gt;, &lt;code&gt;double doublePrecisionPlotPoint[2];
 doublePrecisionPlotPoint[CPCoordinateX] = [xValue doubleValue];
 doublePrecisionPlotPoint[CPCoordinateY] = [yValue doubleValue];
 CGPoint viewPoint = [graph.defaultPlotSpace plotAreaViewPointForDoublePrecisionPlotPoint:doublePrecisionPlotPoint];
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;to obtain the view coordinate in the graph that corresponds to the data point location that was touched.  From there, you can do coordinate space conversions to get the appropriate location to place your annotation.&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> When you provided data to the scatter plot, you used the delegate method (or something like that).  Part of the information it queried was the recordIndex, which is usually used as an index into an NSArray of your data points. The delegate method you show there gives you back an index to indicate that a point on the scatter plot was interacted with.  You should be able to grab the X, Y coordinate that corresponds to that index in your data source array and use to obtain the view coordinate in the graph that corresponds to the data point location that was touched.  From there, you can do coordinate space conversions to get the appropriate location to place your annotation.</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -6170,25 +6065,25 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>&lt;p&gt;You could replace&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;var vals= [ d1, d2, d3];
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;with&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;var vals = [];
+          <t xml:space="preserve"> You could replace with So only not-empty arrays are added to the plot data. Btw: You overwrite d1, d2, d3 with the forth to sixth call. Is that what you want to do? You could then do without the first three calls since they do nothing for you.</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;var vals= [ d1, d2, d3];
+&lt;/code&gt;, &lt;code&gt;var vals = [];
 if (d1 != [])
     vals.push(d1);
 if (d2 != [])
     vals.push(d2);
 if (d3 != [])
     vals.push(d3);
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;So only not-empty arrays are added to the plot data.&lt;/p&gt;
-&lt;p&gt;Btw: You overwrite d1, d2, d3 with the forth to sixth &lt;code&gt;getJSON&lt;/code&gt; call. Is that what you want to do? You could then do without the first three &lt;code&gt;getJSON&lt;/code&gt; calls since they do nothing for you.&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> You could replace with So only not-empty arrays are added to the plot data. Btw: You overwrite d1, d2, d3 with the forth to sixth call. Is that what you want to do? You could then do without the first three calls since they do nothing for you.</t>
+&lt;/code&gt;, &lt;code&gt;getJSON&lt;/code&gt;, &lt;code&gt;getJSON&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -6254,21 +6149,20 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>&lt;blockquote&gt;
-  &lt;p&gt;I plot the data contained in that table mentioned above. How do I save the plot (eg: plot.savePDF("plot.pdf")) to a PDF file?&lt;/p&gt;
-&lt;/blockquote&gt;
-&lt;pre&gt;&lt;code&gt; pdf("filename.pdf")
+          <t xml:space="preserve"> I plot the data contained in that table mentioned above. How do I save the plot (eg: plot.savePDF("plot.pdf")) to a PDF file? How could I redirect the output of, for example, cor(detailsTable$a, detailsTable$b) to a file? and how do I write a simple string to a file. eg: "Correlation of the data: " + cor(...) check the manual page ( ) How do I plot the line of best fit on an existing plot?</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt; pdf("filename.pdf")
  plot(...)
  dev.off()
-&lt;/code&gt;&lt;/pre&gt;
-&lt;blockquote&gt;
-  &lt;p&gt;How could I redirect the output of, for example, cor(detailsTable$a, detailsTable$b) to a file? and how do I write a simple string to a file. eg: "Correlation of the data: " + cor(...)&lt;/p&gt;
-&lt;/blockquote&gt;
-&lt;p&gt;check the &lt;code&gt;write.table&lt;/code&gt; manual page (&lt;code&gt;?write.table&lt;/code&gt;)&lt;/p&gt;
-&lt;blockquote&gt;
-  &lt;p&gt;How do I plot the line of best fit on an existing plot?&lt;/p&gt;
-&lt;/blockquote&gt;
-&lt;pre&gt;&lt;code&gt;x &amp;lt;- 1:10
+&lt;/code&gt;, &lt;code&gt;write.table&lt;/code&gt;, &lt;code&gt;?write.table&lt;/code&gt;, &lt;code&gt;x &amp;lt;- 1:10
 y &amp;lt;- 2 * x + runif(10) 
 plot (x, y, pch=20)
 fit &amp;lt;- glm(y~x)
@@ -6276,12 +6170,7 @@
 abline(coefs, lwd=2, col='red')
 # Or also, without finding the coefficients
 abline(fit, lwd=2, col='red')
-&lt;/code&gt;&lt;/pre&gt;</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> I plot the data contained in that table mentioned above. How do I save the plot (eg: plot.savePDF("plot.pdf")) to a PDF file? How could I redirect the output of, for example, cor(detailsTable$a, detailsTable$b) to a file? and how do I write a simple string to a file. eg: "Correlation of the data: " + cor(...) check the manual page ( ) How do I plot the line of best fit on an existing plot?</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -6334,21 +6223,22 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;strong&gt;&lt;a href="https://www.mathworks.com/help/matlab/creating_plots/create-line-plot-with-markers.html" rel="nofollow noreferrer"&gt;&lt;em&gt;&lt;code&gt;MarkerIndices&lt;/code&gt;&lt;/em&gt;&lt;/a&gt;&lt;/strong&gt; became available in &lt;em&gt;R2016b&lt;/em&gt; version.&lt;/p&gt;
-&lt;p&gt;The workaround is plotting two times:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;MarkerIndices = [1, 5, 10];
+          <t xml:space="preserve"> became available in R2016b version. The workaround is plotting two times: This should work. I commented that this is in reference to a post on MathWorks Community. Will provide a link if found it. P.S. This is the LINK to the answer;</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;MarkerIndices&lt;/code&gt;, &lt;code&gt;MarkerIndices = [1, 5, 10];
 myplot = plot(x, y, 'b-.');
 hold on;                 
 mymarkers = plot(x(MarkerIndices), y(MarkerIndices), 'ro');    
 legend(myplot)
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;This should work. I commented that this is in reference to a post on MathWorks Community. Will provide a link if found it.&lt;/p&gt;
-&lt;p&gt;P.S. This is the &lt;strong&gt;&lt;a href="https://www.mathworks.com/matlabcentral/answers/119402-how-to-set-a-marker-at-one-specific-point-on-a-plot-look-at-the-picture" rel="nofollow noreferrer"&gt;LINK&lt;/a&gt;&lt;/strong&gt; to the answer;&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> became available in R2016b version. The workaround is plotting two times: This should work. I commented that this is in reference to a post on MathWorks Community. Will provide a link if found it. P.S. This is the LINK to the answer;</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -6401,21 +6291,20 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>&lt;p&gt;If you'd like to keep the values of your &lt;code&gt;final4Average&lt;/code&gt; the same, you could try something like this, to plot the dataset with a new array:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;final4AverageModified = [x/1000000 for x in final4Average]
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;And you could edit your dataset to make it like this:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;finalDatasetModified =[finalAverage, final4AverageModified]
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;And then, finally, make the plot-graphing call to make it like this:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;rects1=plt.bar(ind, finalDatasetModified, width, color='blue')
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;This way, you can keep your original data in &lt;code&gt;final4Average&lt;/code&gt; and keep the new data in &lt;code&gt;final4AverageModified&lt;/code&gt;. This just divides your data before plotting.&lt;/p&gt;</t>
+          <t xml:space="preserve"> If you'd like to keep the values of your the same, you could try something like this, to plot the dataset with a new array: And you could edit your dataset to make it like this: And then, finally, make the plot-graphing call to make it like this: This way, you can keep your original data in and keep the new data in . This just divides your data before plotting.</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> If you'd like to keep the values of your the same, you could try something like this, to plot the dataset with a new array: And you could edit your dataset to make it like this: And then, finally, make the plot-graphing call to make it like this: This way, you can keep your original data in and keep the new data in . This just divides your data before plotting.</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;final4Average&lt;/code&gt;, &lt;code&gt;final4AverageModified = [x/1000000 for x in final4Average]
+&lt;/code&gt;, &lt;code&gt;finalDatasetModified =[finalAverage, final4AverageModified]
+&lt;/code&gt;, &lt;code&gt;rects1=plt.bar(ind, finalDatasetModified, width, color='blue')
+&lt;/code&gt;, &lt;code&gt;final4Average&lt;/code&gt;, &lt;code&gt;final4AverageModified&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -6477,9 +6366,17 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>&lt;p&gt;To plot this I start with finding the first non zero element in each column for all datasets, and then sum them up to plot the lines on top of each other.&lt;br&gt;
-Finally, I multiply the axis by the conversion constant you gave (&lt;code&gt;raitio&lt;/code&gt; below) and change the format to meet your requested style:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;data = reshape(cell2mat(data1),297,258,[]);
+          <t xml:space="preserve"> To plot this I start with finding the first non zero element in each column for all datasets, and then sum them up to plot the lines on top of each other. Finally, I multiply the axis by the conversion constant you gave ( below) and change the format to meet your requested style: And the result is:</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>[&lt;img alt="trace figure" src="https://i.stack.imgur.com/Mh8AO.png"/&gt;]</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;raitio&lt;/code&gt;, &lt;code&gt;data = reshape(cell2mat(data1),297,258,[]);
 S = size(data);
 fnzc = zeros(S([1 3])); % first non zero in column
 for k = 1:S(3)
@@ -6493,14 +6390,7 @@
 ax.XAxis.Exponent = -6;
 ax.YAxis.TickLabelFormat = '%2d';
 ax.YAxis.Exponent = -6;
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;And the result is:&lt;/p&gt;
-&lt;p&gt;&lt;a href="https://i.stack.imgur.com/Mh8AO.png" rel="nofollow noreferrer"&gt;&lt;img src="https://i.stack.imgur.com/Mh8AO.png" alt="trace figure"&gt;&lt;/a&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> To plot this I start with finding the first non zero element in each column for all datasets, and then sum them up to plot the lines on top of each other. Finally, I multiply the axis by the conversion constant you gave ( below) and change the format to meet your requested style: And the result is:</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -6565,8 +6455,17 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>&lt;p&gt;As far as I know, there is no way to adjust the spacing between self-imposed groups of bars. However, there is a trick to get the desired affect. All you have to do is trick SSRS. In your query, you'll need to create empty bars with no labels. Without knowing how your query is structured, you can do it something like this:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;Select 'Group 1' as Group_Label --This would be equivalent to your Recursos or Credito Pessoal
+          <t xml:space="preserve"> As far as I know, there is no way to adjust the spacing between self-imposed groups of bars. However, there is a trick to get the desired affect. All you have to do is trick SSRS. In your query, you'll need to create empty bars with no labels. Without knowing how your query is structured, you can do it something like this: What you would get if you set this up is the Group 1 Bar 1 followed by an empty bar (with no labels) followed by Group 2 Bar 1. This puts what the user will see as a definitive space between the groups of bars, but you know is really just an empty set of values. I've used this successfully with Bar charts multiple times. If this isn't making sense to you, create a SQLfiddle example and I can help you tweak your code to make this work.</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;Select 'Group 1' as Group_Label --This would be equivalent to your Recursos or Credito Pessoal
     , 'Bar 1' as Bar_Label --This would be like T-3
     , 10 as Value_1 --This would be like the Red part of the bar
     , 20 as Value_2
@@ -6584,14 +6483,7 @@
     , 0 as Value_2
     , 1.5 as Bar_Sort
 Order by Bar_Sort
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;What you would get if you set this up is the Group 1 Bar 1 followed by an empty bar (with no labels) followed by Group 2 Bar 1. This puts what the user will see as a definitive space between the groups of bars, but you know is really just an empty set of values. I've used this successfully with Bar charts multiple times.&lt;/p&gt;
-&lt;p&gt;If this isn't making sense to you, create a &lt;a href="http://www.sqlfiddle.com/" rel="nofollow"&gt;SQLfiddle&lt;/a&gt; example and I can help you tweak your code to make this work.&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> As far as I know, there is no way to adjust the spacing between self-imposed groups of bars. However, there is a trick to get the desired affect. All you have to do is trick SSRS. In your query, you'll need to create empty bars with no labels. Without knowing how your query is structured, you can do it something like this: What you would get if you set this up is the Group 1 Bar 1 followed by an empty bar (with no labels) followed by Group 2 Bar 1. This puts what the user will see as a definitive space between the groups of bars, but you know is really just an empty set of values. I've used this successfully with Bar charts multiple times. If this isn't making sense to you, create a SQLfiddle example and I can help you tweak your code to make this work.</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -6661,18 +6553,22 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>&lt;p&gt;First, I would suggest file an issue on github page, and provide the sample code using ChartsDemo to reproduce. I tried it, and I do see small overlap, but if the bars are continuing smaller, then value will not be drawn. So the problem is the granularity.&lt;/p&gt;
-&lt;p&gt;Whether to draw text is based on:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;internal func passesCheck() -&amp;gt; Bool
+          <t xml:space="preserve"> First, I would suggest file an issue on github page, and provide the sample code using ChartsDemo to reproduce. I tried it, and I do see small overlap, but if the bars are continuing smaller, then value will not be drawn. So the problem is the granularity. Whether to draw text is based on: If the values are too many, it won't draw; But it seems not enough granularity for you. There are ways to solve it, for example bar chart, you can calculate the text width, and compare it with the bar pixel width to determine draw the text or not. You can override in or if you need to solve it in a hurry. Pie chart is similar. Like:</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;internal func passesCheck() -&amp;gt; Bool
 {
     guard let dataProvider = dataProvider, barData = dataProvider.barData else { return false }
     return CGFloat(barData.yValCount) &amp;lt; CGFloat(dataProvider.maxVisibleValueCount) * viewPortHandler.scaleX
 }
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;If the values are too many, it won't draw; But it seems not enough granularity for you.&lt;/p&gt;
-&lt;p&gt;There are ways to solve it, for example bar chart, you can calculate the text width, and compare it with the bar pixel width to determine draw the text or not. You can override in &lt;code&gt;drawValues&lt;/code&gt; or if you need to solve it in a hurry. Pie chart is similar.&lt;/p&gt;
-&lt;p&gt;Like:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;// calculate bar pixel width
+&lt;/code&gt;, &lt;code&gt;drawValues&lt;/code&gt;, &lt;code&gt;// calculate bar pixel width
 let barWidth: CGFloat = 0.5
 let barSpaceHalf = dataSet.barSpace / 2.0
 let left = 0 - barWidth + barSpaceHalf
@@ -6687,12 +6583,7 @@
 {
     // draw text
 }
-&lt;/code&gt;&lt;/pre&gt;</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> First, I would suggest file an issue on github page, and provide the sample code using ChartsDemo to reproduce. I tried it, and I do see small overlap, but if the bars are continuing smaller, then value will not be drawn. So the problem is the granularity. Whether to draw text is based on: If the values are too many, it won't draw; But it seems not enough granularity for you. There are ways to solve it, for example bar chart, you can calculate the text width, and compare it with the bar pixel width to determine draw the text or not. You can override in or if you need to solve it in a hurry. Pie chart is similar. Like:</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -6761,10 +6652,17 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>&lt;p&gt;After 2 months I've managed to solve my problem.. Well, not exactly, I cannot get the drilldown to work, but managed to make a simple bar chart for all users that have endorsements, users with 0 are not displayed.&lt;/p&gt;
-&lt;p&gt;This is how I did it:&lt;/p&gt;
-&lt;p&gt;In my static pages controller for the statistics page i made something like this:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;def statistics
+          <t xml:space="preserve"> After 2 months I've managed to solve my problem.. Well, not exactly, I cannot get the drilldown to work, but managed to make a simple bar chart for all users that have endorsements, users with 0 are not displayed. This is how I did it: In my static pages controller for the statistics page i made something like this: and in my view for statistics I made this: @data.compact removed the nil values from the hash, resulting in a hash looking like this: And that data resulted in a chart like this: Which is satisfactory. Hope this helps someone one day.</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>[&lt;img alt="enter image description here" src="https://i.stack.imgur.com/3nldM.png"/&gt;]</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;def statistics
     @users = User.all
     @endorsements = Endorsement.all
     @data = @users.map { |user|
@@ -6774,24 +6672,12 @@
               end
             }
   end
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;and in my view for statistics I made this:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;&amp;lt;% provide(:title, "Statistics") %&amp;gt;
+&lt;/code&gt;, &lt;code&gt;&amp;lt;% provide(:title, "Statistics") %&amp;gt;
 &amp;lt;h1&amp;gt;Statistics&amp;lt;/h1&amp;gt;
 &amp;lt;%= pie_chart({"Users" =&amp;gt; @users.count, "Endorsements" =&amp;gt; @endorsements.count}) %&amp;gt;
 &amp;lt;%= column_chart @data.compact, library: {yAxis: {allowDecimals: false}} %&amp;gt;
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;@data.compact removed the nil values from the hash, resulting in a hash looking like this:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;[{:name=&amp;gt;"Jess Corwin", :data=&amp;gt;{"Jess Corwin"=&amp;gt;1}}, {:name=&amp;gt;"Rhiannon Nicolas", :data=&amp;gt;{"Rhiannon Nicolas"=&amp;gt;1}}, {:name=&amp;gt;"Assunta Pfeffer", :data=&amp;gt;{"Assunta Pfeffer"=&amp;gt;2}}, {:name=&amp;gt;"Rafaela Farrell", :data=&amp;gt;{"Rafaela Farrell"=&amp;gt;1}}, {:name=&amp;gt;"Maurine Hettinger", :data=&amp;gt;{"Maurine Hettinger"=&amp;gt;1}}] 
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;And that data resulted in a chart like this:&lt;/p&gt;
-&lt;p&gt;&lt;a href="https://i.stack.imgur.com/3nldM.png" rel="nofollow noreferrer"&gt;&lt;img src="https://i.stack.imgur.com/3nldM.png" alt="enter image description here"&gt;&lt;/a&gt;&lt;/p&gt;
-&lt;p&gt;Which is satisfactory. Hope this helps someone one day.&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> After 2 months I've managed to solve my problem.. Well, not exactly, I cannot get the drilldown to work, but managed to make a simple bar chart for all users that have endorsements, users with 0 are not displayed. This is how I did it: In my static pages controller for the statistics page i made something like this: and in my view for statistics I made this: @data.compact removed the nil values from the hash, resulting in a hash looking like this: And that data resulted in a chart like this: Which is satisfactory. Hope this helps someone one day.</t>
+&lt;/code&gt;, &lt;code&gt;[{:name=&amp;gt;"Jess Corwin", :data=&amp;gt;{"Jess Corwin"=&amp;gt;1}}, {:name=&amp;gt;"Rhiannon Nicolas", :data=&amp;gt;{"Rhiannon Nicolas"=&amp;gt;1}}, {:name=&amp;gt;"Assunta Pfeffer", :data=&amp;gt;{"Assunta Pfeffer"=&amp;gt;2}}, {:name=&amp;gt;"Rafaela Farrell", :data=&amp;gt;{"Rafaela Farrell"=&amp;gt;1}}, {:name=&amp;gt;"Maurine Hettinger", :data=&amp;gt;{"Maurine Hettinger"=&amp;gt;1}}] 
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -6874,19 +6760,17 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>&lt;p&gt;There is no easy way to do exactly the same thing, but you can cheat a bit and get something like this (you can customize as needed for further fine tuning):&lt;/p&gt;
-&lt;p&gt;&lt;img src="https://i.stack.imgur.com/WTljX.png" alt="Sample"&gt;&lt;/p&gt;
-&lt;p&gt;Basically, I make a stacked bar chart with 6 different series.&lt;/p&gt;
-&lt;ol&gt;
-&lt;li&gt;Dummy (transparent) series&lt;/li&gt;
-&lt;li&gt;Black Lines (so the error bars appear properly)&lt;/li&gt;
-&lt;li&gt;(and 4, 5, 6) Grey, Red, Yellow, Green for the ranges&lt;/li&gt;
-&lt;/ol&gt;
-&lt;p&gt;The Dummy series is transparent, and sets how far up the chart the first bar appears. The black lines series is always 0, and has error bars on it that go from 0 to 100 (the interval columns below). The others represent the data.&lt;/p&gt;
-&lt;p&gt;This is a bit complex to do by hand, but you can create a javascript function to appropriately distribute the numbers to the various series given a single value. I just put in arbitrary values.&lt;/p&gt;
-&lt;p&gt;Colors and transparency can be optimized, as can the 'height' of each bar to make it look similar. The axes base lines, and the grid lines can be hidden to make it look better. The legend can also be hidden. I didn't do those figuring you'll fiddle with the code anyhow.&lt;/p&gt;
-&lt;p&gt;Here is the code:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;function drawVisualization() {
+          <t xml:space="preserve"> There is no easy way to do exactly the same thing, but you can cheat a bit and get something like this (you can customize as needed for further fine tuning): Basically, I make a stacked bar chart with 6 different series. Dummy (transparent) series Black Lines (so the error bars appear properly) (and 4, 5, 6) Grey, Red, Yellow, Green for the ranges The Dummy series is transparent, and sets how far up the chart the first bar appears. The black lines series is always 0, and has error bars on it that go from 0 to 100 (the interval columns below). The others represent the data. This is a bit complex to do by hand, but you can create a javascript function to appropriately distribute the numbers to the various series given a single value. I just put in arbitrary values. Colors and transparency can be optimized, as can the 'height' of each bar to make it look similar. The axes base lines, and the grid lines can be hidden to make it look better. The legend can also be hidden. I didn't do those figuring you'll fiddle with the code anyhow. Here is the code:</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>[&lt;img alt="Sample" src="https://i.stack.imgur.com/WTljX.png"/&gt;]</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;function drawVisualization() {
   // Create and populate the data table.
   var data = new google.visualization.DataTable();
   data.addColumn('string', 'Label');
@@ -6913,12 +6797,7 @@
            }
       );
 }
-&lt;/code&gt;&lt;/pre&gt;</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> There is no easy way to do exactly the same thing, but you can cheat a bit and get something like this (you can customize as needed for further fine tuning): Basically, I make a stacked bar chart with 6 different series. Dummy (transparent) series Black Lines (so the error bars appear properly) (and 4, 5, 6) Grey, Red, Yellow, Green for the ranges The Dummy series is transparent, and sets how far up the chart the first bar appears. The black lines series is always 0, and has error bars on it that go from 0 to 100 (the interval columns below). The others represent the data. This is a bit complex to do by hand, but you can create a javascript function to appropriately distribute the numbers to the various series given a single value. I just put in arbitrary values. Colors and transparency can be optimized, as can the 'height' of each bar to make it look similar. The axes base lines, and the grid lines can be hidden to make it look better. The legend can also be hidden. I didn't do those figuring you'll fiddle with the code anyhow. Here is the code:</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -6968,18 +6847,20 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>&lt;p&gt;I figured it out myself instead of using a bar chart i used a scatter plot with step graph That did the trick :&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;Plot.interpolation = CPTScatterPlotInterpolationStepped;
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;and filled the plot with:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;Plot.areaFill = [CPTFill fillWithColor:[CPTColor blueColor]];
+          <t xml:space="preserve"> I figured it out myself instead of using a bar chart i used a scatter plot with step graph That did the trick : and filled the plot with:</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;Plot.interpolation = CPTScatterPlotInterpolationStepped;
+&lt;/code&gt;, &lt;code&gt;Plot.areaFill = [CPTFill fillWithColor:[CPTColor blueColor]];
 Plot.areaBaseValue = CPTDecimalFromInteger(0);
-&lt;/code&gt;&lt;/pre&gt;</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> I figured it out myself instead of using a bar chart i used a scatter plot with step graph That did the trick : and filled the plot with:</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -7029,18 +6910,17 @@
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Your code properly displays a legend, with Matplotlib 1.1 on Mac OS X, provided that:&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;Matplotlib is put in interactive mode at the beginning: &lt;code&gt;plt.ion()&lt;/code&gt;&lt;/li&gt;
-&lt;li&gt;The code ends with &lt;code&gt;plt.show()&lt;/code&gt;, for instance.&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;Upgrading Matplotlib might also help.&lt;/p&gt;
-&lt;p&gt;A last possible solution would be to indeed plot each line separately with its own label: &lt;code&gt;plt.plot(&amp;lt;single line data&amp;gt;, label='Construction')&lt;/code&gt;, etc., and the plot the legend with &lt;code&gt;plt.legend(loc='best')&lt;/code&gt;.&lt;/p&gt;</t>
+          <t xml:space="preserve"> Your code properly displays a legend, with Matplotlib 1.1 on Mac OS X, provided that: Matplotlib is put in interactive mode at the beginning: The code ends with , for instance. Upgrading Matplotlib might also help. A last possible solution would be to indeed plot each line separately with its own label: , etc., and the plot the legend with .</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Your code properly displays a legend, with Matplotlib 1.1 on Mac OS X, provided that: Matplotlib is put in interactive mode at the beginning: The code ends with , for instance. Upgrading Matplotlib might also help. A last possible solution would be to indeed plot each line separately with its own label: , etc., and the plot the legend with .</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;plt.ion()&lt;/code&gt;, &lt;code&gt;plt.show()&lt;/code&gt;, &lt;code&gt;plt.plot(&amp;lt;single line data&amp;gt;, label='Construction')&lt;/code&gt;, &lt;code&gt;plt.legend(loc='best')&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -7085,13 +6965,17 @@
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>&lt;p&gt;You are specifically asking matplotlib not to keep the axes the same size by calling &lt;code&gt;plt.tight_layout()&lt;/code&gt;. &lt;/p&gt;
-&lt;p&gt;Remove &lt;code&gt;plt.tight_layout()&lt;/code&gt; and your axes should keep the same size, independent on whether there are labels or not.&lt;/p&gt;</t>
+          <t xml:space="preserve"> You are specifically asking matplotlib not to keep the axes the same size by calling . Remove and your axes should keep the same size, independent on whether there are labels or not.</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> You are specifically asking matplotlib not to keep the axes the same size by calling . Remove and your axes should keep the same size, independent on whether there are labels or not.</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;plt.tight_layout()&lt;/code&gt;, &lt;code&gt;plt.tight_layout()&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -7135,12 +7019,17 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>&lt;p&gt;I just had to do plt.show(), it seems the figure gets embedded to matplotlib's main grid. &lt;/p&gt;</t>
+          <t xml:space="preserve"> I just had to do plt.show(), it seems the figure gets embedded to matplotlib's main grid.</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I just had to do plt.show(), it seems the figure gets embedded to matplotlib's main grid.</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -7271,9 +7160,17 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Let me know if this makes sense to you. I put this example together, it is not the prettiest. I think the key is to use the plot_time(ars...) to tell matplotlib to look for numbers and format correctly.&lt;/p&gt;
-&lt;p&gt;Using python[2.7.2], matplotlib, numpy:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;import numpy as np
+          <t xml:space="preserve"> Let me know if this makes sense to you. I put this example together, it is not the prettiest. I think the key is to use the plot_time(ars...) to tell matplotlib to look for numbers and format correctly. Using python[2.7.2], matplotlib, numpy: Produces: Update: I just found your other post with the code I guess you are working on. Try replacing With Now you can pass timestamps to matplotlib so instead of Try doing something along the lines of with the appropriate imports and variable initialization</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>[&lt;img alt="code output" src="https://i.stack.imgur.com/C6rY7.png"/&gt;]</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;import numpy as np
 from matplotlib import pyplot as plt
 import random, sys
 from datetime import datetime, timedelta
@@ -7309,19 +7206,9 @@
     fig.canvas.draw()
     #pause the loop for .5 seconds
     time.sleep(0.5)
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;strong&gt;Produces:&lt;/strong&gt;
-&lt;img src="https://i.stack.imgur.com/C6rY7.png" alt="code output"&gt;&lt;/p&gt;
-&lt;h2&gt;Update:&lt;/h2&gt;
-&lt;p&gt;I just found your other &lt;a href="https://stackoverflow.com/questions/11960339/add-date-time-to-real-time-matplotlib-plot"&gt;post&lt;/a&gt; with the code I guess you are working on.&lt;/p&gt;
-&lt;p&gt;Try replacing&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;self.l_user, = self.ax.plot([],self.user, label='Total %')
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;With&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;self.l_user, = self.ax.plot_date([],self.user, label='Total %')
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Now you can pass timestamps to matplotlib so instead of&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;def timerEvent(self, evt):
+&lt;/code&gt;, &lt;code&gt;self.l_user, = self.ax.plot([],self.user, label='Total %')
+&lt;/code&gt;, &lt;code&gt;self.l_user, = self.ax.plot_date([],self.user, label='Total %')
+&lt;/code&gt;, &lt;code&gt;def timerEvent(self, evt):
         # get the cpu percentage usage
         result = self.get_cpu_usage()
         # append new data to the datasets
@@ -7332,9 +7219,7 @@
         self.fig.canvas.draw()
            #else, we increment the counter
         self.cnt += 1
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Try doing something along the lines of&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;def timerEvent(self, evt):
+&lt;/code&gt;, &lt;code&gt;def timerEvent(self, evt):
         # get the cpu percentage usage
         result = self.get_cpu_usage()
         # append new data to the datasets
@@ -7349,21 +7234,14 @@
         self.fig.canvas.draw()
            #else, we increment the counter
         self.cnt += 1
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;with the appropriate imports and variable initialization&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;from datetime import datetime, timedelta
+&lt;/code&gt;, &lt;code&gt;from datetime import datetime, timedelta
 class CPUMonitor(FigureCanvas):
     """Matplotlib Figure widget to display CPU utilization"""
     def __init__(self):
         ...
         self.timeStamp=[]
         ...
-&lt;/code&gt;&lt;/pre&gt;</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Let me know if this makes sense to you. I put this example together, it is not the prettiest. I think the key is to use the plot_time(ars...) to tell matplotlib to look for numbers and format correctly. Using python[2.7.2], matplotlib, numpy: Produces: Update: I just found your other post with the code I guess you are working on. Try replacing With Now you can pass timestamps to matplotlib so instead of Try doing something along the lines of with the appropriate imports and variable initialization</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -7411,16 +7289,17 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>&lt;p&gt;I've found that Inkscape does this when you import a bar graph which has a shading type that is not the same as any of the preset Inkscape patterns. I've seen this exact issue when I've imported graphs from R programing language and excel so I don't think it's specific to Matplotlib. I don't know the root cause, however, since I experience this problem a lot I'll share the workaround options I typically employ when I get this issue. One is not necessarily better than another and it depends on the situation which I use.&lt;/p&gt;
-&lt;p&gt;Option 1) Convert the PDF to a .png bitmap image in some other program, (Gimp, Photoshop, Powerpoint....) then embed the image in Inkscape. Make your changes then export from Inkscape as a PDF. This has the disadvantage that the graph will no longer be a vector map. Use option 2 or 3 to keep it a vector map.&lt;/p&gt;
-&lt;p&gt;Option 2) Import the pdf into Inkscape, ungroup the pdf object, delete the stripped filling in the bar graph, then recreate the filling using an Inkscape made fill. In the worst cases I've actually made custom bar graph patterns in Inkscape to exactly match the pattern that I had before. This process is a pain.  &lt;/p&gt;
-&lt;p&gt;Option 3) Create shapes that cover over the artifacts, remove border lines from the shapes and use the eye dropper to make them exactly the same color as the good parts.  &lt;/p&gt;
-&lt;p&gt;Like I said these are not an academic understanding of the problem to avoid the problem but I hope it can help you accomplish your task.&lt;/p&gt;</t>
+          <t xml:space="preserve"> I've found that Inkscape does this when you import a bar graph which has a shading type that is not the same as any of the preset Inkscape patterns. I've seen this exact issue when I've imported graphs from R programing language and excel so I don't think it's specific to Matplotlib. I don't know the root cause, however, since I experience this problem a lot I'll share the workaround options I typically employ when I get this issue. One is not necessarily better than another and it depends on the situation which I use. Option 1) Convert the PDF to a .png bitmap image in some other program, (Gimp, Photoshop, Powerpoint....) then embed the image in Inkscape. Make your changes then export from Inkscape as a PDF. This has the disadvantage that the graph will no longer be a vector map. Use option 2 or 3 to keep it a vector map. Option 2) Import the pdf into Inkscape, ungroup the pdf object, delete the stripped filling in the bar graph, then recreate the filling using an Inkscape made fill. In the worst cases I've actually made custom bar graph patterns in Inkscape to exactly match the pattern that I had before. This process is a pain. Option 3) Create shapes that cover over the artifacts, remove border lines from the shapes and use the eye dropper to make them exactly the same color as the good parts. Like I said these are not an academic understanding of the problem to avoid the problem but I hope it can help you accomplish your task.</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I've found that Inkscape does this when you import a bar graph which has a shading type that is not the same as any of the preset Inkscape patterns. I've seen this exact issue when I've imported graphs from R programing language and excel so I don't think it's specific to Matplotlib. I don't know the root cause, however, since I experience this problem a lot I'll share the workaround options I typically employ when I get this issue. One is not necessarily better than another and it depends on the situation which I use. Option 1) Convert the PDF to a .png bitmap image in some other program, (Gimp, Photoshop, Powerpoint....) then embed the image in Inkscape. Make your changes then export from Inkscape as a PDF. This has the disadvantage that the graph will no longer be a vector map. Use option 2 or 3 to keep it a vector map. Option 2) Import the pdf into Inkscape, ungroup the pdf object, delete the stripped filling in the bar graph, then recreate the filling using an Inkscape made fill. In the worst cases I've actually made custom bar graph patterns in Inkscape to exactly match the pattern that I had before. This process is a pain. Option 3) Create shapes that cover over the artifacts, remove border lines from the shapes and use the eye dropper to make them exactly the same color as the good parts. Like I said these are not an academic understanding of the problem to avoid the problem but I hope it can help you accomplish your task.</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -7481,8 +7360,17 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>&lt;p&gt;This is basically what &lt;code&gt;ggplot2&lt;/code&gt; is for, in my opinion. Here is a recreation of your data, along with a very basic plot.&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;# Recreate your data.
+          <t xml:space="preserve"> This is basically what is for, in my opinion. Here is a recreation of your data, along with a very basic plot. You can get really fancy with colours and layout, but you can use that as something to get you started if you don't know . Here is what a heat map of the same data would look like</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>[&lt;img alt="enter image description here" src="https://i.stack.imgur.com/a81WP.png"/&gt;, &lt;img alt="enter image description here" src="https://i.stack.imgur.com/3uoXW.png"/&gt;]</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;ggplot2&lt;/code&gt;, &lt;code&gt;# Recreate your data.
 data&amp;lt;-c(6,6,4,5,8,9,8,6,3,3,4,5,4,2,1,5,3,3,4,2,4,8,3,1,6,5,4,3,9,8,2,6,8,3,4,5,7,6,2,2,10,9,6,8,9,4,6,7)
 list&amp;lt;-split(data,rep(1:6,each=8))
 names(list)&amp;lt;-paste0('Block',1:6)
@@ -7492,18 +7380,8 @@
 names(dat)&amp;lt;-c('Block','Value')
 dat$brain.section&amp;lt;-rep(1:8,6)
 ggplot(dat,aes(x=brain.section,y=Value,group=Block)) + geom_line() + facet_grid(Block~.)
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;img src="https://i.stack.imgur.com/a81WP.png" alt="enter image description here"&gt;&lt;/p&gt;
-&lt;p&gt;You can get really fancy with colours and layout, but you can use that as something to get you started if you don't know &lt;code&gt;ggplot2&lt;/code&gt;.&lt;/p&gt;
-&lt;p&gt;Here is what a heat map of the same data would look like&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;ggplot(dat,aes(x=brain.section,fill=Value,y=Block)) + geom_tile() 
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;img src="https://i.stack.imgur.com/3uoXW.png" alt="enter image description here"&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> This is basically what is for, in my opinion. Here is a recreation of your data, along with a very basic plot. You can get really fancy with colours and layout, but you can use that as something to get you started if you don't know . Here is what a heat map of the same data would look like</t>
+&lt;/code&gt;, &lt;code&gt;ggplot2&lt;/code&gt;, &lt;code&gt;ggplot(dat,aes(x=brain.section,fill=Value,y=Block)) + geom_tile() 
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -7578,8 +7456,17 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Lasagna plots appear to be exactly heat maps, although the name is cute. Heat maps are plotted very well in other packages. Consider the first example plot in the code pointed out by Carl Witthoft. You can reproduce it in &lt;code&gt;ggplot&lt;/code&gt; like this:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;## Create the data
+          <t xml:space="preserve"> Lasagna plots appear to be exactly heat maps, although the name is cute. Heat maps are plotted very well in other packages. Consider the first example plot in the code pointed out by Carl Witthoft. You can reproduce it in like this: Depending on what you want you can get different types of colouring.</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>[&lt;img alt="enter image description here" src="https://i.stack.imgur.com/eaJvO.png"/&gt;, &lt;img alt="enter image description here" src="https://i.stack.imgur.com/DrrSJ.png"/&gt;, &lt;img alt="enter image description here" src="https://i.stack.imgur.com/HijYp.png"/&gt;]</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;ggplot&lt;/code&gt;, &lt;code&gt;## Create the data
 palette &amp;lt;- brewer.pal(4, "PuOr")[-2]
 ## the matrix containing data for Figure 02a
 H.mat &amp;lt;- matrix(NA, nrow=4, ncol=6)
@@ -7593,28 +7480,16 @@
 colnames(H.mat)&amp;lt;-seq(ncol(H.mat))
 names(dimnames(H.mat))&amp;lt;-c('Subject','Time')
 H.df&amp;lt;-melt(H.mat)
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Depending on what you want you can get different types of colouring.&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;# For continuous values.
+&lt;/code&gt;, &lt;code&gt;# For continuous values.
 ggplot(H.df,aes(x=Time,y=Subject,fill=value)) + geom_tile(colour='black') 
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;img src="https://i.stack.imgur.com/eaJvO.png" alt="enter image description here"&gt;&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;# If you consider the value to be categorical.
+&lt;/code&gt;, &lt;code&gt;# If you consider the value to be categorical.
 ggplot(H.df,aes(x=Time,y=Subject,fill=factor(value))) + 
   geom_tile(colour='black') 
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;img src="https://i.stack.imgur.com/DrrSJ.png" alt="enter image description here"&gt;&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;# If you want those exact colours the author used:
+&lt;/code&gt;, &lt;code&gt;# If you want those exact colours the author used:
 col&amp;lt;-palette[match(ordered(H.df$value),levels(ordered(H.df$value)))]
 ggplot(H.df,aes(x=Time,y=Subject,fill=col)) + 
   geom_tile(colour='black') + scale_fill_identity()
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;&lt;img src="https://i.stack.imgur.com/HijYp.png" alt="enter image description here"&gt;&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Lasagna plots appear to be exactly heat maps, although the name is cute. Heat maps are plotted very well in other packages. Consider the first example plot in the code pointed out by Carl Witthoft. You can reproduce it in like this: Depending on what you want you can get different types of colouring.</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -7659,13 +7534,17 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>&lt;p&gt;I'm having the same problem. One solution is to draw a smaller gradient and scale it up. The results is not pixel perfect, but faster. &lt;/p&gt;
-&lt;p&gt;See also the ideas mentioned in &lt;a href="https://stackoverflow.com/questions/3912236/radial-gradient-draw-performance-can-opengl-es-improve/3994234#3994234"&gt;this answer&lt;/a&gt;.&lt;/p&gt;</t>
+          <t xml:space="preserve"> I'm having the same problem. One solution is to draw a smaller gradient and scale it up. The results is not pixel perfect, but faster. See also the ideas mentioned in this answer .</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> I'm having the same problem. One solution is to draw a smaller gradient and scale it up. The results is not pixel perfect, but faster. See also the ideas mentioned in this answer .</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -7725,28 +7604,23 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>&lt;p&gt;You can try &lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;df.county.groupby([df.date_stamp, df.county]).count().unstack().plot();
-&lt;/code&gt;&lt;/pre&gt;
-&lt;ul&gt;
-&lt;li&gt;&lt;code&gt;df.county...count()&lt;/code&gt; is the numerical series you want to plot.&lt;/li&gt;
-&lt;li&gt;&lt;code&gt;groupby([df.date_stamp, df.county])&lt;/code&gt; groups first by &lt;code&gt;date_stamp&lt;/code&gt;, then by &lt;code&gt;country&lt;/code&gt; (the order matters).&lt;/li&gt;
-&lt;li&gt;&lt;code&gt;unstack&lt;/code&gt; will create a Dataframe whose index is the time stamp, and columns are counties.&lt;/li&gt;
-&lt;li&gt;&lt;code&gt;plot();&lt;/code&gt; will plot it (and the &lt;code&gt;;&lt;/code&gt; suppresses the unnecessary output).&lt;/li&gt;
-&lt;/ul&gt;
-&lt;p&gt;&lt;strong&gt;Edit&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;To plot it on separate plots, you could do something like&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;for county in df.county.unique():
+          <t xml:space="preserve"> You can try is the numerical series you want to plot. groups first by , then by (the order matters). will create a Dataframe whose index is the time stamp, and columns are counties. will plot it (and the suppresses the unnecessary output). Edit To plot it on separate plots, you could do something like</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;df.county.groupby([df.date_stamp, df.county]).count().unstack().plot();
+&lt;/code&gt;, &lt;code&gt;df.county...count()&lt;/code&gt;, &lt;code&gt;groupby([df.date_stamp, df.county])&lt;/code&gt;, &lt;code&gt;date_stamp&lt;/code&gt;, &lt;code&gt;country&lt;/code&gt;, &lt;code&gt;unstack&lt;/code&gt;, &lt;code&gt;plot();&lt;/code&gt;, &lt;code&gt;;&lt;/code&gt;, &lt;code&gt;for county in df.county.unique():
     this_county = df[df.county == county]
     this_county.county.groupby(df.date_stamp).count().plot();
     title(county);
     show();
-&lt;/code&gt;&lt;/pre&gt;</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> You can try is the numerical series you want to plot. groups first by , then by (the order matters). will create a Dataframe whose index is the time stamp, and columns are counties. will plot it (and the suppresses the unnecessary output). Edit To plot it on separate plots, you could do something like</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -7814,19 +7688,22 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>&lt;p&gt;If I understood you correctly, you have a very fine population density map, which you're trying to make coarse, by aggregating population densities within every 5x5 pixel zone. Is that right?&lt;/p&gt;
-&lt;p&gt;So when you say you're trying to make 1km x 1km into 5km x 5km you mean that each &lt;em&gt;pixel&lt;/em&gt; currently represents population in a 1km x 1km region, whereas you want to make it represent population in a 5km x 5km region.&lt;/p&gt;
-&lt;p&gt;If so, please don't use clustering and KD-trees! That would be a horribly inefficient way to do something far simpler.&lt;/p&gt;
-&lt;p&gt;&lt;a href="https://stackoverflow.com/a/25175460/525169"&gt;This&lt;/a&gt; is probably what you want. To explain:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;# Suppose the 2D array is pop_density
+          <t xml:space="preserve"> If I understood you correctly, you have a very fine population density map, which you're trying to make coarse, by aggregating population densities within every 5x5 pixel zone. Is that right? So when you say you're trying to make 1km x 1km into 5km x 5km you mean that each pixel currently represents population in a 1km x 1km region, whereas you want to make it represent population in a 5km x 5km region. If so, please don't use clustering and KD-trees! That would be a horribly inefficient way to do something far simpler. This is probably what you want. To explain: As stated in the other answer, this will only work if the shape of is an exact multiple of . I believe this is the case for you, since you say you have a 200x150 image, which you're trying to make coarse by a factor of 5. For images that are not a multiple of the coarseness factor</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;# Suppose the 2D array is pop_density
 coarseness = 5
 temp = pop_density.reshape((pop_density.shape[0] // coarseness, coarseness,
                             pop_density[1] // coarseness, coarseness))
 coarse_pop_density = np.sum(temp, axis=(1,3))
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;As stated in the other answer, this will only work if the shape of &lt;code&gt;pop_density&lt;/code&gt; is an exact multiple of &lt;code&gt;coarseness&lt;/code&gt;. I believe this is the case for you, since you say you have a 200x150 image, which you're trying to make coarse by a factor of 5.&lt;/p&gt;
-&lt;h3&gt;For images that are not a multiple of the coarseness factor&lt;/h3&gt;
-&lt;pre&gt;&lt;code&gt;# Suppose the size of pop_density was 198x147 instead of 200x150.
+&lt;/code&gt;, &lt;code&gt;pop_density&lt;/code&gt;, &lt;code&gt;coarseness&lt;/code&gt;, &lt;code&gt;# Suppose the size of pop_density was 198x147 instead of 200x150.
 # Start by finding the next highest multiple of 5x5
 shape = np.array(pop_density.shape, dtype=float)
 new_shape = coarseness * np.ceil(shape / coarseness).astype(int)
@@ -7838,12 +7715,7 @@
 temp = zp_pop_density.reshape((new_shape[0] // coarseness, coarseness,
                                new_shape[1] // coarseness, coarseness))
 coarse_pop_density = np.sum(temp, axis=(1,3))
-&lt;/code&gt;&lt;/pre&gt;</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> If I understood you correctly, you have a very fine population density map, which you're trying to make coarse, by aggregating population densities within every 5x5 pixel zone. Is that right? So when you say you're trying to make 1km x 1km into 5km x 5km you mean that each pixel currently represents population in a 1km x 1km region, whereas you want to make it represent population in a 5km x 5km region. If so, please don't use clustering and KD-trees! That would be a horribly inefficient way to do something far simpler. This is probably what you want. To explain: As stated in the other answer, this will only work if the shape of is an exact multiple of . I believe this is the case for you, since you say you have a 200x150 image, which you're trying to make coarse by a factor of 5. For images that are not a multiple of the coarseness factor</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -7909,34 +7781,27 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>&lt;p&gt;As I see in github plotly.figure_factory at &lt;a href="https://github.com/plotly/plotly.py/blob/master/plotly/figure_factory/_county_choropleth.py" rel="nofollow noreferrer"&gt;_county_choropleth&lt;/a&gt; you need just call this in another way:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;from plotly.figure_factory._county_choropleth import create_choropleth
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;and call after:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;fig = create_choropleth(bla-bla)
+          <t xml:space="preserve"> As I see in github plotly.figure_factory at _county_choropleth you need just call this in another way: and call after: In situation with scatterplot you will need rename to just : and: Also I found that when you called you need to install few packages link to avoid troubles: And don`t forget to update your plotly version: Hope this information could help you</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;from plotly.figure_factory._county_choropleth import create_choropleth
+&lt;/code&gt;, &lt;code&gt;fig = create_choropleth(bla-bla)
 py.plot(fig, filename='basic-choropleth')
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;In situation with &lt;a href="https://github.com/plotly/plotly.py/blob/master/plotly/figure_factory/_scatterplot.py" rel="nofollow noreferrer"&gt;scatterplot&lt;/a&gt; you will need rename &lt;code&gt;create_scatterplot&lt;/code&gt; to just &lt;code&gt;scatterplot&lt;/code&gt;:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;from plotly.figure_factory._scatterplot import scatterplot
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;and:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;fig = scatterplot(bla-bla)
+&lt;/code&gt;, &lt;code&gt;create_scatterplot&lt;/code&gt;, &lt;code&gt;scatterplot&lt;/code&gt;, &lt;code&gt;from plotly.figure_factory._scatterplot import scatterplot
+&lt;/code&gt;, &lt;code&gt;fig = scatterplot(bla-bla)
 py.plot(fig, filename='basic-scatter')
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Also I found that when you called &lt;code&gt;create_choropleth&lt;/code&gt; you need to install few packages &lt;a href="https://github.com/plotly/documentation/issues/959" rel="nofollow noreferrer"&gt;link&lt;/a&gt; to avoid troubles:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;pip install shapely
+&lt;/code&gt;, &lt;code&gt;create_choropleth&lt;/code&gt;, &lt;code&gt;pip install shapely
 pip install geopandas
 pip install pyshp
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;And don`t forget to update your plotly version:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;pip install --upgrade plotly
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Hope this information could help you&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> As I see in github plotly.figure_factory at _county_choropleth you need just call this in another way: and call after: In situation with scatterplot you will need rename to just : and: Also I found that when you called you need to install few packages link to avoid troubles: And don`t forget to update your plotly version: Hope this information could help you</t>
+&lt;/code&gt;, &lt;code&gt;pip install --upgrade plotly
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -8003,35 +7868,25 @@
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>&lt;blockquote&gt;
-  &lt;p&gt;One is to make the vertical title of those axis horizontal &lt;/p&gt;
-&lt;/blockquote&gt;
-&lt;p&gt;To do this you need to hide the current label, and use the text() function to add a rotated label in the correct spot; as described here &lt;a href="https://stackoverflow.com/questions/42117769/rotate-y-axis-label-in-scatterplot3d-adjust-to-angle-of-axis#42118044"&gt;Rotate y-axis label in scatterplot3d (adjust to angle of axis)&lt;/a&gt;&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;set.seed(42)
+          <t xml:space="preserve"> One is to make the vertical title of those axis horizontal To do this you need to hide the current label, and use the text() function to add a rotated label in the correct spot; as described here Rotate y-axis label in scatterplot3d (adjust to angle of axis) and for example put a label "first interval" for 1 in x values and so one and so forth. How an I do it? From the documentation - https://cran.r-project.org/web/packages/scatterplot3d/scatterplot3d.pdf Use the x.ticklabs attribute, for example: Also, how can I make the points linear or plane instead of dots. Scatterplot3d offers "lines" and "vertical lines", for example:</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;set.seed(42)
 scatterplot3d(rnorm(20), rnorm(20), rnorm(20), ylab = "")
 text(x = 5, y = -2.5, "Y-axis", srt = 45)
-&lt;/code&gt;&lt;/pre&gt;
-&lt;blockquote&gt;
-  &lt;p&gt;and for example put a label "first interval" for 1 in x values and so one and so forth. How an I do it?&lt;/p&gt;
-&lt;/blockquote&gt;
-&lt;p&gt;From the documentation - &lt;a href="https://cran.r-project.org/web/packages/scatterplot3d/scatterplot3d.pdf" rel="nofollow noreferrer"&gt;https://cran.r-project.org/web/packages/scatterplot3d/scatterplot3d.pdf&lt;/a&gt;
-Use the x.ticklabs attribute, for example:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;xlabs &amp;lt;- c("first interval", "second", "third", "fourth", "this is 5")
+&lt;/code&gt;, &lt;code&gt;xlabs &amp;lt;- c("first interval", "second", "third", "fourth", "this is 5")
 scatterplot3d(x,y,z, pch =16,main="3D V1 v.s V2",xlab = "Class",ylab = "V1", zlab = "V2", x.ticklabs=xlabs)
-&lt;/code&gt;&lt;/pre&gt;
-&lt;blockquote&gt;
-  &lt;p&gt;Also, how can I make the points linear or plane instead of dots.&lt;/p&gt;
-&lt;/blockquote&gt;
-&lt;p&gt;Scatterplot3d offers "lines" and "vertical lines", for example:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;scatterplot3d(x,y,z , type="l", lwd=5, pch=" ")
+&lt;/code&gt;, &lt;code&gt;scatterplot3d(x,y,z , type="l", lwd=5, pch=" ")
 #or
 scatterplot3d(x,y,z , type="h", lwd=5, pch=" ")
-&lt;/code&gt;&lt;/pre&gt;</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> One is to make the vertical title of those axis horizontal To do this you need to hide the current label, and use the text() function to add a rotated label in the correct spot; as described here Rotate y-axis label in scatterplot3d (adjust to angle of axis) and for example put a label "first interval" for 1 in x values and so one and so forth. How an I do it? From the documentation - https://cran.r-project.org/web/packages/scatterplot3d/scatterplot3d.pdf Use the x.ticklabs attribute, for example: Also, how can I make the points linear or plane instead of dots. Scatterplot3d offers "lines" and "vertical lines", for example:</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -8095,10 +7950,17 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>&lt;p&gt;How about this. We animate one way on mouseenter and the reverse on mouseleave.&lt;/p&gt;
-&lt;p&gt;&lt;div class="snippet" data-lang="js" data-hide="false" data-console="true" data-babel="false"&gt;
-&lt;div class="snippet-code"&gt;
-&lt;pre class="snippet-code-html lang-html prettyprint-override"&gt;&lt;code&gt;&amp;lt;svg viewBox="0 0 360 160" width="360" height="160" id="ani"&amp;gt;
+          <t xml:space="preserve"> How about this. We animate one way on mouseenter and the reverse on mouseleave.</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;&amp;lt;svg viewBox="0 0 360 160" width="360" height="160" id="ani"&amp;gt;
 &amp;lt;defs&amp;gt;
 &amp;lt;linearGradient id="lightGradient"&amp;gt;
 &amp;lt;stop offset="0%" stop-color="red"&amp;gt;
@@ -8112,15 +7974,7 @@
 &amp;lt;/linearGradient&amp;gt;
 &amp;lt;/defs&amp;gt; 
 &amp;lt;circle cx="80" cy="80" r="50" fill="url(#lightGradient)"/&amp;gt;
-&amp;lt;/svg&amp;gt;&lt;/code&gt;&lt;/pre&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> How about this. We animate one way on mouseenter and the reverse on mouseleave.</t>
+&amp;lt;/svg&amp;gt;&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -8167,15 +8021,17 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>&lt;blockquote&gt;
-  &lt;p&gt;How do I keep my lines?&lt;/p&gt;
-&lt;/blockquote&gt;
-&lt;p&gt;You would have to either use a &lt;a href="http://msdn.microsoft.com/en-us/library/system.windows.shapes.polyline.aspx" rel="nofollow"&gt;Polyline&lt;/a&gt; or draw a &lt;a href="http://msdn.microsoft.com/en-us/library/system.windows.media.pathgeometry.aspx" rel="nofollow"&gt;PathGeometry&lt;/a&gt; or a &lt;a href="http://msdn.microsoft.com/en-us/library/system.windows.media.streamgeometry.aspx" rel="nofollow"&gt;StreamGeometry&lt;/a&gt; into a DrawingContext by &lt;a href="http://msdn.microsoft.com/en-us/library/system.windows.media.drawingcontext.drawgeometry.aspx" rel="nofollow"&gt;DrawGeometry&lt;/a&gt;. The geometry would have to contain one or more polyline segments.&lt;/p&gt;</t>
+          <t xml:space="preserve"> How do I keep my lines? You would have to either use a Polyline or draw a PathGeometry or a StreamGeometry into a DrawingContext by DrawGeometry . The geometry would have to contain one or more polyline segments.</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t xml:space="preserve"> How do I keep my lines? You would have to either use a Polyline or draw a PathGeometry or a StreamGeometry into a DrawingContext by DrawGeometry . The geometry would have to contain one or more polyline segments.</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -8232,6 +8088,149 @@
       </c>
       <c r="J81" t="inlineStr">
         <is>
+          <t xml:space="preserve"> In processing all of the drawing happens in a loop. An easy way to create animated sequences like you describe is to use frameCount to drive it and using the modulus function % is a good way to create a loop. For example, to animate along the x axis: Note: strange things will happen if you don't cast / convert to a float I use this pretty often to animate other features such as the color. If you want to get more advanced, setting vectors and coordinates with PVector . There is a pretty good tutorial on Daniel Shiffman's site .</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;void draw() {
+   float x = 50;
+   float y = 50;
+   float lineLength = 50;
+   int framesToAnimate = 60;
+   line(x,y,x+float(frameCount % framesToAnimate)/framesToAnimate*lineLength, y);
+}
+&lt;/code&gt;, &lt;code&gt;fill(color(127 + sin(float(frameCount)/90)*127, 0, 0, 127));
+&lt;/code&gt;]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>new_qs_11k.csv</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>How can I animate a choropleth in PowerBI?</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>0.999996542930603</v>
+      </c>
+      <c r="E82" t="n">
+        <v>52138413</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>plotly.figure_factory.create_scatterplot stopped working?</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>pythonplotplotlyscatter-plot</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>52148045</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>&lt;p&gt;As I see in github plotly.figure_factory at &lt;a href="https://github.com/plotly/plotly.py/blob/master/plotly/figure_factory/_county_choropleth.py" rel="nofollow noreferrer"&gt;_county_choropleth&lt;/a&gt; you need just call this in another way:&lt;/p&gt;
+&lt;pre&gt;&lt;code&gt;from plotly.figure_factory._county_choropleth import create_choropleth
+&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;and call after:&lt;/p&gt;
+&lt;pre&gt;&lt;code&gt;fig = create_choropleth(bla-bla)
+py.plot(fig, filename='basic-choropleth')
+&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;In situation with &lt;a href="https://github.com/plotly/plotly.py/blob/master/plotly/figure_factory/_scatterplot.py" rel="nofollow noreferrer"&gt;scatterplot&lt;/a&gt; you will need rename &lt;code&gt;create_scatterplot&lt;/code&gt; to just &lt;code&gt;scatterplot&lt;/code&gt;:&lt;/p&gt;
+&lt;pre&gt;&lt;code&gt;from plotly.figure_factory._scatterplot import scatterplot
+&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;and:&lt;/p&gt;
+&lt;pre&gt;&lt;code&gt;fig = scatterplot(bla-bla)
+py.plot(fig, filename='basic-scatter')
+&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;Also I found that when you called &lt;code&gt;create_choropleth&lt;/code&gt; you need to install few packages &lt;a href="https://github.com/plotly/documentation/issues/959" rel="nofollow noreferrer"&gt;link&lt;/a&gt; to avoid troubles:&lt;/p&gt;
+&lt;pre&gt;&lt;code&gt;pip install shapely
+pip install geopandas
+pip install pyshp
+&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;And don`t forget to update your plotly version:&lt;/p&gt;
+&lt;pre&gt;&lt;code&gt;pip install --upgrade plotly
+&lt;/code&gt;&lt;/pre&gt;
+&lt;p&gt;Hope this information could help you&lt;/p&gt;</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> As I see in github plotly.figure_factory at _county_choropleth you need just call this in another way: and call after: In situation with scatterplot you will need rename to just : and: Also I found that when you called you need to install few packages link to avoid troubles: And don`t forget to update your plotly version: Hope this information could help you</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;from plotly.figure_factory._county_choropleth import create_choropleth
+&lt;/code&gt;, &lt;code&gt;fig = create_choropleth(bla-bla)
+py.plot(fig, filename='basic-choropleth')
+&lt;/code&gt;, &lt;code&gt;create_scatterplot&lt;/code&gt;, &lt;code&gt;scatterplot&lt;/code&gt;, &lt;code&gt;from plotly.figure_factory._scatterplot import scatterplot
+&lt;/code&gt;, &lt;code&gt;fig = scatterplot(bla-bla)
+py.plot(fig, filename='basic-scatter')
+&lt;/code&gt;, &lt;code&gt;create_choropleth&lt;/code&gt;, &lt;code&gt;pip install shapely
+pip install geopandas
+pip install pyshp
+&lt;/code&gt;, &lt;code&gt;pip install --upgrade plotly
+&lt;/code&gt;]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>2812</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>new_qs_11k.csv</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>How can I animate a choropleth in PowerBI?</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>0.9999947547912598</v>
+      </c>
+      <c r="E83" t="n">
+        <v>12730225</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>How to realize the DRAWING processing in Processing?</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>arraysarraylistdrawingprocessinglinear-algebra</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>12733633</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
           <t>&lt;p&gt;In processing all of the drawing happens in a loop. An easy way to create animated sequences like you describe is to use frameCount to drive it and using the modulus function % is a good way to create a loop. For example, to animate along the x axis:&lt;/p&gt;
 &lt;pre&gt;&lt;code&gt;void draw() {
    float x = 50;
@@ -8248,177 +8247,27 @@
 &lt;p&gt;If you want to get more advanced, setting vectors and coordinates with &lt;a href="http://processing.org/reference/PVector.html" rel="nofollow"&gt;PVector&lt;/a&gt;. There is a pretty good tutorial on &lt;a href="http://www.shiffman.net/teaching/nature/vectors/" rel="nofollow"&gt;Daniel Shiffman's site&lt;/a&gt;.&lt;/p&gt;</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
+      <c r="J83" t="inlineStr">
         <is>
           <t xml:space="preserve"> In processing all of the drawing happens in a loop. An easy way to create animated sequences like you describe is to use frameCount to drive it and using the modulus function % is a good way to create a loop. For example, to animate along the x axis: Note: strange things will happen if you don't cast / convert to a float I use this pretty often to animate other features such as the color. If you want to get more advanced, setting vectors and coordinates with PVector . There is a pretty good tutorial on Daniel Shiffman's site .</t>
         </is>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>2027</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>new_qs_11k.csv</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>How can I animate a choropleth in PowerBI?</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>0.999996542930603</v>
-      </c>
-      <c r="E82" t="n">
-        <v>52138413</v>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>plotly.figure_factory.create_scatterplot stopped working?</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>pythonplotplotlyscatter-plot</t>
-        </is>
-      </c>
-      <c r="H82" t="n">
-        <v>52148045</v>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;As I see in github plotly.figure_factory at &lt;a href="https://github.com/plotly/plotly.py/blob/master/plotly/figure_factory/_county_choropleth.py" rel="nofollow noreferrer"&gt;_county_choropleth&lt;/a&gt; you need just call this in another way:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;from plotly.figure_factory._county_choropleth import create_choropleth
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;and call after:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;fig = create_choropleth(bla-bla)
-py.plot(fig, filename='basic-choropleth')
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;In situation with &lt;a href="https://github.com/plotly/plotly.py/blob/master/plotly/figure_factory/_scatterplot.py" rel="nofollow noreferrer"&gt;scatterplot&lt;/a&gt; you will need rename &lt;code&gt;create_scatterplot&lt;/code&gt; to just &lt;code&gt;scatterplot&lt;/code&gt;:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;from plotly.figure_factory._scatterplot import scatterplot
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;and:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;fig = scatterplot(bla-bla)
-py.plot(fig, filename='basic-scatter')
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Also I found that when you called &lt;code&gt;create_choropleth&lt;/code&gt; you need to install few packages &lt;a href="https://github.com/plotly/documentation/issues/959" rel="nofollow noreferrer"&gt;link&lt;/a&gt; to avoid troubles:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;pip install shapely
-pip install geopandas
-pip install pyshp
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;And don`t forget to update your plotly version:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;pip install --upgrade plotly
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Hope this information could help you&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;As I see in github plotly.figure_factory at &lt;a href="https://github.com/plotly/plotly.py/blob/master/plotly/figure_factory/_county_choropleth.py" rel="nofollow noreferrer"&gt;_county_choropleth&lt;/a&gt; you need just call this in another way:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;from plotly.figure_factory._county_choropleth import create_choropleth
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;and call after:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;fig = create_choropleth(bla-bla)
-py.plot(fig, filename='basic-choropleth')
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;In situation with &lt;a href="https://github.com/plotly/plotly.py/blob/master/plotly/figure_factory/_scatterplot.py" rel="nofollow noreferrer"&gt;scatterplot&lt;/a&gt; you will need rename &lt;code&gt;create_scatterplot&lt;/code&gt; to just &lt;code&gt;scatterplot&lt;/code&gt;:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;from plotly.figure_factory._scatterplot import scatterplot
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;and:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;fig = scatterplot(bla-bla)
-py.plot(fig, filename='basic-scatter')
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Also I found that when you called &lt;code&gt;create_choropleth&lt;/code&gt; you need to install few packages &lt;a href="https://github.com/plotly/documentation/issues/959" rel="nofollow noreferrer"&gt;link&lt;/a&gt; to avoid troubles:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;pip install shapely
-pip install geopandas
-pip install pyshp
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;And don`t forget to update your plotly version:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;pip install --upgrade plotly
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Hope this information could help you&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> As I see in github plotly.figure_factory at _county_choropleth you need just call this in another way: and call after: In situation with scatterplot you will need rename to just : and: Also I found that when you called you need to install few packages link to avoid troubles: And don`t forget to update your plotly version: Hope this information could help you</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>2812</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>new_qs_11k.csv</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>How can I animate a choropleth in PowerBI?</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>0.9999947547912598</v>
-      </c>
-      <c r="E83" t="n">
-        <v>12730225</v>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>How to realize the DRAWING processing in Processing?</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>arraysarraylistdrawingprocessinglinear-algebra</t>
-        </is>
-      </c>
-      <c r="H83" t="n">
-        <v>12733633</v>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;In processing all of the drawing happens in a loop. An easy way to create animated sequences like you describe is to use frameCount to drive it and using the modulus function % is a good way to create a loop. For example, to animate along the x axis:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;void draw() {
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;void draw() {
    float x = 50;
    float y = 50;
    float lineLength = 50;
    int framesToAnimate = 60;
    line(x,y,x+float(frameCount % framesToAnimate)/framesToAnimate*lineLength, y);
 }
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Note: strange things will happen if you don't cast / convert to a float&lt;/p&gt;
-&lt;p&gt;I use this pretty often to animate other features such as the color.&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;fill(color(127 + sin(float(frameCount)/90)*127, 0, 0, 127));
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;If you want to get more advanced, setting vectors and coordinates with &lt;a href="http://processing.org/reference/PVector.html" rel="nofollow"&gt;PVector&lt;/a&gt;. There is a pretty good tutorial on &lt;a href="http://www.shiffman.net/teaching/nature/vectors/" rel="nofollow"&gt;Daniel Shiffman's site&lt;/a&gt;.&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>&lt;p&gt;In processing all of the drawing happens in a loop. An easy way to create animated sequences like you describe is to use frameCount to drive it and using the modulus function % is a good way to create a loop. For example, to animate along the x axis:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;void draw() {
-   float x = 50;
-   float y = 50;
-   float lineLength = 50;
-   int framesToAnimate = 60;
-   line(x,y,x+float(frameCount % framesToAnimate)/framesToAnimate*lineLength, y);
-}
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Note: strange things will happen if you don't cast / convert to a float&lt;/p&gt;
-&lt;p&gt;I use this pretty often to animate other features such as the color.&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;fill(color(127 + sin(float(frameCount)/90)*127, 0, 0, 127));
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;If you want to get more advanced, setting vectors and coordinates with &lt;a href="http://processing.org/reference/PVector.html" rel="nofollow"&gt;PVector&lt;/a&gt;. There is a pretty good tutorial on &lt;a href="http://www.shiffman.net/teaching/nature/vectors/" rel="nofollow"&gt;Daniel Shiffman's site&lt;/a&gt;.&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> In processing all of the drawing happens in a loop. An easy way to create animated sequences like you describe is to use frameCount to drive it and using the modulus function % is a good way to create a loop. For example, to animate along the x axis: Note: strange things will happen if you don't cast / convert to a float I use this pretty often to animate other features such as the color. If you want to get more advanced, setting vectors and coordinates with PVector . There is a pretty good tutorial on Daniel Shiffman's site .</t>
+&lt;/code&gt;, &lt;code&gt;fill(color(127 + sin(float(frameCount)/90)*127, 0, 0, 127));
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -8488,8 +8337,17 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>&lt;p&gt;I don't have a twitter key to test your full code, however here is a code sample that you can adapt to animate a plot. A disadvantage of this approach is that you need to kill the process to stop the animation. This example plots the average along with the raw data, for illustration.&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;import numpy
+          <t xml:space="preserve"> I don't have a twitter key to test your full code, however here is a code sample that you can adapt to animate a plot. A disadvantage of this approach is that you need to kill the process to stop the animation. This example plots the average along with the raw data, for illustration.</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;import numpy
 from pylab import *
 import time
 class StdOutListener():
@@ -8514,12 +8372,7 @@
 out_listener = StdOutListener()
 for i in range(1000):
   out_listener.on_data(i + numpy.random.randint(-5,5))
-&lt;/code&gt;&lt;/pre&gt;</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> I don't have a twitter key to test your full code, however here is a code sample that you can adapt to animate a plot. A disadvantage of this approach is that you need to kill the process to stop the animation. This example plots the average along with the raw data, for illustration.</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -8583,10 +8436,17 @@
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>&lt;p&gt;How about this. We animate one way on mouseenter and the reverse on mouseleave.&lt;/p&gt;
-&lt;p&gt;&lt;div class="snippet" data-lang="js" data-hide="false" data-console="true" data-babel="false"&gt;
-&lt;div class="snippet-code"&gt;
-&lt;pre class="snippet-code-html lang-html prettyprint-override"&gt;&lt;code&gt;&amp;lt;svg viewBox="0 0 360 160" width="360" height="160" id="ani"&amp;gt;
+          <t xml:space="preserve"> How about this. We animate one way on mouseenter and the reverse on mouseleave.</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;&amp;lt;svg viewBox="0 0 360 160" width="360" height="160" id="ani"&amp;gt;
 &amp;lt;defs&amp;gt;
 &amp;lt;linearGradient id="lightGradient"&amp;gt;
 &amp;lt;stop offset="0%" stop-color="red"&amp;gt;
@@ -8600,15 +8460,7 @@
 &amp;lt;/linearGradient&amp;gt;
 &amp;lt;/defs&amp;gt; 
 &amp;lt;circle cx="80" cy="80" r="50" fill="url(#lightGradient)"/&amp;gt;
-&amp;lt;/svg&amp;gt;&lt;/code&gt;&lt;/pre&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> How about this. We animate one way on mouseenter and the reverse on mouseleave.</t>
+&amp;lt;/svg&amp;gt;&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -8675,35 +8527,25 @@
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>&lt;blockquote&gt;
-  &lt;p&gt;One is to make the vertical title of those axis horizontal &lt;/p&gt;
-&lt;/blockquote&gt;
-&lt;p&gt;To do this you need to hide the current label, and use the text() function to add a rotated label in the correct spot; as described here &lt;a href="https://stackoverflow.com/questions/42117769/rotate-y-axis-label-in-scatterplot3d-adjust-to-angle-of-axis#42118044"&gt;Rotate y-axis label in scatterplot3d (adjust to angle of axis)&lt;/a&gt;&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;set.seed(42)
+          <t xml:space="preserve"> One is to make the vertical title of those axis horizontal To do this you need to hide the current label, and use the text() function to add a rotated label in the correct spot; as described here Rotate y-axis label in scatterplot3d (adjust to angle of axis) and for example put a label "first interval" for 1 in x values and so one and so forth. How an I do it? From the documentation - https://cran.r-project.org/web/packages/scatterplot3d/scatterplot3d.pdf Use the x.ticklabs attribute, for example: Also, how can I make the points linear or plane instead of dots. Scatterplot3d offers "lines" and "vertical lines", for example:</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;set.seed(42)
 scatterplot3d(rnorm(20), rnorm(20), rnorm(20), ylab = "")
 text(x = 5, y = -2.5, "Y-axis", srt = 45)
-&lt;/code&gt;&lt;/pre&gt;
-&lt;blockquote&gt;
-  &lt;p&gt;and for example put a label "first interval" for 1 in x values and so one and so forth. How an I do it?&lt;/p&gt;
-&lt;/blockquote&gt;
-&lt;p&gt;From the documentation - &lt;a href="https://cran.r-project.org/web/packages/scatterplot3d/scatterplot3d.pdf" rel="nofollow noreferrer"&gt;https://cran.r-project.org/web/packages/scatterplot3d/scatterplot3d.pdf&lt;/a&gt;
-Use the x.ticklabs attribute, for example:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;xlabs &amp;lt;- c("first interval", "second", "third", "fourth", "this is 5")
+&lt;/code&gt;, &lt;code&gt;xlabs &amp;lt;- c("first interval", "second", "third", "fourth", "this is 5")
 scatterplot3d(x,y,z, pch =16,main="3D V1 v.s V2",xlab = "Class",ylab = "V1", zlab = "V2", x.ticklabs=xlabs)
-&lt;/code&gt;&lt;/pre&gt;
-&lt;blockquote&gt;
-  &lt;p&gt;Also, how can I make the points linear or plane instead of dots.&lt;/p&gt;
-&lt;/blockquote&gt;
-&lt;p&gt;Scatterplot3d offers "lines" and "vertical lines", for example:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;scatterplot3d(x,y,z , type="l", lwd=5, pch=" ")
+&lt;/code&gt;, &lt;code&gt;scatterplot3d(x,y,z , type="l", lwd=5, pch=" ")
 #or
 scatterplot3d(x,y,z , type="h", lwd=5, pch=" ")
-&lt;/code&gt;&lt;/pre&gt;</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> One is to make the vertical title of those axis horizontal To do this you need to hide the current label, and use the text() function to add a rotated label in the correct spot; as described here Rotate y-axis label in scatterplot3d (adjust to angle of axis) and for example put a label "first interval" for 1 in x values and so one and so forth. How an I do it? From the documentation - https://cran.r-project.org/web/packages/scatterplot3d/scatterplot3d.pdf Use the x.ticklabs attribute, for example: Also, how can I make the points linear or plane instead of dots. Scatterplot3d offers "lines" and "vertical lines", for example:</t>
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -8752,17 +8594,17 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>&lt;p&gt;&lt;strong&gt;Unfortunately, the answer to your question does not exist.&lt;/strong&gt;&lt;/p&gt;
-&lt;p&gt;There is no built-in mechanism in D3 that repels edges or minimizes edge crossings. You would think it wouldn't be that hard to implement a charge on an edge, but here we are.&lt;/p&gt;
-&lt;p&gt;Furthermore, there doesn't seem to be any mechanism &lt;strong&gt;anywhere&lt;/strong&gt; that reduces edge crossings in general. I've looked through dozens of visualization libraries and layout algorithms, and none of them deal with reducing edge crossings on a generic undirected graph.&lt;/p&gt;
-&lt;p&gt;There are a number of algorithms that work well for planar graphs, or 2-level graphs, or other simplifications. &lt;a href="https://github.com/cpettitt/dagre/wiki" rel="noreferrer"&gt;dagre&lt;/a&gt; works well in theory for 2-level graphs, although the utter lack of documentation makes it almost impossible to work with.&lt;/p&gt;
-&lt;p&gt;Part of the reason for this is that laying out graphs is &lt;strong&gt;hard&lt;/strong&gt;. In particular, minimizing edge crossings is NP-hard, so I suspect that most layout designers hit that problem, bang their head against the keyboard a few times, and give up.&lt;/p&gt;
-&lt;p&gt;If anyone does come up with a good library for this, please publish it for the rest of us :)&lt;/p&gt;</t>
+          <t xml:space="preserve"> Unfortunately, the answer to your question does not exist. There is no built-in mechanism in D3 that repels edges or minimizes edge crossings. You would think it wouldn't be that hard to implement a charge on an edge, but here we are. Furthermore, there doesn't seem to be any mechanism anywhere that reduces edge crossings in general. I've looked through dozens of visualization libraries and layout algorithms, and none of them deal with reducing edge crossings on a generic undirected graph. There are a number of algorithms that work well for planar graphs, or 2-level graphs, or other simplifications. dagre works well in theory for 2-level graphs, although the utter lack of documentation makes it almost impossible to work with. Part of the reason for this is that laying out graphs is hard . In particular, minimizing edge crossings is NP-hard, so I suspect that most layout designers hit that problem, bang their head against the keyboard a few times, and give up. If anyone does come up with a good library for this, please publish it for the rest of us :)</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Unfortunately, the answer to your question does not exist. There is no built-in mechanism in D3 that repels edges or minimizes edge crossings. You would think it wouldn't be that hard to implement a charge on an edge, but here we are. Furthermore, there doesn't seem to be any mechanism anywhere that reduces edge crossings in general. I've looked through dozens of visualization libraries and layout algorithms, and none of them deal with reducing edge crossings on a generic undirected graph. There are a number of algorithms that work well for planar graphs, or 2-level graphs, or other simplifications. dagre works well in theory for 2-level graphs, although the utter lack of documentation makes it almost impossible to work with. Part of the reason for this is that laying out graphs is hard . In particular, minimizing edge crossings is NP-hard, so I suspect that most layout designers hit that problem, bang their head against the keyboard a few times, and give up. If anyone does come up with a good library for this, please publish it for the rest of us :)</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -8828,34 +8670,27 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>&lt;p&gt;As I see in github plotly.figure_factory at &lt;a href="https://github.com/plotly/plotly.py/blob/master/plotly/figure_factory/_county_choropleth.py" rel="nofollow noreferrer"&gt;_county_choropleth&lt;/a&gt; you need just call this in another way:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;from plotly.figure_factory._county_choropleth import create_choropleth
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;and call after:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;fig = create_choropleth(bla-bla)
+          <t xml:space="preserve"> As I see in github plotly.figure_factory at _county_choropleth you need just call this in another way: and call after: In situation with scatterplot you will need rename to just : and: Also I found that when you called you need to install few packages link to avoid troubles: And don`t forget to update your plotly version: Hope this information could help you</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;from plotly.figure_factory._county_choropleth import create_choropleth
+&lt;/code&gt;, &lt;code&gt;fig = create_choropleth(bla-bla)
 py.plot(fig, filename='basic-choropleth')
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;In situation with &lt;a href="https://github.com/plotly/plotly.py/blob/master/plotly/figure_factory/_scatterplot.py" rel="nofollow noreferrer"&gt;scatterplot&lt;/a&gt; you will need rename &lt;code&gt;create_scatterplot&lt;/code&gt; to just &lt;code&gt;scatterplot&lt;/code&gt;:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;from plotly.figure_factory._scatterplot import scatterplot
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;and:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;fig = scatterplot(bla-bla)
+&lt;/code&gt;, &lt;code&gt;create_scatterplot&lt;/code&gt;, &lt;code&gt;scatterplot&lt;/code&gt;, &lt;code&gt;from plotly.figure_factory._scatterplot import scatterplot
+&lt;/code&gt;, &lt;code&gt;fig = scatterplot(bla-bla)
 py.plot(fig, filename='basic-scatter')
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Also I found that when you called &lt;code&gt;create_choropleth&lt;/code&gt; you need to install few packages &lt;a href="https://github.com/plotly/documentation/issues/959" rel="nofollow noreferrer"&gt;link&lt;/a&gt; to avoid troubles:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;pip install shapely
+&lt;/code&gt;, &lt;code&gt;create_choropleth&lt;/code&gt;, &lt;code&gt;pip install shapely
 pip install geopandas
 pip install pyshp
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;And don`t forget to update your plotly version:&lt;/p&gt;
-&lt;pre&gt;&lt;code&gt;pip install --upgrade plotly
-&lt;/code&gt;&lt;/pre&gt;
-&lt;p&gt;Hope this information could help you&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> As I see in github plotly.figure_factory at _county_choropleth you need just call this in another way: and call after: In situation with scatterplot you will need rename to just : and: Also I found that when you called you need to install few packages link to avoid troubles: And don`t forget to update your plotly version: Hope this information could help you</t>
+&lt;/code&gt;, &lt;code&gt;pip install --upgrade plotly
+&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -9004,10 +8839,17 @@
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>&lt;p&gt;I belive that d3 have a more clean solution. See &lt;code&gt;d3.svg.axis&lt;/code&gt;.&lt;/p&gt;
-&lt;p&gt;&lt;div class="snippet" data-lang="js" data-hide="false" data-console="true" data-babel="false"&gt;
-&lt;div class="snippet-code"&gt;
-&lt;pre class="snippet-code-js lang-js prettyprint-override"&gt;&lt;code&gt;var points0 = [
+          <t xml:space="preserve"> I belive that d3 have a more clean solution. See .</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;d3.svg.axis&lt;/code&gt;, &lt;code&gt;var points0 = [
     [1,8,8,8,8,8,8,8,8,8,8,8,8,8,8],
     [8,1,1,1,1,1,1,1,1,1,1,1,1,1,1],
 ];
@@ -9093,8 +8935,7 @@
     return function(t) {
       return "M" + points.map(function(p) {  return p(t); }).join("L");
     };
-  }&lt;/code&gt;&lt;/pre&gt;
-&lt;pre class="snippet-code-css lang-css prettyprint-override"&gt;&lt;code&gt;path {
+  }&lt;/code&gt;, &lt;code&gt;path {
     stroke: #f00;
 }
 .line {
@@ -9105,16 +8946,7 @@
 .rule {
     stroke: #ccc;
     stroke-width: 1px;
-}&lt;/code&gt;&lt;/pre&gt;
-&lt;pre class="snippet-code-html lang-html prettyprint-override"&gt;&lt;code&gt;&amp;lt;script src="https://cdnjs.cloudflare.com/ajax/libs/d3/3.4.11/d3.min.js"&amp;gt;&amp;lt;/script&amp;gt;&lt;/code&gt;&lt;/pre&gt;
-&lt;/div&gt;
-&lt;/div&gt;
-&lt;/p&gt;</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> I belive that d3 have a more clean solution. See .</t>
+}&lt;/code&gt;, &lt;code&gt;&amp;lt;script src="https://cdnjs.cloudflare.com/ajax/libs/d3/3.4.11/d3.min.js"&amp;gt;&amp;lt;/script&amp;gt;&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -9163,17 +8995,17 @@
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>&lt;p&gt;Many libraries are using &lt;code&gt;&amp;lt;canvas&amp;gt;&lt;/code&gt; instead of SVG. Then, it will really depends on your needs, but &lt;strong&gt;D3&lt;/strong&gt; is very impressive.&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;&lt;a href="http://mbostock.github.com/d3/" rel="nofollow"&gt;D3&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="http://code.google.com/p/flot/" rel="nofollow"&gt;Flot&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="http://g.raphaeljs.com/" rel="nofollow"&gt;gRaphael&lt;/a&gt;&lt;/li&gt;
-&lt;/ul&gt;</t>
+          <t xml:space="preserve"> Many libraries are using instead of SVG. Then, it will really depends on your needs, but D3 is very impressive. D3 Flot gRaphael</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Many libraries are using instead of SVG. Then, it will really depends on your needs, but D3 is very impressive. D3 Flot gRaphael</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>[&lt;code&gt;&amp;lt;canvas&amp;gt;&lt;/code&gt;]</t>
         </is>
       </c>
     </row>
@@ -9222,17 +9054,17 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>&lt;p&gt;The parse error is caused by a naïve path interpolation of SVG's &lt;a href="http://www.w3.org/TR/SVG/paths.html#PathDataEllipticalArcCommands" rel="noreferrer"&gt;elliptical arc command&lt;/a&gt;, &lt;strong&gt;A&lt;/strong&gt;. Elliptical arcs have the form "rx ry x-axis-rotation large-arc-flag sweep-flag x y". If you use default path interpolation on arc commands, it's possible that you'll inadvertently attempt to interpolate one of the flags as well, which can only have the value zero or one. This error will always happen if you enable or disable the innerRadius.&lt;/p&gt;
-&lt;p&gt;You shouldn't use the &lt;a href="https://github.com/mbostock/d3/wiki/Transitions#wiki-d3_interpolateString" rel="noreferrer"&gt;default string interpolator&lt;/a&gt; for &lt;a href="https://github.com/mbostock/d3/wiki/SVG-Shapes#wiki-arc" rel="noreferrer"&gt;d3.svg.arc&lt;/a&gt; path data; arcs must be interpolated in polar coordinates using a &lt;a href="https://github.com/mbostock/d3/wiki/Transitions#wiki-attrTween" rel="noreferrer"&gt;custom tween&lt;/a&gt;. Here are two short examples demonstrating how to interpolate arcs in data space:&lt;/p&gt;
-&lt;ul&gt;
-&lt;li&gt;&lt;a href="http://bl.ocks.org/1346395" rel="noreferrer"&gt;How-To: Update a Pie Chart (Part 1)&lt;/a&gt;&lt;/li&gt;
-&lt;li&gt;&lt;a href="http://bl.ocks.org/1346410" rel="noreferrer"&gt;How-To: Update a Pie Chart (Part 2)&lt;/a&gt;&lt;/li&gt;
-&lt;/ul&gt;</t>
+          <t xml:space="preserve"> The parse error is caused by a naïve path interpolation of SVG's elliptical arc command , A . Elliptical arcs have the form "rx ry x-axis-rotation large-arc-flag sweep-flag x y". If you use default path interpolation on arc commands, it's possible that you'll inadvertently attempt to interpolate one of the flags as well, which can only have the value zero or one. This error will always happen if you enable or disable the innerRadius. You shouldn't use the default string interpolator for d3.svg.arc path data; arcs must be interpolated in polar coordinates using a custom tween . Here are two short examples demonstrating how to interpolate arcs in data space: How-To: Update a Pie Chart (Part 1) How-To: Update a Pie Chart (Part 2)</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The parse error is caused by a naïve path interpolation of SVG's elliptical arc command , A . Elliptical arcs have the form "rx ry x-axis-rotation large-arc-flag sweep-flag x y". If you use default path interpolation on arc commands, it's possible that you'll inadvertently attempt to interpolate one of the flags as well, which can only have the value zero or one. This error will always happen if you enable or disable the innerRadius. You shouldn't use the default string interpolator for d3.svg.arc path data; arcs must be interpolated in polar coordinates using a custom tween . Here are two short examples demonstrating how to interpolate arcs in data space: How-To: Update a Pie Chart (Part 1) How-To: Update a Pie Chart (Part 2)</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
